--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F252BB-CCC9-4B16-A5D2-5487F1716167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6F4249-274E-2946-AD38-25497FC1E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9408" yWindow="1440" windowWidth="19116" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-25020" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="2" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="1SPL01_plants" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
-    <sheet name="GEO_RNASEQ" sheetId="4" r:id="rId3"/>
-    <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="5" r:id="rId4"/>
-    <sheet name="BIOSAMPLE_PLANTS" sheetId="6" r:id="rId5"/>
-    <sheet name="PRIDE_PROTEOMICS" sheetId="7" r:id="rId6"/>
-    <sheet name="ENA_PLANT_SAMPLE" sheetId="8" r:id="rId7"/>
+    <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="5" r:id="rId3"/>
+    <sheet name="BIOSAMPLE_PLANTS" sheetId="6" r:id="rId4"/>
+    <sheet name="PRIDE_PROTEOMICS" sheetId="7" r:id="rId5"/>
+    <sheet name="ENA_PLANT_SAMPLE" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -204,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="445">
   <si>
     <t>Source Name</t>
   </si>
@@ -911,24 +918,12 @@
     <t>Review comments</t>
   </si>
   <si>
-    <t>SAMPLES_source name</t>
-  </si>
-  <si>
-    <t>Briefly identify the biological material e.g., vastus lateralis muscle.</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
     <t>s</t>
   </si>
   <si>
-    <t>SAMPLES_Sample name</t>
-  </si>
-  <si>
-    <t>An arbitrary and unique identifier for each sample. This information will not appear in the final records and is only used as an internal reference. Each row represents a GEO Sample record.</t>
-  </si>
-  <si>
     <t>NFDI4PSO:0000064</t>
   </si>
   <si>
@@ -938,18 +933,9 @@
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000064</t>
   </si>
   <si>
-    <t>SAMPLES_characteristics: tag</t>
-  </si>
-  <si>
-    <t>Replace 'tag' with a biosource characteristic (e.g. "strain", "tissue", "developmental stage", "tumor stage", etc), and then enter the value for each sample beneath (e.g. "129SV", "brain", "embryo", etc). You may add multiple characteristics columns to this template (as presented in EXAMPLE 1 worksheet).</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
-    <t>at least some info is required, but not all terms</t>
-  </si>
-  <si>
     <t>NFDI4PSO:0000042</t>
   </si>
   <si>
@@ -962,12 +948,6 @@
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000030</t>
   </si>
   <si>
-    <t>SAMPLES_organism</t>
-  </si>
-  <si>
-    <t>Identify the organism(s) from which the sequences were derived.</t>
-  </si>
-  <si>
     <t>NFDI4PSO:0000065</t>
   </si>
   <si>
@@ -1070,12 +1050,6 @@
     <t>http://purl.obolibrary.org/obo/PECO_0007231</t>
   </si>
   <si>
-    <t>PROTOCOLS_growth protocol</t>
-  </si>
-  <si>
-    <t>[Optional]  Describe the conditions that were used to grow or maintain organisms or cells prior to extract preparation.</t>
-  </si>
-  <si>
     <t>PECO:0007147</t>
   </si>
   <si>
@@ -1130,12 +1104,6 @@
     <t>http://purl.obolibrary.org/obo/PECO_0007383</t>
   </si>
   <si>
-    <t xml:space="preserve">PROTOCOLS_treatment protocol </t>
-  </si>
-  <si>
-    <t>[Optional] Describe the treatments applied to the biological material prior to extract preparation.</t>
-  </si>
-  <si>
     <t>PECO:0007241</t>
   </si>
   <si>
@@ -1188,12 +1156,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000010</t>
-  </si>
-  <si>
-    <t>PROTOCOLS_extract protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe the protocols used to extract and prepare the material to be sequenced. </t>
   </si>
   <si>
     <t>NFDI4PSO:0000011</t>
@@ -2628,15 +2590,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:ER7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="47.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
@@ -2645,102 +2607,102 @@
     <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.88671875" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="37.88671875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="37.83203125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="25.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="30" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="37.5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="35.5" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="28" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.109375" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="37.109375" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.1640625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="37.1640625" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="24" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="43.88671875" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="32.5" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="43.83203125" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="43" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="43.88671875" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="32.5" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="43.83203125" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="31.5" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="61" max="61" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="64" max="64" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="65" max="65" width="36" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="39.88671875" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="32.44140625" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="39.83203125" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="32.5" hidden="1" customWidth="1"/>
     <col min="68" max="68" width="40.33203125" hidden="1" customWidth="1"/>
     <col min="69" max="69" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="11" hidden="1" customWidth="1"/>
     <col min="71" max="71" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="72" max="72" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="11" hidden="1" customWidth="1"/>
     <col min="75" max="75" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="76" max="76" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="14" hidden="1" customWidth="1"/>
     <col min="79" max="79" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="80" max="80" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="35.5" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="14" hidden="1" customWidth="1"/>
     <col min="83" max="83" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="84" max="84" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="39.44140625" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="32.5" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="39.5" hidden="1" customWidth="1"/>
     <col min="88" max="88" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="39.44140625" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="32.5" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="39.5" hidden="1" customWidth="1"/>
     <col min="91" max="91" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="39.44140625" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="32.5" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="39.5" hidden="1" customWidth="1"/>
     <col min="94" max="94" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="39.44140625" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="19.88671875" hidden="1" customWidth="1"/>
-    <col min="99" max="99" width="26.88671875" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="32.5" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="39.5" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="26.83203125" hidden="1" customWidth="1"/>
     <col min="100" max="100" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="102" max="102" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="36.5" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="105" max="105" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="108" max="108" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="38.5" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="111" max="111" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="43" bestFit="1" customWidth="1"/>
@@ -2749,42 +2711,42 @@
     <col min="115" max="115" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="117" max="117" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="15.5" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="121" max="121" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="124" max="124" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="31.5" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="30.33203125" hidden="1" customWidth="1"/>
     <col min="127" max="127" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="26.5" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="130" max="130" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="32.5" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="133" max="133" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="134" max="134" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="30.83203125" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="136" max="136" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="38.5" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="139" max="139" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="54.83203125" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="142" max="142" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="143" max="143" width="24" bestFit="1" customWidth="1"/>
     <col min="144" max="144" width="34" hidden="1" customWidth="1"/>
     <col min="145" max="145" width="41" hidden="1" customWidth="1"/>
-    <col min="146" max="146" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="39.5" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="148" max="148" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="149" max="149" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="39.5" bestFit="1" customWidth="1"/>
     <col min="150" max="151" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2942,7 +2904,7 @@
         <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="BB1" t="s">
         <v>52</v>
@@ -2951,7 +2913,7 @@
         <v>53</v>
       </c>
       <c r="BD1" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="BE1" t="s">
         <v>54</v>
@@ -2960,7 +2922,7 @@
         <v>55</v>
       </c>
       <c r="BG1" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="BH1" t="s">
         <v>56</v>
@@ -2969,7 +2931,7 @@
         <v>57</v>
       </c>
       <c r="BJ1" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="BK1" t="s">
         <v>58</v>
@@ -2978,7 +2940,7 @@
         <v>59</v>
       </c>
       <c r="BM1" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="BN1" t="s">
         <v>60</v>
@@ -2990,7 +2952,7 @@
         <v>62</v>
       </c>
       <c r="BQ1" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="BR1" t="s">
         <v>63</v>
@@ -3002,7 +2964,7 @@
         <v>65</v>
       </c>
       <c r="BU1" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="BV1" t="s">
         <v>66</v>
@@ -3014,7 +2976,7 @@
         <v>68</v>
       </c>
       <c r="BY1" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="BZ1" t="s">
         <v>69</v>
@@ -3026,7 +2988,7 @@
         <v>71</v>
       </c>
       <c r="CC1" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="CD1" t="s">
         <v>72</v>
@@ -3038,7 +3000,7 @@
         <v>74</v>
       </c>
       <c r="CG1" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="CH1" t="s">
         <v>75</v>
@@ -3047,7 +3009,7 @@
         <v>76</v>
       </c>
       <c r="CJ1" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="CK1" t="s">
         <v>77</v>
@@ -3056,7 +3018,7 @@
         <v>78</v>
       </c>
       <c r="CM1" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="CN1" t="s">
         <v>79</v>
@@ -3065,7 +3027,7 @@
         <v>80</v>
       </c>
       <c r="CP1" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="CQ1" t="s">
         <v>81</v>
@@ -3077,13 +3039,13 @@
         <v>83</v>
       </c>
       <c r="CT1" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="CU1" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="CV1" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="CW1" t="s">
         <v>84</v>
@@ -3092,7 +3054,7 @@
         <v>85</v>
       </c>
       <c r="CY1" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="CZ1" t="s">
         <v>86</v>
@@ -3101,7 +3063,7 @@
         <v>87</v>
       </c>
       <c r="DB1" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="DC1" t="s">
         <v>88</v>
@@ -3230,7 +3192,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>130</v>
       </c>
@@ -3444,7 +3406,7 @@
       <c r="EQ2" s="3"/>
       <c r="ER2" s="3"/>
     </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>155</v>
       </c>
@@ -3637,7 +3599,7 @@
       <c r="EQ3" s="3"/>
       <c r="ER3" s="3"/>
     </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>166</v>
       </c>
@@ -3806,7 +3768,7 @@
       <c r="EQ4" s="3"/>
       <c r="ER4" s="3"/>
     </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>175</v>
       </c>
@@ -3939,7 +3901,7 @@
       <c r="EQ5" s="3"/>
       <c r="ER5" s="3"/>
     </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>177</v>
       </c>
@@ -4063,7 +4025,7 @@
       <c r="EQ6" s="3"/>
       <c r="ER6" s="3"/>
     </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:148" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>178</v>
       </c>
@@ -4203,15 +4165,15 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="45.88671875" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>179</v>
       </c>
@@ -4219,7 +4181,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>181</v>
       </c>
@@ -4227,15 +4189,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -4243,15 +4205,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>187</v>
       </c>
@@ -4259,13 +4221,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>190</v>
       </c>
@@ -4285,65 +4247,65 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>198</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>199</v>
       </c>
@@ -4363,7 +4325,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>204</v>
       </c>
@@ -4373,7 +4335,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>205</v>
       </c>
@@ -4383,13 +4345,13 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>206</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>207</v>
       </c>
@@ -4407,7 +4369,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>212</v>
       </c>
@@ -4425,7 +4387,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>217</v>
       </c>
@@ -4435,19 +4397,19 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="18" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>219</v>
       </c>
@@ -4457,7 +4419,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>220</v>
       </c>
@@ -4467,7 +4429,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>221</v>
       </c>
@@ -4477,7 +4439,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>222</v>
       </c>
@@ -4487,21 +4449,21 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="18" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4509,9 +4471,9 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4519,9 +4481,9 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -4541,30 +4503,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>223</v>
       </c>
@@ -4602,7 +4562,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -4622,23 +4582,25 @@
         <v>223</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K2" s="15"/>
+      <c r="K2" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="L2" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -4658,34 +4620,36 @@
         <v>223</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="H3" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>237</v>
-      </c>
       <c r="J3" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K3" s="15"/>
+        <v>236</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="L3" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>223</v>
@@ -4694,37 +4658,37 @@
         <v>223</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="E5" s="15" t="s">
         <v>223</v>
       </c>
@@ -4732,36 +4696,36 @@
         <v>223</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>223</v>
@@ -4770,34 +4734,36 @@
         <v>223</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K6" s="15"/>
+        <v>236</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="L6" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>223</v>
@@ -4806,36 +4772,36 @@
         <v>223</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L7" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>223</v>
@@ -4844,36 +4810,36 @@
         <v>223</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L8" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>223</v>
@@ -4882,36 +4848,36 @@
         <v>223</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>244</v>
+        <v>323</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>223</v>
@@ -4920,36 +4886,36 @@
         <v>223</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L10" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>223</v>
@@ -4958,36 +4924,36 @@
         <v>223</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>223</v>
@@ -4996,36 +4962,36 @@
         <v>223</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>223</v>
@@ -5034,36 +5000,36 @@
         <v>223</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L13" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>223</v>
@@ -5072,36 +5038,36 @@
         <v>223</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>223</v>
@@ -5110,36 +5076,36 @@
         <v>223</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>223</v>
@@ -5148,36 +5114,36 @@
         <v>223</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>223</v>
@@ -5186,36 +5152,36 @@
         <v>223</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>223</v>
@@ -5224,36 +5190,36 @@
         <v>223</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>223</v>
@@ -5262,507 +5228,531 @@
         <v>223</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L19" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="E23" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="C24" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="E24" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C25" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E25" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="C26" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="E26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="C27" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="E27" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="C28" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="E28" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="C29" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="E29" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="C30" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="E30" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="C31" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="E31" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="C32" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="E32" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="C33" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>315</v>
-      </c>
       <c r="E33" s="15" t="s">
         <v>223</v>
       </c>
@@ -5770,34 +5760,36 @@
         <v>223</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K33" s="15"/>
+        <v>236</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="L33" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>223</v>
@@ -5806,74 +5798,74 @@
         <v>223</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L34" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D35" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="H35" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L35" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>223</v>
@@ -5882,36 +5874,36 @@
         <v>223</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L36" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>223</v>
@@ -5920,36 +5912,36 @@
         <v>223</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L37" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>223</v>
@@ -5958,36 +5950,36 @@
         <v>223</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>244</v>
+        <v>319</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>245</v>
+        <v>319</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L38" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>223</v>
@@ -5996,36 +5988,36 @@
         <v>223</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L39" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>223</v>
@@ -6034,19 +6026,19 @@
         <v>223</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L40" s="15" t="s">
         <v>223</v>
@@ -6058,28 +6050,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>223</v>
       </c>
@@ -6117,7 +6109,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -6137,17 +6129,15 @@
         <v>223</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="J2" s="15"/>
       <c r="K2" s="15" t="s">
         <v>223</v>
       </c>
@@ -6155,7 +6145,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -6175,17 +6165,15 @@
         <v>223</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J3" s="15"/>
       <c r="K3" s="15" t="s">
         <v>223</v>
       </c>
@@ -6193,18 +6181,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>223</v>
@@ -6213,17 +6201,15 @@
         <v>223</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J4" s="15"/>
       <c r="K4" s="15" t="s">
         <v>223</v>
       </c>
@@ -6231,37 +6217,31 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>249</v>
-      </c>
       <c r="E5" s="15" t="s">
         <v>223</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>334</v>
-      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="J5" s="15"/>
       <c r="K5" s="15" t="s">
         <v>223</v>
       </c>
@@ -6269,18 +6249,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>223</v>
@@ -6289,17 +6269,15 @@
         <v>223</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>334</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="J6" s="15"/>
       <c r="K6" s="15" t="s">
         <v>223</v>
       </c>
@@ -6307,18 +6285,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>223</v>
@@ -6327,17 +6305,15 @@
         <v>223</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="J7" s="15"/>
       <c r="K7" s="15" t="s">
         <v>223</v>
       </c>
@@ -6345,18 +6321,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>223</v>
@@ -6365,17 +6341,15 @@
         <v>223</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
         <v>223</v>
       </c>
@@ -6383,18 +6357,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>223</v>
@@ -6403,17 +6377,15 @@
         <v>223</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
         <v>223</v>
       </c>
@@ -6421,18 +6393,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>223</v>
@@ -6441,17 +6413,15 @@
         <v>223</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
         <v>223</v>
       </c>
@@ -6459,18 +6429,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>223</v>
@@ -6479,17 +6449,15 @@
         <v>223</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J11" s="15"/>
       <c r="K11" s="15" t="s">
         <v>223</v>
       </c>
@@ -6497,18 +6465,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>223</v>
@@ -6517,17 +6485,15 @@
         <v>223</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="J12" s="15"/>
       <c r="K12" s="15" t="s">
         <v>223</v>
       </c>
@@ -6535,18 +6501,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>223</v>
@@ -6555,17 +6521,15 @@
         <v>223</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J13" s="15"/>
       <c r="K13" s="15" t="s">
         <v>223</v>
       </c>
@@ -6573,18 +6537,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>223</v>
@@ -6593,17 +6557,15 @@
         <v>223</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J14" s="15"/>
       <c r="K14" s="15" t="s">
         <v>223</v>
       </c>
@@ -6611,18 +6573,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>223</v>
@@ -6631,17 +6593,15 @@
         <v>223</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="J15" s="15"/>
       <c r="K15" s="15" t="s">
         <v>223</v>
       </c>
@@ -6649,18 +6609,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>223</v>
@@ -6669,17 +6629,15 @@
         <v>223</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="J16" s="15"/>
       <c r="K16" s="15" t="s">
         <v>223</v>
       </c>
@@ -6687,18 +6645,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>223</v>
@@ -6707,17 +6665,15 @@
         <v>223</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J17" s="15"/>
       <c r="K17" s="15" t="s">
         <v>223</v>
       </c>
@@ -6725,18 +6681,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>223</v>
@@ -6745,17 +6701,15 @@
         <v>223</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J18" s="15"/>
       <c r="K18" s="15" t="s">
         <v>223</v>
       </c>
@@ -6763,18 +6717,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>223</v>
@@ -6783,17 +6737,15 @@
         <v>223</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J19" s="15"/>
       <c r="K19" s="15" t="s">
         <v>223</v>
       </c>
@@ -6801,513 +6753,467 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="E23" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="C24" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="E24" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C25" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E25" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="C26" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="E27" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="C28" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="E28" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="C29" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="E29" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="C30" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="E30" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="C31" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="E31" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="C32" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="E32" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="C33" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="K32" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>315</v>
-      </c>
       <c r="E33" s="15" t="s">
         <v>223</v>
       </c>
@@ -7315,17 +7221,13 @@
         <v>223</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>334</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="H33" s="15"/>
       <c r="I33" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J33" s="15"/>
       <c r="K33" s="15" t="s">
         <v>223</v>
       </c>
@@ -7333,18 +7235,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>223</v>
@@ -7353,17 +7255,15 @@
         <v>223</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="J34" s="15"/>
       <c r="K34" s="15" t="s">
         <v>223</v>
       </c>
@@ -7371,18 +7271,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>223</v>
@@ -7391,17 +7291,15 @@
         <v>223</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J35" s="15"/>
       <c r="K35" s="15" t="s">
         <v>223</v>
       </c>
@@ -7409,18 +7307,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>223</v>
@@ -7429,17 +7327,15 @@
         <v>223</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>238</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J36" s="15"/>
       <c r="K36" s="15" t="s">
         <v>223</v>
       </c>
@@ -7447,18 +7343,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>223</v>
@@ -7466,18 +7362,10 @@
       <c r="F37" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G37" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>238</v>
-      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
       <c r="K37" s="15" t="s">
         <v>223</v>
       </c>
@@ -7485,18 +7373,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>223</v>
@@ -7504,18 +7392,10 @@
       <c r="F38" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>238</v>
-      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
       <c r="K38" s="15" t="s">
         <v>223</v>
       </c>
@@ -7523,18 +7403,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>223</v>
@@ -7542,18 +7422,10 @@
       <c r="F39" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>238</v>
-      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
       <c r="K39" s="15" t="s">
         <v>223</v>
       </c>
@@ -7561,18 +7433,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>223</v>
@@ -7580,18 +7452,10 @@
       <c r="F40" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="I40" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>238</v>
-      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
       <c r="K40" s="15" t="s">
         <v>223</v>
       </c>
@@ -7605,28 +7469,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>223</v>
       </c>
@@ -7664,7 +7530,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -7683,24 +7549,16 @@
       <c r="F2" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>237</v>
-      </c>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K2" s="15"/>
       <c r="L2" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -7719,35 +7577,27 @@
       <c r="F3" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K3" s="15"/>
       <c r="L3" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>223</v>
@@ -7755,35 +7605,27 @@
       <c r="F4" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>223</v>
@@ -7793,29 +7635,25 @@
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
-        <v>347</v>
-      </c>
+      <c r="I5" s="15"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>223</v>
@@ -7824,34 +7662,34 @@
         <v>223</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15" t="s">
-        <v>223</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>223</v>
@@ -7859,35 +7697,27 @@
       <c r="F7" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>352</v>
-      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K7" s="15"/>
       <c r="L7" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>223</v>
@@ -7895,35 +7725,27 @@
       <c r="F8" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>352</v>
-      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>223</v>
@@ -7931,35 +7753,27 @@
       <c r="F9" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>352</v>
-      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>223</v>
@@ -7967,35 +7781,27 @@
       <c r="F10" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K10" s="15"/>
       <c r="L10" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>223</v>
@@ -8003,35 +7809,27 @@
       <c r="F11" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K11" s="15"/>
       <c r="L11" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>223</v>
@@ -8040,34 +7838,34 @@
         <v>223</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15" t="s">
-        <v>223</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>223</v>
@@ -8075,35 +7873,27 @@
       <c r="F13" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>223</v>
@@ -8112,34 +7902,34 @@
         <v>223</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15" t="s">
-        <v>223</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>223</v>
@@ -8147,35 +7937,27 @@
       <c r="F15" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>352</v>
-      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K15" s="15"/>
       <c r="L15" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>223</v>
@@ -8183,35 +7965,27 @@
       <c r="F16" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G16" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>352</v>
-      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>223</v>
@@ -8220,34 +7994,34 @@
         <v>223</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15" t="s">
-        <v>223</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="K17" s="15"/>
       <c r="L17" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>223</v>
@@ -8255,35 +8029,27 @@
       <c r="F18" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>223</v>
@@ -8291,517 +8057,419 @@
       <c r="F19" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="E23" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B24" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="C24" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B21" s="15" t="s">
+      <c r="E24" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C25" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E25" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="C26" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="E27" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="C28" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="E28" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B24" s="15" t="s">
+      <c r="C29" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="E29" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B25" s="15" t="s">
+      <c r="C30" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="E30" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B31" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B26" s="15" t="s">
+      <c r="C31" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="E31" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="C32" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="E32" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="C33" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L30" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>315</v>
-      </c>
       <c r="E33" s="15" t="s">
         <v>223</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="15" t="s">
-        <v>382</v>
-      </c>
+      <c r="G33" s="15"/>
       <c r="H33" s="15"/>
-      <c r="I33" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="I33" s="15"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K33" s="15"/>
       <c r="L33" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>223</v>
@@ -8809,35 +8477,27 @@
       <c r="F34" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>384</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>385</v>
-      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K34" s="15"/>
       <c r="L34" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>223</v>
@@ -8845,35 +8505,27 @@
       <c r="F35" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K35" s="15"/>
       <c r="L35" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>223</v>
@@ -8881,35 +8533,27 @@
       <c r="F36" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="G36" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>246</v>
-      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K36" s="15"/>
       <c r="L36" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>223</v>
@@ -8921,25 +8565,23 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K37" s="15"/>
       <c r="L37" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>223</v>
@@ -8951,25 +8593,23 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K38" s="15"/>
       <c r="L38" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>223</v>
@@ -8981,25 +8621,23 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K39" s="15"/>
       <c r="L39" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>223</v>
@@ -9011,9 +8649,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="15" t="s">
-        <v>223</v>
-      </c>
+      <c r="K40" s="15"/>
       <c r="L40" s="15" t="s">
         <v>223</v>
       </c>
@@ -9024,1197 +8660,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:L40"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>443</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792A826C-DFE5-49E3-AFBD-F7E6ABC86BAF}">
   <dimension ref="A1:L50"/>
   <sheetViews>
@@ -10222,17 +8667,17 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>223</v>
       </c>
@@ -10270,7 +8715,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -10298,7 +8743,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>99</v>
       </c>
@@ -10326,18 +8771,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>223</v>
@@ -10354,18 +8799,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>242</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>249</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>223</v>
@@ -10382,18 +8827,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>223</v>
@@ -10402,10 +8847,10 @@
         <v>223</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -10414,18 +8859,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>223</v>
@@ -10436,28 +8881,28 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>223</v>
@@ -10474,18 +8919,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>223</v>
@@ -10502,18 +8947,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>223</v>
@@ -10530,18 +8975,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>223</v>
@@ -10558,18 +9003,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>223</v>
@@ -10578,10 +9023,10 @@
         <v>223</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -10590,18 +9035,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>223</v>
@@ -10618,18 +9063,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>223</v>
@@ -10638,10 +9083,10 @@
         <v>223</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -10650,18 +9095,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>223</v>
@@ -10678,18 +9123,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>223</v>
@@ -10706,18 +9151,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>223</v>
@@ -10726,13 +9171,13 @@
         <v>223</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
@@ -10740,18 +9185,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>223</v>
@@ -10768,18 +9213,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>223</v>
@@ -10796,18 +9241,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>223</v>
@@ -10824,18 +9269,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>223</v>
@@ -10852,18 +9297,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>223</v>
@@ -10880,18 +9325,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>223</v>
@@ -10908,18 +9353,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>223</v>
@@ -10936,18 +9381,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C25" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>286</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>297</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>223</v>
@@ -10964,18 +9409,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>223</v>
@@ -10992,18 +9437,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>223</v>
@@ -11020,18 +9465,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>223</v>
@@ -11048,18 +9493,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>223</v>
@@ -11076,18 +9521,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>223</v>
@@ -11104,18 +9549,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>223</v>
@@ -11132,18 +9577,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>223</v>
@@ -11160,18 +9605,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>223</v>
@@ -11188,18 +9633,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>83</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>223</v>
@@ -11210,28 +9655,28 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>223</v>
@@ -11242,28 +9687,28 @@
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>223</v>
@@ -11280,18 +9725,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>223</v>
@@ -11308,18 +9753,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>90</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>223</v>
@@ -11336,18 +9781,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>223</v>
@@ -11364,18 +9809,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>223</v>
@@ -11392,18 +9837,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>223</v>
@@ -11414,28 +9859,28 @@
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>223</v>
@@ -11446,28 +9891,28 @@
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>223</v>
@@ -11478,7 +9923,7 @@
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
@@ -11486,18 +9931,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>223</v>
@@ -11508,28 +9953,28 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>223</v>
@@ -11540,28 +9985,28 @@
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>223</v>
@@ -11572,28 +10017,28 @@
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>223</v>
@@ -11604,28 +10049,28 @@
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>223</v>
@@ -11636,28 +10081,28 @@
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K48" s="15"/>
       <c r="L48" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>223</v>
@@ -11668,28 +10113,28 @@
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="K49" s="15"/>
       <c r="L49" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>223</v>
@@ -11700,10 +10145,10 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="K50" s="15"/>
       <c r="L50" s="15" t="s">

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6F4249-274E-2946-AD38-25497FC1E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0802DC5-DB85-FE46-BF67-B506B6D06577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25020" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="2" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-25000" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
-    <sheet name="1SPL01_plants" sheetId="1" r:id="rId1"/>
+    <sheet name="plant_growth" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="3" r:id="rId2"/>
     <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="5" r:id="rId3"/>
     <sheet name="BIOSAMPLE_PLANTS" sheetId="6" r:id="rId4"/>
@@ -2590,7 +2590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:ER7"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4161,7 +4161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -4506,7 +4506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0802DC5-DB85-FE46-BF67-B506B6D06577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4CE553-F20C-A24C-A5ED-8FD65CD757F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25000" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-25000" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_growth" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="7" shapeId="0" xr:uid="{E65FC467-B059-42E1-B49B-386E8AEC23A9}">
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{E65FC467-B059-42E1-B49B-386E8AEC23A9}">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A16" authorId="8" shapeId="0" xr:uid="{DFE0E866-E592-4086-BD35-776A22FD6D07}">
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{DFE0E866-E592-4086-BD35-776A22FD6D07}">
       <text>
         <r>
           <rPr>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="439">
   <si>
     <t>Source Name</t>
   </si>
@@ -784,9 +784,6 @@
   </si>
   <si>
     <t>ER</t>
-  </si>
-  <si>
-    <t>GEO</t>
   </si>
   <si>
     <t>METABOLIGHTS</t>
@@ -1456,21 +1453,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0002010</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ena/browser/view/ERC000037 https://www.ebi.ac.uk/ena/browser/view/ERC000020</t>
-  </si>
-  <si>
-    <t>[Comment] ER checklist source</t>
-  </si>
-  <si>
-    <t>brilhaus@hhu.de</t>
-  </si>
-  <si>
-    <t>https://orcid.org/0000-0001-9021-3197</t>
-  </si>
-  <si>
-    <t>NFDI4PSO:1000096</t>
   </si>
   <si>
     <t>NFDI4PSO:1000097</t>
@@ -2590,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:ER7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2904,7 +2886,7 @@
         <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="BB1" t="s">
         <v>52</v>
@@ -2913,7 +2895,7 @@
         <v>53</v>
       </c>
       <c r="BD1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="BE1" t="s">
         <v>54</v>
@@ -2922,7 +2904,7 @@
         <v>55</v>
       </c>
       <c r="BG1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="BH1" t="s">
         <v>56</v>
@@ -2931,7 +2913,7 @@
         <v>57</v>
       </c>
       <c r="BJ1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="BK1" t="s">
         <v>58</v>
@@ -2940,7 +2922,7 @@
         <v>59</v>
       </c>
       <c r="BM1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="BN1" t="s">
         <v>60</v>
@@ -2952,7 +2934,7 @@
         <v>62</v>
       </c>
       <c r="BQ1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="BR1" t="s">
         <v>63</v>
@@ -2964,7 +2946,7 @@
         <v>65</v>
       </c>
       <c r="BU1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="BV1" t="s">
         <v>66</v>
@@ -2976,7 +2958,7 @@
         <v>68</v>
       </c>
       <c r="BY1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="BZ1" t="s">
         <v>69</v>
@@ -2988,7 +2970,7 @@
         <v>71</v>
       </c>
       <c r="CC1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="CD1" t="s">
         <v>72</v>
@@ -3000,7 +2982,7 @@
         <v>74</v>
       </c>
       <c r="CG1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="CH1" t="s">
         <v>75</v>
@@ -3009,7 +2991,7 @@
         <v>76</v>
       </c>
       <c r="CJ1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="CK1" t="s">
         <v>77</v>
@@ -3018,7 +3000,7 @@
         <v>78</v>
       </c>
       <c r="CM1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="CN1" t="s">
         <v>79</v>
@@ -3027,7 +3009,7 @@
         <v>80</v>
       </c>
       <c r="CP1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="CQ1" t="s">
         <v>81</v>
@@ -3039,13 +3021,13 @@
         <v>83</v>
       </c>
       <c r="CT1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="CU1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="CV1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="CW1" t="s">
         <v>84</v>
@@ -3054,7 +3036,7 @@
         <v>85</v>
       </c>
       <c r="CY1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="CZ1" t="s">
         <v>86</v>
@@ -3063,7 +3045,7 @@
         <v>87</v>
       </c>
       <c r="DB1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="DC1" t="s">
         <v>88</v>
@@ -4159,10 +4141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4194,7 +4176,7 @@
         <v>183</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -4210,7 +4192,7 @@
         <v>186</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4231,99 +4213,91 @@
       <c r="A8" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>416</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="9" t="s">
         <v>203</v>
       </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -4336,78 +4310,76 @@
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="9"/>
+        <v>214</v>
+      </c>
+      <c r="E17" s="18"/>
       <c r="F17" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="9" t="s">
         <v>216</v>
       </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -4441,29 +4413,27 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>222</v>
+        <v>435</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="18" t="s">
-        <v>415</v>
-      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4472,33 +4442,19 @@
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="A27" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C20" r:id="rId1" xr:uid="{A67F4947-4B01-9F4B-9C34-7473909B7C41}"/>
-    <hyperlink ref="C25" r:id="rId2" xr:uid="{047BD239-172A-4B9C-AFA8-B8258E25949E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4526,40 +4482,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4567,37 +4523,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>318</v>
-      </c>
       <c r="I2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="J2" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="K2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4605,37 +4561,37 @@
         <v>99</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4643,37 +4599,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>240</v>
-      </c>
       <c r="J4" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4681,37 +4637,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -4719,37 +4675,37 @@
         <v>7</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I6" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="K6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -4757,37 +4713,37 @@
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -4795,37 +4751,37 @@
         <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4833,37 +4789,37 @@
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>250</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4871,37 +4827,37 @@
         <v>19</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>252</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4909,37 +4865,37 @@
         <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -4947,37 +4903,37 @@
         <v>25</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I12" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>236</v>
-      </c>
       <c r="K12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -4985,37 +4941,37 @@
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5023,75 +4979,75 @@
         <v>31</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>264</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5099,37 +5055,37 @@
         <v>37</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>266</v>
-      </c>
       <c r="E16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5137,37 +5093,37 @@
         <v>40</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>268</v>
-      </c>
       <c r="E17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -5175,37 +5131,37 @@
         <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J18" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -5213,37 +5169,37 @@
         <v>46</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>272</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J19" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -5251,531 +5207,531 @@
         <v>49</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>275</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>278</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J21" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J22" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I23" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>284</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>286</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>290</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>292</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>294</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>298</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -5783,151 +5739,151 @@
         <v>83</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>304</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="E36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>310</v>
-      </c>
       <c r="E37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -5935,37 +5891,37 @@
         <v>90</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>312</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I38" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -5973,37 +5929,37 @@
         <v>93</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>314</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -6011,37 +5967,37 @@
         <v>96</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>316</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6073,40 +6029,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6114,35 +6070,35 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>327</v>
-      </c>
       <c r="I2" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J2" s="15"/>
       <c r="K2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6150,35 +6106,35 @@
         <v>99</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>329</v>
-      </c>
       <c r="I3" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -6186,35 +6142,35 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>239</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>240</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6222,31 +6178,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6254,35 +6210,35 @@
         <v>7</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="H6" s="15" t="s">
-        <v>334</v>
-      </c>
       <c r="I6" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J6" s="15"/>
       <c r="K6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6290,35 +6246,35 @@
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>336</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>337</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6326,35 +6282,35 @@
         <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G8" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>339</v>
-      </c>
       <c r="I8" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -6362,35 +6318,35 @@
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>250</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G9" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>341</v>
-      </c>
       <c r="I9" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6398,35 +6354,35 @@
         <v>19</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>252</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>343</v>
-      </c>
       <c r="I10" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6434,35 +6390,35 @@
         <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G11" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>345</v>
-      </c>
       <c r="I11" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6470,35 +6426,35 @@
         <v>25</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>347</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6506,35 +6462,35 @@
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G13" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>349</v>
-      </c>
       <c r="I13" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6542,71 +6498,71 @@
         <v>31</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="I14" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>264</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G15" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>353</v>
-      </c>
       <c r="I15" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6614,35 +6570,35 @@
         <v>37</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>266</v>
-      </c>
       <c r="E16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G16" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>355</v>
-      </c>
       <c r="I16" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -6650,35 +6606,35 @@
         <v>40</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>268</v>
-      </c>
       <c r="E17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>357</v>
-      </c>
       <c r="I17" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -6686,35 +6642,35 @@
         <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G18" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>359</v>
-      </c>
       <c r="I18" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -6722,35 +6678,35 @@
         <v>46</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>272</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G19" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>361</v>
-      </c>
       <c r="I19" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -6758,481 +6714,481 @@
         <v>49</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>275</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G20" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>363</v>
-      </c>
       <c r="I20" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>278</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J23" s="15"/>
       <c r="K23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>284</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>286</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>290</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>292</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>366</v>
-      </c>
       <c r="I28" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>294</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G29" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>366</v>
-      </c>
       <c r="I29" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H30" s="15"/>
       <c r="I30" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J30" s="15"/>
       <c r="K30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>298</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H31" s="15"/>
       <c r="I31" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J31" s="15"/>
       <c r="K31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J32" s="15"/>
       <c r="K32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -7240,137 +7196,137 @@
         <v>83</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>304</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G34" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="I34" s="15" t="s">
         <v>369</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>370</v>
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G35" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="H35" s="15" t="s">
-        <v>372</v>
-      </c>
       <c r="I35" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="E36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G36" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="H36" s="15" t="s">
-        <v>374</v>
-      </c>
       <c r="I36" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>310</v>
-      </c>
       <c r="E37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="15"/>
       <c r="K37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -7378,29 +7334,29 @@
         <v>90</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>312</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -7408,29 +7364,29 @@
         <v>93</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>314</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="15"/>
       <c r="K39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -7438,29 +7394,29 @@
         <v>96</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>316</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
       <c r="J40" s="15"/>
       <c r="K40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -7494,40 +7450,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -7535,19 +7491,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -7555,7 +7511,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -7563,19 +7519,19 @@
         <v>99</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -7583,7 +7539,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -7591,19 +7547,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>239</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -7611,7 +7567,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -7619,19 +7575,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -7639,7 +7595,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -7647,35 +7603,35 @@
         <v>7</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>377</v>
-      </c>
       <c r="J6" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -7683,19 +7639,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -7703,7 +7659,7 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -7711,19 +7667,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -7731,7 +7687,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -7739,19 +7695,19 @@
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>250</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -7759,7 +7715,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -7767,19 +7723,19 @@
         <v>19</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>252</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -7787,7 +7743,7 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -7795,19 +7751,19 @@
         <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -7815,7 +7771,7 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -7823,35 +7779,35 @@
         <v>25</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>379</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -7859,19 +7815,19 @@
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -7879,7 +7835,7 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -7887,55 +7843,55 @@
         <v>31</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>381</v>
-      </c>
       <c r="I14" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>264</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -7943,7 +7899,7 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -7951,19 +7907,19 @@
         <v>37</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>266</v>
-      </c>
       <c r="E16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -7971,7 +7927,7 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -7979,35 +7935,35 @@
         <v>40</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>268</v>
-      </c>
       <c r="E17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>383</v>
-      </c>
       <c r="I17" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K17" s="15"/>
       <c r="L17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -8015,19 +7971,19 @@
         <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -8035,7 +7991,7 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -8043,19 +7999,19 @@
         <v>46</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>272</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -8063,7 +8019,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -8071,19 +8027,19 @@
         <v>49</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>275</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -8091,27 +8047,27 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>278</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -8119,27 +8075,27 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -8147,27 +8103,27 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -8175,27 +8131,27 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>284</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -8203,27 +8159,27 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>286</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -8231,27 +8187,27 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -8259,27 +8215,27 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>290</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -8287,27 +8243,27 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>292</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -8315,27 +8271,27 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>294</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -8343,27 +8299,27 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -8371,27 +8327,27 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>298</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -8399,27 +8355,27 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -8427,27 +8383,27 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -8455,7 +8411,7 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -8463,19 +8419,19 @@
         <v>83</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>304</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
@@ -8483,27 +8439,27 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
@@ -8511,27 +8467,27 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="E36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -8539,27 +8495,27 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>310</v>
-      </c>
       <c r="E37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -8567,7 +8523,7 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -8575,19 +8531,19 @@
         <v>90</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>312</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -8595,7 +8551,7 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -8603,19 +8559,19 @@
         <v>93</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>314</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -8623,7 +8579,7 @@
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -8631,19 +8587,19 @@
         <v>96</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>316</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -8651,7 +8607,7 @@
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8679,40 +8635,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>233</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -8720,19 +8676,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -8740,7 +8696,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
       <c r="L2" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -8748,19 +8704,19 @@
         <v>99</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -8768,7 +8724,7 @@
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -8776,19 +8732,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>239</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -8796,7 +8752,7 @@
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -8804,19 +8760,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>242</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -8824,7 +8780,7 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -8832,31 +8788,31 @@
         <v>7</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>244</v>
-      </c>
       <c r="E6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>376</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -8864,31 +8820,31 @@
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>246</v>
-      </c>
       <c r="E7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -8896,19 +8852,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>248</v>
-      </c>
       <c r="E8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
@@ -8916,7 +8872,7 @@
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -8924,19 +8880,19 @@
         <v>16</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>250</v>
-      </c>
       <c r="E9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
@@ -8944,7 +8900,7 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -8952,19 +8908,19 @@
         <v>19</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>252</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
@@ -8972,7 +8928,7 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -8980,19 +8936,19 @@
         <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
@@ -9000,7 +8956,7 @@
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -9008,31 +8964,31 @@
         <v>25</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>257</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -9040,19 +8996,19 @@
         <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>259</v>
-      </c>
       <c r="E13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
@@ -9060,7 +9016,7 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -9068,51 +9024,51 @@
         <v>31</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>261</v>
-      </c>
       <c r="E14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>380</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>381</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="C15" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>264</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
@@ -9120,7 +9076,7 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -9128,19 +9084,19 @@
         <v>37</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>266</v>
-      </c>
       <c r="E16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -9148,7 +9104,7 @@
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -9156,33 +9112,33 @@
         <v>40</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>268</v>
-      </c>
       <c r="E17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>383</v>
-      </c>
       <c r="I17" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -9190,19 +9146,19 @@
         <v>43</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>270</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -9210,7 +9166,7 @@
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -9218,19 +9174,19 @@
         <v>46</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>272</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -9238,7 +9194,7 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -9246,19 +9202,19 @@
         <v>49</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>275</v>
-      </c>
       <c r="E20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
@@ -9266,27 +9222,27 @@
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>278</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
@@ -9294,27 +9250,27 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="E22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -9322,27 +9278,27 @@
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="E23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -9350,27 +9306,27 @@
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>284</v>
-      </c>
       <c r="E24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
@@ -9378,27 +9334,27 @@
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>286</v>
-      </c>
       <c r="E25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
@@ -9406,27 +9362,27 @@
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="E26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
@@ -9434,27 +9390,27 @@
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>290</v>
-      </c>
       <c r="E27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
@@ -9462,27 +9418,27 @@
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
       <c r="L27" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>292</v>
-      </c>
       <c r="E28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
@@ -9490,27 +9446,27 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>294</v>
-      </c>
       <c r="E29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
@@ -9518,27 +9474,27 @@
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>296</v>
-      </c>
       <c r="E30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -9546,27 +9502,27 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
       <c r="L30" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>298</v>
-      </c>
       <c r="E31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -9574,27 +9530,27 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
       <c r="L31" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>300</v>
-      </c>
       <c r="E32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -9602,27 +9558,27 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>302</v>
-      </c>
       <c r="E33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
@@ -9630,7 +9586,7 @@
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -9638,83 +9594,83 @@
         <v>83</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>304</v>
-      </c>
       <c r="E34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
       <c r="I34" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>306</v>
-      </c>
       <c r="E35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15"/>
       <c r="I35" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K35" s="15"/>
       <c r="L35" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>308</v>
-      </c>
       <c r="E36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
@@ -9722,27 +9678,27 @@
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>310</v>
-      </c>
       <c r="E37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
@@ -9750,7 +9706,7 @@
       <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -9758,19 +9714,19 @@
         <v>90</v>
       </c>
       <c r="B38" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>312</v>
-      </c>
       <c r="E38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
@@ -9778,7 +9734,7 @@
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -9786,19 +9742,19 @@
         <v>93</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>314</v>
-      </c>
       <c r="E39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
@@ -9806,7 +9762,7 @@
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -9814,19 +9770,19 @@
         <v>96</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>316</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
@@ -9834,7 +9790,7 @@
       <c r="J40" s="15"/>
       <c r="K40" s="15"/>
       <c r="L40" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -9842,31 +9798,31 @@
         <v>100</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>387</v>
-      </c>
       <c r="E41" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G41" s="15"/>
       <c r="H41" s="15"/>
       <c r="I41" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -9874,61 +9830,61 @@
         <v>103</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>389</v>
-      </c>
       <c r="E42" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J42" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K42" s="15"/>
       <c r="L42" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="D43" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>393</v>
-      </c>
       <c r="E43" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15"/>
       <c r="I43" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="15"/>
       <c r="L43" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -9936,31 +9892,31 @@
         <v>109</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>395</v>
-      </c>
       <c r="E44" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J44" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K44" s="15"/>
       <c r="L44" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -9968,31 +9924,31 @@
         <v>112</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>398</v>
-      </c>
       <c r="E45" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
       <c r="I45" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J45" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -10000,127 +9956,127 @@
         <v>115</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>400</v>
-      </c>
       <c r="E46" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G46" s="15"/>
       <c r="H46" s="15"/>
       <c r="I46" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J46" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="C47" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>403</v>
-      </c>
       <c r="E47" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G47" s="15"/>
       <c r="H47" s="15"/>
       <c r="I47" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J47" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K47" s="15"/>
       <c r="L47" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="C48" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>406</v>
-      </c>
       <c r="E48" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G48" s="15"/>
       <c r="H48" s="15"/>
       <c r="I48" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J48" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K48" s="15"/>
       <c r="L48" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="C49" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>409</v>
-      </c>
       <c r="E49" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K49" s="15"/>
       <c r="L49" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -10128,31 +10084,31 @@
         <v>121</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>411</v>
-      </c>
       <c r="E50" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
       <c r="I50" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K50" s="15"/>
       <c r="L50" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4CE553-F20C-A24C-A5ED-8FD65CD757F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9934F5-B6F4-064E-803A-AC9723E71D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25000" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
@@ -1515,9 +1515,6 @@
     <t>Parameter [Time point]</t>
   </si>
   <si>
-    <t>1.1.13</t>
-  </si>
-  <si>
     <t>NFDI4PSO:0010000</t>
   </si>
   <si>
@@ -1537,6 +1534,9 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
   </si>
 </sst>
 </file>
@@ -1743,9 +1743,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1757,6 +1754,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3247,7 +3247,7 @@
       <c r="BI2" t="s">
         <v>134</v>
       </c>
-      <c r="BJ2" s="16">
+      <c r="BJ2" s="15">
         <v>44542</v>
       </c>
       <c r="BK2" t="s">
@@ -3452,7 +3452,7 @@
       <c r="BI3" t="s">
         <v>134</v>
       </c>
-      <c r="BJ3" s="16">
+      <c r="BJ3" s="15">
         <v>44483</v>
       </c>
       <c r="BK3" t="s">
@@ -4144,7 +4144,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C27"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4152,7 +4152,7 @@
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="45.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4175,8 +4175,8 @@
       <c r="A3" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>431</v>
+      <c r="B3" s="18" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -4192,7 +4192,7 @@
         <v>186</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4239,10 +4239,10 @@
         <v>412</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4346,7 +4346,7 @@
       <c r="D17" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="18"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="9" t="s">
         <v>215</v>
       </c>
@@ -4366,10 +4366,10 @@
         <v>217</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -4413,17 +4413,17 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="18"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -4481,1522 +4481,1522 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L3" s="15" t="s">
+      <c r="K3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="K4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L5" s="15" t="s">
+      <c r="K5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L7" s="15" t="s">
+      <c r="K7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="J8" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="K8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L9" s="15" t="s">
+      <c r="K9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="E10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L10" s="15" t="s">
+      <c r="K10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="E11" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L11" s="15" t="s">
+      <c r="K11" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="E12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L12" s="15" t="s">
+      <c r="K12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L12" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="E13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L13" s="15" t="s">
+      <c r="K13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L14" s="15" t="s">
+      <c r="K14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="E15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K15" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L15" s="15" t="s">
+      <c r="K15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K16" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="15" t="s">
+      <c r="K16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="E17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K17" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L17" s="15" t="s">
+      <c r="K17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="15" t="s">
+      <c r="E18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L18" s="15" t="s">
+      <c r="K18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="E19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K19" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L19" s="15" t="s">
+      <c r="K19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L19" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="E20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="15" t="s">
+      <c r="K20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="E21" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K21" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L21" s="15" t="s">
+      <c r="K21" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="15" t="s">
+      <c r="E22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L22" s="15" t="s">
+      <c r="K22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="E23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L23" s="15" t="s">
+      <c r="K23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="E24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L24" s="15" t="s">
+      <c r="K24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="E25" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L25" s="15" t="s">
+      <c r="K25" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" s="15" t="s">
+      <c r="E26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K26" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L26" s="15" t="s">
+      <c r="K26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" s="15" t="s">
+      <c r="E27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K27" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L27" s="15" t="s">
+      <c r="K27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="E28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K28" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L28" s="15" t="s">
+      <c r="K28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G29" s="15" t="s">
+      <c r="E29" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L29" s="15" t="s">
+      <c r="K29" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" s="15" t="s">
+      <c r="E30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I30" s="15" t="s">
+      <c r="I30" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L30" s="15" t="s">
+      <c r="K30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="15" t="s">
+      <c r="E31" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K31" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L31" s="15" t="s">
+      <c r="K31" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="E32" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K32" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L32" s="15" t="s">
+      <c r="K32" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G33" s="15" t="s">
+      <c r="E33" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K33" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L33" s="15" t="s">
+      <c r="K33" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L33" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="E34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L34" s="15" t="s">
+      <c r="K34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="15" t="s">
+      <c r="E35" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J35" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L35" s="15" t="s">
+      <c r="K35" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" s="15" t="s">
+      <c r="E36" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L36" s="15" t="s">
+      <c r="K36" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L36" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G37" s="15" t="s">
+      <c r="E37" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J37" s="15" t="s">
+      <c r="J37" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K37" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L37" s="15" t="s">
+      <c r="K37" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G38" s="15" t="s">
+      <c r="E38" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="J38" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K38" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L38" s="15" t="s">
+      <c r="K38" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L38" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G39" s="15" t="s">
+      <c r="E39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J39" s="15" t="s">
+      <c r="J39" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K39" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L39" s="15" t="s">
+      <c r="K39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L39" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="15" t="s">
+      <c r="E40" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J40" s="15" t="s">
+      <c r="J40" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="K40" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L40" s="15" t="s">
+      <c r="K40" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L40" s="14" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6028,1394 +6028,1394 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L2" s="15" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L3" s="15" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="E5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L5" s="15" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L6" s="15" t="s">
+      <c r="J6" s="14"/>
+      <c r="K6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L7" s="15" t="s">
+      <c r="J7" s="14"/>
+      <c r="K7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="E8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="15" t="s">
+      <c r="J8" s="14"/>
+      <c r="K8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="E9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L9" s="15" t="s">
+      <c r="J9" s="14"/>
+      <c r="K9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L9" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="E10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L10" s="15" t="s">
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L10" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" s="15" t="s">
+      <c r="E11" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L11" s="15" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="E12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L12" s="15" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L12" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="E13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L13" s="15" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L13" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L14" s="15" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L14" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="E15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L15" s="15" t="s">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="E16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="15" t="s">
+      <c r="J16" s="14"/>
+      <c r="K16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="E17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L17" s="15" t="s">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L17" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="15" t="s">
+      <c r="E18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L18" s="15" t="s">
+      <c r="J18" s="14"/>
+      <c r="K18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L18" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="E19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L19" s="15" t="s">
+      <c r="J19" s="14"/>
+      <c r="K19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L19" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="15" t="s">
+      <c r="E20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="15" t="s">
+      <c r="J20" s="14"/>
+      <c r="K20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="E21" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15" t="s">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L21" s="15" t="s">
+      <c r="J21" s="14"/>
+      <c r="K21" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L21" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="15" t="s">
+      <c r="E22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15" t="s">
+      <c r="H22" s="14"/>
+      <c r="I22" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L22" s="15" t="s">
+      <c r="J22" s="14"/>
+      <c r="K22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="15" t="s">
+      <c r="E23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15" t="s">
+      <c r="H23" s="14"/>
+      <c r="I23" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L23" s="15" t="s">
+      <c r="J23" s="14"/>
+      <c r="K23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="15" t="s">
+      <c r="E24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15" t="s">
+      <c r="H24" s="14"/>
+      <c r="I24" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L24" s="15" t="s">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G25" s="15" t="s">
+      <c r="E25" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15" t="s">
+      <c r="H25" s="14"/>
+      <c r="I25" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L25" s="15" t="s">
+      <c r="J25" s="14"/>
+      <c r="K25" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" s="15" t="s">
+      <c r="E26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15" t="s">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L26" s="15" t="s">
+      <c r="J26" s="14"/>
+      <c r="K26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" s="15" t="s">
+      <c r="E27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
+      <c r="H27" s="14"/>
+      <c r="I27" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L27" s="15" t="s">
+      <c r="J27" s="14"/>
+      <c r="K27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="E28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L28" s="15" t="s">
+      <c r="J28" s="14"/>
+      <c r="K28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G29" s="15" t="s">
+      <c r="E29" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L29" s="15" t="s">
+      <c r="J29" s="14"/>
+      <c r="K29" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" s="15" t="s">
+      <c r="E30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15" t="s">
+      <c r="H30" s="14"/>
+      <c r="I30" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L30" s="15" t="s">
+      <c r="J30" s="14"/>
+      <c r="K30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="15" t="s">
+      <c r="E31" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15" t="s">
+      <c r="H31" s="14"/>
+      <c r="I31" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L31" s="15" t="s">
+      <c r="J31" s="14"/>
+      <c r="K31" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="E32" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15" t="s">
+      <c r="H32" s="14"/>
+      <c r="I32" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L32" s="15" t="s">
+      <c r="J32" s="14"/>
+      <c r="K32" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G33" s="15" t="s">
+      <c r="E33" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15" t="s">
+      <c r="H33" s="14"/>
+      <c r="I33" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L33" s="15" t="s">
+      <c r="J33" s="14"/>
+      <c r="K33" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L33" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="E34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L34" s="15" t="s">
+      <c r="J34" s="14"/>
+      <c r="K34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L34" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="15" t="s">
+      <c r="E35" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L35" s="15" t="s">
+      <c r="J35" s="14"/>
+      <c r="K35" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L35" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" s="15" t="s">
+      <c r="E36" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L36" s="15" t="s">
+      <c r="J36" s="14"/>
+      <c r="K36" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L36" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L37" s="15" t="s">
+      <c r="E37" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L37" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L38" s="15" t="s">
+      <c r="E38" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L38" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L39" s="15" t="s">
+      <c r="E39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L39" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="L40" s="15" t="s">
+      <c r="E40" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="L40" s="14" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7449,1164 +7449,1164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
+      <c r="E4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15" t="s">
+      <c r="E5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15" t="s">
+      <c r="E7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15" t="s">
+      <c r="E8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
+      <c r="E9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15" t="s">
+      <c r="E10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15" t="s">
+      <c r="E11" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="E12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15" t="s">
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15" t="s">
+      <c r="E13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15" t="s">
+      <c r="K14" s="14"/>
+      <c r="L14" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15" t="s">
+      <c r="E15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15" t="s">
+      <c r="E16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="E17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15" t="s">
+      <c r="K17" s="14"/>
+      <c r="L17" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15" t="s">
+      <c r="E18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15" t="s">
+      <c r="E19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15" t="s">
+      <c r="E20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15" t="s">
+      <c r="E21" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15" t="s">
+      <c r="E22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15" t="s">
+      <c r="E23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15" t="s">
+      <c r="E24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15" t="s">
+      <c r="E25" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15" t="s">
+      <c r="E26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15" t="s">
+      <c r="E27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15" t="s">
+      <c r="E28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15" t="s">
+      <c r="E29" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15" t="s">
+      <c r="E30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15" t="s">
+      <c r="E31" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15" t="s">
+      <c r="E32" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15" t="s">
+      <c r="E33" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15" t="s">
+      <c r="E34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15" t="s">
+      <c r="E35" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15" t="s">
+      <c r="E36" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15" t="s">
+      <c r="E37" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15" t="s">
+      <c r="E38" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15" t="s">
+      <c r="E39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15" t="s">
+      <c r="E40" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14" t="s">
         <v>222</v>
       </c>
     </row>
@@ -8634,1480 +8634,1480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="B2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15" t="s">
+      <c r="B3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15" t="s">
+      <c r="E4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15" t="s">
+      <c r="E5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="E6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+      <c r="E7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15" t="s">
+      <c r="E8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
+      <c r="E9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15" t="s">
+      <c r="E10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15" t="s">
+      <c r="E11" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G12" s="15" t="s">
+      <c r="E12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15" t="s">
+      <c r="E13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="E14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15" t="s">
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15" t="s">
+      <c r="E15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15" t="s">
+      <c r="E16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" s="15" t="s">
+      <c r="E17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15" t="s">
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15" t="s">
+      <c r="E18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="C19" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15" t="s">
+      <c r="E19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15" t="s">
+      <c r="E20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15" t="s">
+      <c r="E21" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15" t="s">
+      <c r="E22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="C23" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15" t="s">
+      <c r="E23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="15" t="s">
+      <c r="C24" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15" t="s">
+      <c r="E24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15" t="s">
+      <c r="E25" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15" t="s">
+      <c r="E26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15" t="s">
+      <c r="E27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="15" t="s">
+      <c r="C28" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15" t="s">
+      <c r="E28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="15" t="s">
+      <c r="C29" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15" t="s">
+      <c r="E29" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15" t="s">
+      <c r="E30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15" t="s">
+      <c r="E31" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15" t="s">
+      <c r="E32" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E33" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15" t="s">
+      <c r="E33" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E34" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15" t="s">
+      <c r="E34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15" t="s">
+      <c r="K34" s="14"/>
+      <c r="L34" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="C35" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15" t="s">
+      <c r="E35" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J35" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15" t="s">
+      <c r="K35" s="14"/>
+      <c r="L35" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="C36" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15" t="s">
+      <c r="E36" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="15" t="s">
+      <c r="C37" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="E37" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15" t="s">
+      <c r="E37" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="C38" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15" t="s">
+      <c r="E38" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="15" t="s">
+      <c r="C39" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="E39" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15" t="s">
+      <c r="E39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15" t="s">
+      <c r="E40" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="E41" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15" t="s">
+      <c r="E41" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="J41" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15" t="s">
+      <c r="K41" s="14"/>
+      <c r="L41" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15" t="s">
+      <c r="E42" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="J42" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15" t="s">
+      <c r="K42" s="14"/>
+      <c r="L42" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="E43" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15" t="s">
+      <c r="E43" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15" t="s">
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" s="17" t="s">
+      <c r="C44" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15" t="s">
+      <c r="E44" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J44" s="15" t="s">
+      <c r="J44" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15" t="s">
+      <c r="K44" s="14"/>
+      <c r="L44" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45" s="17" t="s">
+      <c r="C45" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15" t="s">
+      <c r="E45" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J45" s="15" t="s">
+      <c r="J45" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15" t="s">
+      <c r="K45" s="14"/>
+      <c r="L45" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D46" s="17" t="s">
+      <c r="C46" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15" t="s">
+      <c r="E46" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J46" s="15" t="s">
+      <c r="J46" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15" t="s">
+      <c r="K46" s="14"/>
+      <c r="L46" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="17" t="s">
+      <c r="C47" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="E47" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15" t="s">
+      <c r="E47" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J47" s="15" t="s">
+      <c r="J47" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15" t="s">
+      <c r="K47" s="14"/>
+      <c r="L47" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" s="17" t="s">
+      <c r="C48" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="E48" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15" t="s">
+      <c r="E48" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J48" s="15" t="s">
+      <c r="J48" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15" t="s">
+      <c r="K48" s="14"/>
+      <c r="L48" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D49" s="17" t="s">
+      <c r="C49" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15" t="s">
+      <c r="E49" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J49" s="15" t="s">
+      <c r="J49" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15" t="s">
+      <c r="K49" s="14"/>
+      <c r="L49" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="D50" s="17" t="s">
+      <c r="C50" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="E50" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15" t="s">
+      <c r="E50" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="J50" s="15" t="s">
+      <c r="J50" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15" t="s">
+      <c r="K50" s="14"/>
+      <c r="L50" s="14" t="s">
         <v>222</v>
       </c>
     </row>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9934F5-B6F4-064E-803A-AC9723E71D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5E2118-35D4-FE45-8453-49D313FAEE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25000" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-25000" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_growth" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="447">
   <si>
     <t>Source Name</t>
   </si>
@@ -1537,6 +1537,30 @@
   </si>
   <si>
     <t>1.2.0</t>
+  </si>
+  <si>
+    <t>Protocol Type</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Protocol REF</t>
+  </si>
+  <si>
+    <t>plant growth protocol</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000164</t>
+  </si>
+  <si>
+    <t>plant_growth.txt</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1735,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1759,13 +1783,23 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{D09CA6D9-E6C7-4433-8F48-8CA6F5BF0770}"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="86">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
     </dxf>
@@ -2041,10 +2075,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}" name="annotationTableUnluckyVampirebat89" displayName="annotationTableUnluckyVampirebat89" ref="A1:ER7" totalsRowShown="0">
-  <autoFilter ref="A1:ER7" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}"/>
-  <tableColumns count="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}" name="annotationTableUnluckyVampirebat89" displayName="annotationTableUnluckyVampirebat89" ref="A1:EV7" totalsRowShown="0">
+  <autoFilter ref="A1:EV7" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}"/>
+  <tableColumns count="152">
     <tableColumn id="1" xr3:uid="{109E9A2A-74AF-4992-BC42-D1BBEEE95875}" name="Source Name"/>
+    <tableColumn id="75" xr3:uid="{DF534AC8-9206-784A-ADE6-CBFBE6F7EC88}" name="Protocol Type"/>
+    <tableColumn id="76" xr3:uid="{A525A539-579F-8847-BEA5-7ABE3794B82B}" name="Term Source REF (DPBO:1000161)" dataDxfId="2"/>
+    <tableColumn id="77" xr3:uid="{0355D47F-1EFF-F645-970A-37F2157E3105}" name="Term Accession Number (DPBO:1000161)" dataDxfId="1"/>
+    <tableColumn id="78" xr3:uid="{E041DAD8-862B-3347-BE9B-1E0483C67BBA}" name="Protocol REF" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{F925471A-8FD2-431D-9CE0-50F5A85F2A09}" name="Characteristics [Sample type]"/>
     <tableColumn id="4" xr3:uid="{E6E54AA1-B8BD-4A5B-9BEB-9971A3649576}" name="Term Source REF (NFDI4PSO:0000064)"/>
     <tableColumn id="5" xr3:uid="{0BCDA0A5-0E2E-42D6-9165-01A45DA47A08}" name="Term Accession Number (NFDI4PSO:0000064)"/>
@@ -2108,90 +2146,90 @@
     <tableColumn id="51" xr3:uid="{2D525B40-3237-4017-98F0-27AD5E830BF7}" name="Parameter [Growth day length]"/>
     <tableColumn id="52" xr3:uid="{A55C0CA4-8AE0-49C3-A41C-3AE50E40758A}" name="Term Source REF (NFDI4PSO:0000041)"/>
     <tableColumn id="53" xr3:uid="{1477EDD7-1DCB-4770-BA05-F1CC0EFA9AD5}" name="Term Accession Number (NFDI4PSO:0000041)"/>
-    <tableColumn id="135" xr3:uid="{85247456-E764-4D3E-BF93-12E412A41198}" name="Parameter [light intensity exposure]" dataDxfId="82"/>
-    <tableColumn id="136" xr3:uid="{93A50CDC-1E60-4366-AB54-D4E7EE771BBF}" name="Unit" dataDxfId="81"/>
-    <tableColumn id="137" xr3:uid="{23F71F80-EA30-4D98-9A5D-F47C1E28CA7D}" name="Term Source REF (PECO:0007224)" dataDxfId="80"/>
-    <tableColumn id="138" xr3:uid="{C7FAED94-6AB6-4857-B12A-3D43248B98D9}" name="Term Accession Number (PECO:0007224)" dataDxfId="79"/>
-    <tableColumn id="139" xr3:uid="{C3243056-CD27-4381-8490-101CEDC788A9}" name="Parameter [Humidity Day]" dataDxfId="78"/>
-    <tableColumn id="140" xr3:uid="{1859E1B1-1EAC-418E-BACC-2BB44F677FFE}" name="Unit (#2)" dataDxfId="77"/>
-    <tableColumn id="141" xr3:uid="{798016FD-2838-4531-9398-3279D6A08C58}" name="Term Source REF (NFDI4PSO:0000005)" dataDxfId="76"/>
-    <tableColumn id="142" xr3:uid="{DA5B416D-F4A5-4D4E-8C25-A2ED3C4C82D4}" name="Term Accession Number (NFDI4PSO:0000005)" dataDxfId="75"/>
-    <tableColumn id="143" xr3:uid="{CFD14F66-5E52-44A1-8428-78197BFDC3B7}" name="Parameter [Humidity Night]" dataDxfId="74"/>
-    <tableColumn id="144" xr3:uid="{CAB23864-751E-4921-B093-E7F5F36CAB4A}" name="Unit (#3)" dataDxfId="73"/>
-    <tableColumn id="145" xr3:uid="{C79AD268-C4B2-49CA-AC34-43CF8297D031}" name="Term Source REF (NFDI4PSO:0000006)" dataDxfId="72"/>
-    <tableColumn id="146" xr3:uid="{62B5FED7-2365-42A3-9552-8A0FA76E9908}" name="Term Accession Number (NFDI4PSO:0000006)" dataDxfId="71"/>
-    <tableColumn id="147" xr3:uid="{97BBD5E2-CDBA-451A-B789-7CF61859FFCB}" name="Parameter [Temperature Day]" dataDxfId="70"/>
-    <tableColumn id="148" xr3:uid="{1C080C4C-851A-4E7C-896C-124F4716BA8C}" name="Unit (#4)" dataDxfId="69"/>
-    <tableColumn id="149" xr3:uid="{11E152AF-B6D8-46FF-B4D5-EC76EE12832C}" name="Term Source REF (NFDI4PSO:0000007)" dataDxfId="68"/>
-    <tableColumn id="150" xr3:uid="{FA942BE5-5F5A-4091-B5F2-EA84CB5A7C27}" name="Term Accession Number (NFDI4PSO:0000007)" dataDxfId="67"/>
-    <tableColumn id="151" xr3:uid="{6408990A-DF70-48CB-B8A8-528E0DD3D4F7}" name="Parameter [Temperature Night]" dataDxfId="66"/>
-    <tableColumn id="152" xr3:uid="{7F17C2AE-76E7-4343-9112-49EADE039C2E}" name="Unit (#5)" dataDxfId="65"/>
-    <tableColumn id="153" xr3:uid="{A0CCAF50-1E7F-4ECE-B83C-CF1AFBBF54E2}" name="Term Source REF (NFDI4PSO:0000008)" dataDxfId="64"/>
-    <tableColumn id="154" xr3:uid="{9E0149D4-5109-4383-99E6-4D9EE5914487}" name="Term Accession Number (NFDI4PSO:0000008)" dataDxfId="63"/>
-    <tableColumn id="155" xr3:uid="{0D428223-9C3F-4A3F-ABC9-B6497EC9F4C7}" name="Parameter [watering exposure]" dataDxfId="62"/>
-    <tableColumn id="156" xr3:uid="{0A90F49E-9F46-4E82-B592-5446DD648569}" name="Term Source REF (PECO:0007383)" dataDxfId="61"/>
-    <tableColumn id="157" xr3:uid="{6216E053-90BE-49F8-9C0C-7A6470F6D3DE}" name="Term Accession Number (PECO:0007383)" dataDxfId="60"/>
-    <tableColumn id="158" xr3:uid="{1ACB13C6-536F-41C7-91F2-B62AEB2DA8A4}" name="Parameter [plant nutrient exposure]" dataDxfId="59"/>
-    <tableColumn id="159" xr3:uid="{97FEA8C0-4955-47E8-8E42-EFE66F8E2530}" name="Term Source REF (PECO:0007241)" dataDxfId="58"/>
-    <tableColumn id="160" xr3:uid="{159271F8-4343-4546-81D3-E7AE0438BF91}" name="Term Accession Number (PECO:0007241)" dataDxfId="57"/>
-    <tableColumn id="161" xr3:uid="{AC98601D-DB44-45A0-9639-848DD3D97821}" name="Parameter [abiotic plant exposure]" dataDxfId="56"/>
-    <tableColumn id="162" xr3:uid="{1EF71984-AE79-45A3-B85C-3D63B9A45000}" name="Term Source REF (PECO:0007191)" dataDxfId="55"/>
-    <tableColumn id="163" xr3:uid="{58575740-B787-4889-B047-BE8097574A83}" name="Term Accession Number (PECO:0007191)" dataDxfId="54"/>
-    <tableColumn id="99" xr3:uid="{0AD23E00-4026-4DE6-9B26-1D80067F6D23}" name="Parameter [biotic plant exposure]" dataDxfId="53"/>
-    <tableColumn id="100" xr3:uid="{A73EA20C-30F6-4F5A-BE9C-1F95EDAD2075}" name="Term Source REF (PECO:0007357)" dataDxfId="52"/>
-    <tableColumn id="101" xr3:uid="{7BC176DE-D288-440D-AE07-B17C6C087D41}" name="Term Accession Number (PECO:0007357)" dataDxfId="51"/>
-    <tableColumn id="102" xr3:uid="{E4B7F22F-69B7-45D9-A3CD-B8F269AFECB1}" name="Characteristics [Geographic Area]" dataDxfId="50"/>
-    <tableColumn id="103" xr3:uid="{571169D2-47B6-40AA-8E2B-8629455DE18E}" name="Term Source REF ()" dataDxfId="49"/>
-    <tableColumn id="104" xr3:uid="{B601805D-FC55-4818-BE56-E15EAC614D1A}" name="Term Accession Number ()" dataDxfId="48"/>
-    <tableColumn id="105" xr3:uid="{820EF1CB-22B2-4D90-A62E-60758945BF10}" name="Parameter [Sample Collection Date]" dataDxfId="47"/>
-    <tableColumn id="106" xr3:uid="{20297405-2B24-48CF-B8F1-5C8FD0C57F7C}" name="Term Source REF (NFDI4PSO:0000075)" dataDxfId="46"/>
-    <tableColumn id="107" xr3:uid="{3D2321BF-EE54-4E22-8362-620DB8FCDC80}" name="Term Accession Number (NFDI4PSO:0000075)" dataDxfId="45"/>
-    <tableColumn id="108" xr3:uid="{7C136999-9BAF-43E5-855D-D97F492175D8}" name="Parameter [Sample Collected By]" dataDxfId="44"/>
-    <tableColumn id="109" xr3:uid="{CDD0FBA0-5918-486C-BB4F-FBA37D34F559}" name="Term Source REF (NFDI4PSO:0000076)" dataDxfId="43"/>
-    <tableColumn id="110" xr3:uid="{9EEEA931-289F-4558-A4CD-BAA5A89EDBCB}" name="Term Accession Number (NFDI4PSO:0000076)" dataDxfId="42"/>
-    <tableColumn id="111" xr3:uid="{D539A2BF-683E-4EB0-A3FA-26F36AB2D491}" name="Parameter [Time point]" dataDxfId="41"/>
-    <tableColumn id="112" xr3:uid="{67D48280-3922-4AE2-A629-EAEB3D5641B8}" name="Term Source REF (NFDI4PSO:0000034)" dataDxfId="40"/>
-    <tableColumn id="113" xr3:uid="{615E7959-5992-4D06-8A7B-DD39B89C4EEC}" name="Term Accession Number (NFDI4PSO:0000034)" dataDxfId="39"/>
-    <tableColumn id="114" xr3:uid="{4D9D42EB-53DB-46E9-AC66-722486F5B239}" name="Parameter [Sample Collection Method]" dataDxfId="38"/>
-    <tableColumn id="115" xr3:uid="{13DC542E-9758-4841-8D94-D7C3116C0568}" name="Term Source REF (NFDI4PSO:0000009)" dataDxfId="37"/>
-    <tableColumn id="116" xr3:uid="{36345937-CA63-443C-9D9D-BD0EAAAF7812}" name="Term Accession Number (NFDI4PSO:0000009)" dataDxfId="36"/>
-    <tableColumn id="117" xr3:uid="{05864A64-95DE-44E0-8966-107156CE7021}" name="Parameter [Metabolism quenching method]" dataDxfId="35"/>
-    <tableColumn id="118" xr3:uid="{3D7DB003-4188-49D2-94CA-D993FAD9E4F0}" name="Term Source REF (NFDI4PSO:0000010)" dataDxfId="34"/>
-    <tableColumn id="119" xr3:uid="{786911B1-BB7C-4948-A507-1360E791FD32}" name="Term Accession Number (NFDI4PSO:0000010)" dataDxfId="33"/>
-    <tableColumn id="120" xr3:uid="{9ACB2720-1CAC-4E92-BC80-C750A5BB4732}" name="Parameter [Sample storage]" dataDxfId="32"/>
-    <tableColumn id="121" xr3:uid="{F17CF920-3ACC-4E28-BDDF-4EAB2A03C00F}" name="Term Source REF (NFDI4PSO:0000011)" dataDxfId="31"/>
-    <tableColumn id="122" xr3:uid="{89F0B1DF-DB89-45C5-91DE-1DD5DA8F371D}" name="Term Accession Number (NFDI4PSO:0000011)" dataDxfId="30"/>
+    <tableColumn id="135" xr3:uid="{85247456-E764-4D3E-BF93-12E412A41198}" name="Parameter [light intensity exposure]" dataDxfId="85"/>
+    <tableColumn id="136" xr3:uid="{93A50CDC-1E60-4366-AB54-D4E7EE771BBF}" name="Unit" dataDxfId="84"/>
+    <tableColumn id="137" xr3:uid="{23F71F80-EA30-4D98-9A5D-F47C1E28CA7D}" name="Term Source REF (PECO:0007224)" dataDxfId="83"/>
+    <tableColumn id="138" xr3:uid="{C7FAED94-6AB6-4857-B12A-3D43248B98D9}" name="Term Accession Number (PECO:0007224)" dataDxfId="82"/>
+    <tableColumn id="139" xr3:uid="{C3243056-CD27-4381-8490-101CEDC788A9}" name="Parameter [Humidity Day]" dataDxfId="81"/>
+    <tableColumn id="140" xr3:uid="{1859E1B1-1EAC-418E-BACC-2BB44F677FFE}" name="Unit (#2)" dataDxfId="80"/>
+    <tableColumn id="141" xr3:uid="{798016FD-2838-4531-9398-3279D6A08C58}" name="Term Source REF (NFDI4PSO:0000005)" dataDxfId="79"/>
+    <tableColumn id="142" xr3:uid="{DA5B416D-F4A5-4D4E-8C25-A2ED3C4C82D4}" name="Term Accession Number (NFDI4PSO:0000005)" dataDxfId="78"/>
+    <tableColumn id="143" xr3:uid="{CFD14F66-5E52-44A1-8428-78197BFDC3B7}" name="Parameter [Humidity Night]" dataDxfId="77"/>
+    <tableColumn id="144" xr3:uid="{CAB23864-751E-4921-B093-E7F5F36CAB4A}" name="Unit (#3)" dataDxfId="76"/>
+    <tableColumn id="145" xr3:uid="{C79AD268-C4B2-49CA-AC34-43CF8297D031}" name="Term Source REF (NFDI4PSO:0000006)" dataDxfId="75"/>
+    <tableColumn id="146" xr3:uid="{62B5FED7-2365-42A3-9552-8A0FA76E9908}" name="Term Accession Number (NFDI4PSO:0000006)" dataDxfId="74"/>
+    <tableColumn id="147" xr3:uid="{97BBD5E2-CDBA-451A-B789-7CF61859FFCB}" name="Parameter [Temperature Day]" dataDxfId="73"/>
+    <tableColumn id="148" xr3:uid="{1C080C4C-851A-4E7C-896C-124F4716BA8C}" name="Unit (#4)" dataDxfId="72"/>
+    <tableColumn id="149" xr3:uid="{11E152AF-B6D8-46FF-B4D5-EC76EE12832C}" name="Term Source REF (NFDI4PSO:0000007)" dataDxfId="71"/>
+    <tableColumn id="150" xr3:uid="{FA942BE5-5F5A-4091-B5F2-EA84CB5A7C27}" name="Term Accession Number (NFDI4PSO:0000007)" dataDxfId="70"/>
+    <tableColumn id="151" xr3:uid="{6408990A-DF70-48CB-B8A8-528E0DD3D4F7}" name="Parameter [Temperature Night]" dataDxfId="69"/>
+    <tableColumn id="152" xr3:uid="{7F17C2AE-76E7-4343-9112-49EADE039C2E}" name="Unit (#5)" dataDxfId="68"/>
+    <tableColumn id="153" xr3:uid="{A0CCAF50-1E7F-4ECE-B83C-CF1AFBBF54E2}" name="Term Source REF (NFDI4PSO:0000008)" dataDxfId="67"/>
+    <tableColumn id="154" xr3:uid="{9E0149D4-5109-4383-99E6-4D9EE5914487}" name="Term Accession Number (NFDI4PSO:0000008)" dataDxfId="66"/>
+    <tableColumn id="155" xr3:uid="{0D428223-9C3F-4A3F-ABC9-B6497EC9F4C7}" name="Parameter [watering exposure]" dataDxfId="65"/>
+    <tableColumn id="156" xr3:uid="{0A90F49E-9F46-4E82-B592-5446DD648569}" name="Term Source REF (PECO:0007383)" dataDxfId="64"/>
+    <tableColumn id="157" xr3:uid="{6216E053-90BE-49F8-9C0C-7A6470F6D3DE}" name="Term Accession Number (PECO:0007383)" dataDxfId="63"/>
+    <tableColumn id="158" xr3:uid="{1ACB13C6-536F-41C7-91F2-B62AEB2DA8A4}" name="Parameter [plant nutrient exposure]" dataDxfId="62"/>
+    <tableColumn id="159" xr3:uid="{97FEA8C0-4955-47E8-8E42-EFE66F8E2530}" name="Term Source REF (PECO:0007241)" dataDxfId="61"/>
+    <tableColumn id="160" xr3:uid="{159271F8-4343-4546-81D3-E7AE0438BF91}" name="Term Accession Number (PECO:0007241)" dataDxfId="60"/>
+    <tableColumn id="161" xr3:uid="{AC98601D-DB44-45A0-9639-848DD3D97821}" name="Parameter [abiotic plant exposure]" dataDxfId="59"/>
+    <tableColumn id="162" xr3:uid="{1EF71984-AE79-45A3-B85C-3D63B9A45000}" name="Term Source REF (PECO:0007191)" dataDxfId="58"/>
+    <tableColumn id="163" xr3:uid="{58575740-B787-4889-B047-BE8097574A83}" name="Term Accession Number (PECO:0007191)" dataDxfId="57"/>
+    <tableColumn id="99" xr3:uid="{0AD23E00-4026-4DE6-9B26-1D80067F6D23}" name="Parameter [biotic plant exposure]" dataDxfId="56"/>
+    <tableColumn id="100" xr3:uid="{A73EA20C-30F6-4F5A-BE9C-1F95EDAD2075}" name="Term Source REF (PECO:0007357)" dataDxfId="55"/>
+    <tableColumn id="101" xr3:uid="{7BC176DE-D288-440D-AE07-B17C6C087D41}" name="Term Accession Number (PECO:0007357)" dataDxfId="54"/>
+    <tableColumn id="102" xr3:uid="{E4B7F22F-69B7-45D9-A3CD-B8F269AFECB1}" name="Characteristics [Geographic Area]" dataDxfId="53"/>
+    <tableColumn id="103" xr3:uid="{571169D2-47B6-40AA-8E2B-8629455DE18E}" name="Term Source REF ()" dataDxfId="52"/>
+    <tableColumn id="104" xr3:uid="{B601805D-FC55-4818-BE56-E15EAC614D1A}" name="Term Accession Number ()" dataDxfId="51"/>
+    <tableColumn id="105" xr3:uid="{820EF1CB-22B2-4D90-A62E-60758945BF10}" name="Parameter [Sample Collection Date]" dataDxfId="50"/>
+    <tableColumn id="106" xr3:uid="{20297405-2B24-48CF-B8F1-5C8FD0C57F7C}" name="Term Source REF (NFDI4PSO:0000075)" dataDxfId="49"/>
+    <tableColumn id="107" xr3:uid="{3D2321BF-EE54-4E22-8362-620DB8FCDC80}" name="Term Accession Number (NFDI4PSO:0000075)" dataDxfId="48"/>
+    <tableColumn id="108" xr3:uid="{7C136999-9BAF-43E5-855D-D97F492175D8}" name="Parameter [Sample Collected By]" dataDxfId="47"/>
+    <tableColumn id="109" xr3:uid="{CDD0FBA0-5918-486C-BB4F-FBA37D34F559}" name="Term Source REF (NFDI4PSO:0000076)" dataDxfId="46"/>
+    <tableColumn id="110" xr3:uid="{9EEEA931-289F-4558-A4CD-BAA5A89EDBCB}" name="Term Accession Number (NFDI4PSO:0000076)" dataDxfId="45"/>
+    <tableColumn id="111" xr3:uid="{D539A2BF-683E-4EB0-A3FA-26F36AB2D491}" name="Parameter [Time point]" dataDxfId="44"/>
+    <tableColumn id="112" xr3:uid="{67D48280-3922-4AE2-A629-EAEB3D5641B8}" name="Term Source REF (NFDI4PSO:0000034)" dataDxfId="43"/>
+    <tableColumn id="113" xr3:uid="{615E7959-5992-4D06-8A7B-DD39B89C4EEC}" name="Term Accession Number (NFDI4PSO:0000034)" dataDxfId="42"/>
+    <tableColumn id="114" xr3:uid="{4D9D42EB-53DB-46E9-AC66-722486F5B239}" name="Parameter [Sample Collection Method]" dataDxfId="41"/>
+    <tableColumn id="115" xr3:uid="{13DC542E-9758-4841-8D94-D7C3116C0568}" name="Term Source REF (NFDI4PSO:0000009)" dataDxfId="40"/>
+    <tableColumn id="116" xr3:uid="{36345937-CA63-443C-9D9D-BD0EAAAF7812}" name="Term Accession Number (NFDI4PSO:0000009)" dataDxfId="39"/>
+    <tableColumn id="117" xr3:uid="{05864A64-95DE-44E0-8966-107156CE7021}" name="Parameter [Metabolism quenching method]" dataDxfId="38"/>
+    <tableColumn id="118" xr3:uid="{3D7DB003-4188-49D2-94CA-D993FAD9E4F0}" name="Term Source REF (NFDI4PSO:0000010)" dataDxfId="37"/>
+    <tableColumn id="119" xr3:uid="{786911B1-BB7C-4948-A507-1360E791FD32}" name="Term Accession Number (NFDI4PSO:0000010)" dataDxfId="36"/>
+    <tableColumn id="120" xr3:uid="{9ACB2720-1CAC-4E92-BC80-C750A5BB4732}" name="Parameter [Sample storage]" dataDxfId="35"/>
+    <tableColumn id="121" xr3:uid="{F17CF920-3ACC-4E28-BDDF-4EAB2A03C00F}" name="Term Source REF (NFDI4PSO:0000011)" dataDxfId="34"/>
+    <tableColumn id="122" xr3:uid="{89F0B1DF-DB89-45C5-91DE-1DD5DA8F371D}" name="Term Accession Number (NFDI4PSO:0000011)" dataDxfId="33"/>
     <tableColumn id="2" xr3:uid="{8929A4D6-2D94-4C25-8C8A-5E4C6021B93A}" name="Sample Name"/>
-    <tableColumn id="66" xr3:uid="{A0BCBA0E-1C3F-4FDC-9766-EE92679D1499}" name="Characteristics [latitude]" dataDxfId="29"/>
-    <tableColumn id="67" xr3:uid="{C88A44EF-34B7-4DBE-A55B-49387D97841D}" name="Term Source REF (NFDI4PSO:0002003)" dataDxfId="28"/>
-    <tableColumn id="68" xr3:uid="{611D87D6-E500-48B6-BF5F-B16A4CF9F305}" name="Term Accession Number (NFDI4PSO:0002003)" dataDxfId="27"/>
-    <tableColumn id="69" xr3:uid="{D73915CA-EF0A-4191-8FAD-C090878A6252}" name="Characteristics [longitude]" dataDxfId="26"/>
-    <tableColumn id="70" xr3:uid="{D7A0FCC8-850C-4835-946D-FAB8F9935DB1}" name="Term Source REF (NFDI4PSO:0002004)" dataDxfId="25"/>
-    <tableColumn id="71" xr3:uid="{B9E9DB19-138B-48D8-80BD-CDED64FB2ECF}" name="Term Accession Number (NFDI4PSO:0002004)" dataDxfId="24"/>
-    <tableColumn id="72" xr3:uid="{F59B828A-77F1-4EF1-AA98-4B0F5EC28F30}" name="Characteristics [plant structure]" dataDxfId="23"/>
-    <tableColumn id="73" xr3:uid="{D987BCBA-EC44-4DA0-B4B0-3805721E4C85}" name="Term Source REF (PO:0009011)" dataDxfId="22"/>
-    <tableColumn id="74" xr3:uid="{2A126C2B-B02F-4C7D-97B0-F15733DA88EE}" name="Term Accession Number (PO:0009011)" dataDxfId="21"/>
-    <tableColumn id="54" xr3:uid="{C6232B5A-DBCF-422B-84D5-C308A2C0CB0C}" name="Parameter [project name]" dataDxfId="20"/>
-    <tableColumn id="55" xr3:uid="{8D4F1C9D-894A-40D7-90D3-101E73B65E83}" name="Term Source REF (NFDI4PSO:0002005)" dataDxfId="19"/>
-    <tableColumn id="56" xr3:uid="{783FDC8A-6A26-4F92-9D52-D10F7FD5F102}" name="Term Accession Number (NFDI4PSO:0002005)" dataDxfId="18"/>
-    <tableColumn id="60" xr3:uid="{A338E2A3-347E-4503-9BBB-8D278671AFA6}" name="Parameter [sequencing method]" dataDxfId="17"/>
-    <tableColumn id="61" xr3:uid="{5C2FD561-7FC2-4459-81A1-740A83DD15BA}" name="Term Source REF (NFDI4PSO:0002006)" dataDxfId="16"/>
-    <tableColumn id="62" xr3:uid="{5E74B801-F59C-409E-9EB3-FEF692861F10}" name="Term Accession Number (NFDI4PSO:0002006)" dataDxfId="15"/>
-    <tableColumn id="63" xr3:uid="{4C41472E-ED0C-4842-BC8D-4606C5B70CD6}" name="Parameter [investigation type]" dataDxfId="14"/>
-    <tableColumn id="64" xr3:uid="{CF7FD28E-13B0-41AB-B963-0393C53CD3D5}" name="Term Source REF (NFDI4PSO:0002007)" dataDxfId="13"/>
-    <tableColumn id="65" xr3:uid="{2B5929E3-EA97-47B4-AE0B-84D639AE9D57}" name="Term Accession Number (NFDI4PSO:0002007)" dataDxfId="12"/>
-    <tableColumn id="81" xr3:uid="{9041C6BF-2C70-49B4-850A-D25022B36BE1}" name="Characteristics [environment (feature)]" dataDxfId="11"/>
-    <tableColumn id="82" xr3:uid="{D2D1D8D0-ED1D-4371-8A5F-9B91E86D660B}" name="Term Source REF (NFDI4PSO:0002008)" dataDxfId="10"/>
-    <tableColumn id="83" xr3:uid="{A74DA121-66D7-441A-A0C4-8CE04B05B309}" name="Term Accession Number (NFDI4PSO:0002008)" dataDxfId="9"/>
-    <tableColumn id="93" xr3:uid="{6333540B-C003-4312-94AA-CCC54DEF5FD6}" name="Characteristics [plant-associated environmental package]" dataDxfId="8"/>
-    <tableColumn id="94" xr3:uid="{B4B4A77F-B26F-49D4-BD08-E369E79313B2}" name="Term Source REF (NFDI4PSO:0002010)" dataDxfId="7"/>
-    <tableColumn id="95" xr3:uid="{4FF52097-C8BA-47AA-89C6-33300DC4AE59}" name="Term Accession Number (NFDI4PSO:0002010)" dataDxfId="6"/>
-    <tableColumn id="87" xr3:uid="{DE5E9A92-A2C3-4B19-8B65-EE32F58F4403}" name="Characteristics [biome]" dataDxfId="5"/>
-    <tableColumn id="88" xr3:uid="{54221990-399D-4308-8B44-57A9845BC7B4}" name="Term Source REF (ENVO:00000428)" dataDxfId="4"/>
-    <tableColumn id="89" xr3:uid="{5680C376-E837-4034-BA0F-40B8D400418C}" name="Term Accession Number (ENVO:00000428)" dataDxfId="3"/>
-    <tableColumn id="90" xr3:uid="{DD7CF2D6-7F7B-4248-A825-E33CBA7E899E}" name="Characteristics [environment (material)]" dataDxfId="2"/>
-    <tableColumn id="91" xr3:uid="{894AE3B3-B690-4CF4-ABF5-3C76D4268B80}" name="Term Source REF (NFDI4PSO:0002009)" dataDxfId="1"/>
-    <tableColumn id="92" xr3:uid="{3FE7B7EF-0573-4239-AA73-718957410CE5}" name="Term Accession Number (NFDI4PSO:0002009)" dataDxfId="0"/>
+    <tableColumn id="66" xr3:uid="{A0BCBA0E-1C3F-4FDC-9766-EE92679D1499}" name="Characteristics [latitude]" dataDxfId="32"/>
+    <tableColumn id="67" xr3:uid="{C88A44EF-34B7-4DBE-A55B-49387D97841D}" name="Term Source REF (NFDI4PSO:0002003)" dataDxfId="31"/>
+    <tableColumn id="68" xr3:uid="{611D87D6-E500-48B6-BF5F-B16A4CF9F305}" name="Term Accession Number (NFDI4PSO:0002003)" dataDxfId="30"/>
+    <tableColumn id="69" xr3:uid="{D73915CA-EF0A-4191-8FAD-C090878A6252}" name="Characteristics [longitude]" dataDxfId="29"/>
+    <tableColumn id="70" xr3:uid="{D7A0FCC8-850C-4835-946D-FAB8F9935DB1}" name="Term Source REF (NFDI4PSO:0002004)" dataDxfId="28"/>
+    <tableColumn id="71" xr3:uid="{B9E9DB19-138B-48D8-80BD-CDED64FB2ECF}" name="Term Accession Number (NFDI4PSO:0002004)" dataDxfId="27"/>
+    <tableColumn id="72" xr3:uid="{F59B828A-77F1-4EF1-AA98-4B0F5EC28F30}" name="Characteristics [plant structure]" dataDxfId="26"/>
+    <tableColumn id="73" xr3:uid="{D987BCBA-EC44-4DA0-B4B0-3805721E4C85}" name="Term Source REF (PO:0009011)" dataDxfId="25"/>
+    <tableColumn id="74" xr3:uid="{2A126C2B-B02F-4C7D-97B0-F15733DA88EE}" name="Term Accession Number (PO:0009011)" dataDxfId="24"/>
+    <tableColumn id="54" xr3:uid="{C6232B5A-DBCF-422B-84D5-C308A2C0CB0C}" name="Parameter [project name]" dataDxfId="23"/>
+    <tableColumn id="55" xr3:uid="{8D4F1C9D-894A-40D7-90D3-101E73B65E83}" name="Term Source REF (NFDI4PSO:0002005)" dataDxfId="22"/>
+    <tableColumn id="56" xr3:uid="{783FDC8A-6A26-4F92-9D52-D10F7FD5F102}" name="Term Accession Number (NFDI4PSO:0002005)" dataDxfId="21"/>
+    <tableColumn id="60" xr3:uid="{A338E2A3-347E-4503-9BBB-8D278671AFA6}" name="Parameter [sequencing method]" dataDxfId="20"/>
+    <tableColumn id="61" xr3:uid="{5C2FD561-7FC2-4459-81A1-740A83DD15BA}" name="Term Source REF (NFDI4PSO:0002006)" dataDxfId="19"/>
+    <tableColumn id="62" xr3:uid="{5E74B801-F59C-409E-9EB3-FEF692861F10}" name="Term Accession Number (NFDI4PSO:0002006)" dataDxfId="18"/>
+    <tableColumn id="63" xr3:uid="{4C41472E-ED0C-4842-BC8D-4606C5B70CD6}" name="Parameter [investigation type]" dataDxfId="17"/>
+    <tableColumn id="64" xr3:uid="{CF7FD28E-13B0-41AB-B963-0393C53CD3D5}" name="Term Source REF (NFDI4PSO:0002007)" dataDxfId="16"/>
+    <tableColumn id="65" xr3:uid="{2B5929E3-EA97-47B4-AE0B-84D639AE9D57}" name="Term Accession Number (NFDI4PSO:0002007)" dataDxfId="15"/>
+    <tableColumn id="81" xr3:uid="{9041C6BF-2C70-49B4-850A-D25022B36BE1}" name="Characteristics [environment (feature)]" dataDxfId="14"/>
+    <tableColumn id="82" xr3:uid="{D2D1D8D0-ED1D-4371-8A5F-9B91E86D660B}" name="Term Source REF (NFDI4PSO:0002008)" dataDxfId="13"/>
+    <tableColumn id="83" xr3:uid="{A74DA121-66D7-441A-A0C4-8CE04B05B309}" name="Term Accession Number (NFDI4PSO:0002008)" dataDxfId="12"/>
+    <tableColumn id="93" xr3:uid="{6333540B-C003-4312-94AA-CCC54DEF5FD6}" name="Characteristics [plant-associated environmental package]" dataDxfId="11"/>
+    <tableColumn id="94" xr3:uid="{B4B4A77F-B26F-49D4-BD08-E369E79313B2}" name="Term Source REF (NFDI4PSO:0002010)" dataDxfId="10"/>
+    <tableColumn id="95" xr3:uid="{4FF52097-C8BA-47AA-89C6-33300DC4AE59}" name="Term Accession Number (NFDI4PSO:0002010)" dataDxfId="9"/>
+    <tableColumn id="87" xr3:uid="{DE5E9A92-A2C3-4B19-8B65-EE32F58F4403}" name="Characteristics [biome]" dataDxfId="8"/>
+    <tableColumn id="88" xr3:uid="{54221990-399D-4308-8B44-57A9845BC7B4}" name="Term Source REF (ENVO:00000428)" dataDxfId="7"/>
+    <tableColumn id="89" xr3:uid="{5680C376-E837-4034-BA0F-40B8D400418C}" name="Term Accession Number (ENVO:00000428)" dataDxfId="6"/>
+    <tableColumn id="90" xr3:uid="{DD7CF2D6-7F7B-4248-A825-E33CBA7E899E}" name="Characteristics [environment (material)]" dataDxfId="5"/>
+    <tableColumn id="91" xr3:uid="{894AE3B3-B690-4CF4-ABF5-3C76D4268B80}" name="Term Source REF (NFDI4PSO:0002009)" dataDxfId="4"/>
+    <tableColumn id="92" xr3:uid="{3FE7B7EF-0573-4239-AA73-718957410CE5}" name="Term Accession Number (NFDI4PSO:0002009)" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2529,7 +2567,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="618" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="614" row="2">
@@ -2570,711 +2608,728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
-  <dimension ref="A1:ER7"/>
+  <dimension ref="A1:EV7"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="47.5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="32" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="22" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.83203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="23" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="23" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="28" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.83203125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="37.83203125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="25.5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="25.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="27.6640625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="23.1640625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="30" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="23.6640625" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="25.5" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="25.5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="33.6640625" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="27" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="27" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="28" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="31.5" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="31.5" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.1640625" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="25.5" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="25.5" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="37.1640625" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="24" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="32.5" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="29.5" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="29.5" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="43.83203125" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="43" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="32.5" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="21.6640625" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="43.83203125" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="38.33203125" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="28.1640625" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="36" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="39.83203125" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="28" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="28" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="32.5" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="40.33203125" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="32.1640625" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="11" hidden="1" customWidth="1"/>
     <col min="71" max="71" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="24.1640625" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="11" hidden="1" customWidth="1"/>
     <col min="75" max="75" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="25.5" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="25.5" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="14" hidden="1" customWidth="1"/>
     <col min="79" max="79" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="27.1640625" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="14" hidden="1" customWidth="1"/>
     <col min="83" max="83" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="28.5" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="28.5" bestFit="1" customWidth="1"/>
     <col min="86" max="86" width="32.5" hidden="1" customWidth="1"/>
     <col min="87" max="87" width="39.5" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="32.5" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="28.1640625" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="90" max="90" width="39.5" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="32.5" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="32.33203125" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="39.5" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="32.5" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="31.1640625" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="39.5" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="19.83203125" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="30.33203125" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="26.83203125" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="30" hidden="1" customWidth="1"/>
+    <col min="101" max="101" width="30" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="32" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="32" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="29.6640625" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="109" max="109" width="22" hidden="1" customWidth="1"/>
+    <col min="110" max="110" width="22" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="43" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="34.83203125" hidden="1" customWidth="1"/>
+    <col min="113" max="113" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="38.5" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="38.5" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="25.5" hidden="1" customWidth="1"/>
+    <col min="119" max="119" width="25.5" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="121" max="121" width="14.1640625" hidden="1" customWidth="1"/>
+    <col min="122" max="122" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="23" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="30.33203125" hidden="1" customWidth="1"/>
+    <col min="125" max="125" width="24.5" hidden="1" customWidth="1"/>
+    <col min="126" max="126" width="24.5" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="128" max="128" width="28.5" hidden="1" customWidth="1"/>
+    <col min="129" max="129" width="28.5" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="131" max="131" width="24.1640625" hidden="1" customWidth="1"/>
+    <col min="132" max="132" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="134" max="134" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="134" max="134" width="29.33203125" hidden="1" customWidth="1"/>
+    <col min="135" max="135" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="136" max="136" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="137" max="137" width="27.6640625" hidden="1" customWidth="1"/>
+    <col min="138" max="138" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="54.83203125" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="140" max="140" width="34.5" hidden="1" customWidth="1"/>
+    <col min="141" max="141" width="34.5" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="143" max="143" width="24" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="34" hidden="1" customWidth="1"/>
+    <col min="143" max="143" width="48.5" hidden="1" customWidth="1"/>
+    <col min="144" max="144" width="48.5" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="41" hidden="1" customWidth="1"/>
-    <col min="146" max="146" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="146" max="146" width="21.83203125" hidden="1" customWidth="1"/>
+    <col min="147" max="147" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="148" max="148" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="149" max="149" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="150" max="151" width="0" hidden="1" customWidth="1"/>
+    <col min="149" max="149" width="35.33203125" hidden="1" customWidth="1"/>
+    <col min="150" max="150" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="151" max="152" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" t="s">
+        <v>441</v>
+      </c>
+      <c r="E1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BC1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BD1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BE1" t="s">
         <v>413</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BF1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BG1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BH1" t="s">
         <v>416</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BI1" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" t="s">
         <v>417</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
         <v>57</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
         <v>418</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" t="s">
         <v>419</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" t="s">
         <v>60</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BS1" t="s">
         <v>61</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" t="s">
         <v>62</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" t="s">
         <v>420</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BV1" t="s">
         <v>63</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BW1" t="s">
         <v>64</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BX1" t="s">
         <v>65</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BY1" t="s">
         <v>421</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BZ1" t="s">
         <v>66</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CA1" t="s">
         <v>67</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CB1" t="s">
         <v>68</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CC1" t="s">
         <v>422</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CD1" t="s">
         <v>69</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CE1" t="s">
         <v>70</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CF1" t="s">
         <v>71</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CG1" t="s">
         <v>423</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CH1" t="s">
         <v>72</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CI1" t="s">
         <v>73</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CJ1" t="s">
         <v>74</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CK1" t="s">
         <v>424</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CL1" t="s">
         <v>75</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CM1" t="s">
         <v>76</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CN1" t="s">
         <v>425</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CO1" t="s">
         <v>77</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CP1" t="s">
         <v>78</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CQ1" t="s">
         <v>426</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CR1" t="s">
         <v>79</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CS1" t="s">
         <v>80</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CT1" t="s">
         <v>427</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CU1" t="s">
         <v>81</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CV1" t="s">
         <v>82</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CW1" t="s">
         <v>83</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CX1" t="s">
         <v>414</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CY1" t="s">
         <v>415</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CZ1" t="s">
         <v>428</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DA1" t="s">
         <v>84</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DB1" t="s">
         <v>85</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DC1" t="s">
         <v>429</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DD1" t="s">
         <v>86</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DE1" t="s">
         <v>87</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DF1" t="s">
         <v>430</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DG1" t="s">
         <v>88</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DH1" t="s">
         <v>89</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DI1" t="s">
         <v>90</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DJ1" t="s">
         <v>91</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DK1" t="s">
         <v>92</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DL1" t="s">
         <v>93</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DM1" t="s">
         <v>94</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DN1" t="s">
         <v>95</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DO1" t="s">
         <v>96</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DP1" t="s">
         <v>97</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DQ1" t="s">
         <v>98</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DR1" t="s">
         <v>99</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DS1" t="s">
         <v>100</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DT1" t="s">
         <v>101</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DU1" t="s">
         <v>102</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DV1" t="s">
         <v>103</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DW1" t="s">
         <v>104</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DX1" t="s">
         <v>105</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DY1" t="s">
         <v>106</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DZ1" t="s">
         <v>107</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="EA1" t="s">
         <v>108</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="EB1" t="s">
         <v>109</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EC1" t="s">
         <v>110</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="ED1" t="s">
         <v>111</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EE1" t="s">
         <v>112</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EF1" t="s">
         <v>113</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EG1" t="s">
         <v>114</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EH1" t="s">
         <v>115</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EI1" t="s">
         <v>116</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EJ1" t="s">
         <v>117</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EK1" t="s">
         <v>118</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EL1" t="s">
         <v>119</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EM1" t="s">
         <v>120</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EN1" t="s">
         <v>121</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EO1" t="s">
         <v>122</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EP1" t="s">
         <v>123</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EQ1" t="s">
         <v>124</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="ER1" t="s">
         <v>125</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="ES1" t="s">
         <v>126</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="ET1" t="s">
         <v>127</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="EU1" t="s">
         <v>128</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="EV1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="B2" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" t="s">
         <v>130</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>131</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>132</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>133</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>134</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>134</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X2" t="s">
         <v>135</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Y2" t="s">
         <v>134</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Z2" t="s">
         <v>134</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AD2" t="s">
         <v>136</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AE2" t="s">
         <v>137</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>138</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>139</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>134</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>134</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>140</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>131</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BG2" t="s">
         <v>141</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BH2" t="s">
         <v>142</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>131</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BJ2" t="s">
         <v>143</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BK2" t="s">
         <v>144</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BJ2" s="15">
-        <v>44542</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>134</v>
       </c>
       <c r="BL2" t="s">
         <v>134</v>
       </c>
-      <c r="BM2" s="1"/>
-      <c r="BN2" s="1" t="s">
+      <c r="BM2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN2" s="15">
+        <v>44542</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU2" s="2"/>
       <c r="BV2" s="2" t="s">
@@ -3286,15 +3341,15 @@
       <c r="BX2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="CA2" s="3" t="s">
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CA2" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="CB2" s="3" t="s">
-        <v>151</v>
+      <c r="CB2" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="CC2" s="3"/>
       <c r="CD2" s="3" t="s">
@@ -3307,9 +3362,15 @@
         <v>151</v>
       </c>
       <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3"/>
-      <c r="CJ2" s="3"/>
+      <c r="CH2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
       <c r="CM2" s="3"/>
@@ -3330,37 +3391,37 @@
       <c r="DB2" s="3"/>
       <c r="DC2" s="3"/>
       <c r="DD2" s="3"/>
-      <c r="DE2" s="3" t="s">
+      <c r="DE2" s="3"/>
+      <c r="DF2" s="3"/>
+      <c r="DG2" s="3"/>
+      <c r="DH2" s="3"/>
+      <c r="DI2" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="DF2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="DG2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="DH2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="DI2" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="DJ2" s="3" t="s">
         <v>134</v>
       </c>
       <c r="DK2" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="DL2" s="3" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="DM2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="DO2" s="3"/>
-      <c r="DP2" s="3"/>
-      <c r="DQ2" s="3"/>
-      <c r="DR2" s="3"/>
+      <c r="DN2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="DO2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="DP2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="DQ2" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="DS2" s="3"/>
       <c r="DT2" s="3"/>
       <c r="DU2" s="3"/>
@@ -3387,99 +3448,103 @@
       <c r="EP2" s="3"/>
       <c r="EQ2" s="3"/>
       <c r="ER2" s="3"/>
-    </row>
-    <row r="3" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="ES2" s="3"/>
+      <c r="ET2" s="3"/>
+      <c r="EU2" s="3"/>
+      <c r="EV2" s="3"/>
+    </row>
+    <row r="3" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" t="s">
         <v>155</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>156</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>157</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>158</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>134</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>134</v>
       </c>
-      <c r="T3" t="s">
+      <c r="X3" t="s">
         <v>159</v>
       </c>
-      <c r="U3" t="s">
+      <c r="Y3" t="s">
         <v>134</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Z3" t="s">
         <v>134</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AD3" t="s">
         <v>160</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AE3" t="s">
         <v>156</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>161</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BE3" t="s">
         <v>162</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>134</v>
       </c>
       <c r="BF3" t="s">
         <v>134</v>
       </c>
       <c r="BG3" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="BH3" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="BI3" t="s">
         <v>134</v>
       </c>
-      <c r="BJ3" s="15">
-        <v>44483</v>
+      <c r="BJ3" t="s">
+        <v>134</v>
       </c>
       <c r="BK3" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="BL3" t="s">
         <v>134</v>
       </c>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1" t="s">
+      <c r="BM3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN3" s="15">
+        <v>44483</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BO3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BP3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT3" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU3" s="2"/>
       <c r="BV3" s="2" t="s">
@@ -3491,15 +3556,15 @@
       <c r="BX3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BY3" s="3"/>
-      <c r="BZ3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="CA3" s="3" t="s">
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CA3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="CB3" s="3" t="s">
-        <v>151</v>
+      <c r="CB3" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="CC3" s="3"/>
       <c r="CD3" s="3" t="s">
@@ -3512,9 +3577,15 @@
         <v>151</v>
       </c>
       <c r="CG3" s="3"/>
-      <c r="CH3" s="3"/>
-      <c r="CI3" s="3"/>
-      <c r="CJ3" s="3"/>
+      <c r="CH3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="CK3" s="3"/>
       <c r="CL3" s="3"/>
       <c r="CM3" s="3"/>
@@ -3535,25 +3606,25 @@
       <c r="DB3" s="3"/>
       <c r="DC3" s="3"/>
       <c r="DD3" s="3"/>
-      <c r="DE3" s="3" t="s">
+      <c r="DE3" s="3"/>
+      <c r="DF3" s="3"/>
+      <c r="DG3" s="3"/>
+      <c r="DH3" s="3"/>
+      <c r="DI3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="DF3" s="3" t="s">
+      <c r="DJ3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="DG3" s="3" t="s">
+      <c r="DK3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="DH3" s="3"/>
-      <c r="DI3" s="3"/>
-      <c r="DJ3" s="3"/>
-      <c r="DK3" s="3"/>
       <c r="DL3" s="3"/>
       <c r="DM3" s="3"/>
+      <c r="DN3" s="3"/>
       <c r="DO3" s="3"/>
       <c r="DP3" s="3"/>
       <c r="DQ3" s="3"/>
-      <c r="DR3" s="3"/>
       <c r="DS3" s="3"/>
       <c r="DT3" s="3"/>
       <c r="DU3" s="3"/>
@@ -3580,81 +3651,85 @@
       <c r="EP3" s="3"/>
       <c r="EQ3" s="3"/>
       <c r="ER3" s="3"/>
-    </row>
-    <row r="4" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="ES3" s="3"/>
+      <c r="ET3" s="3"/>
+      <c r="EU3" s="3"/>
+      <c r="EV3" s="3"/>
+    </row>
+    <row r="4" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" t="s">
         <v>166</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>134</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>134</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AD4" t="s">
         <v>167</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
         <v>137</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>168</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BE4" t="s">
         <v>169</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BF4" t="s">
         <v>134</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BG4" t="s">
         <v>134</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BH4" t="s">
         <v>170</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BI4" t="s">
         <v>171</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BJ4" t="s">
         <v>172</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BK4" t="s">
         <v>173</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>134</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>134</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>134</v>
       </c>
       <c r="BL4" t="s">
         <v>134</v>
       </c>
-      <c r="BM4" s="1"/>
-      <c r="BN4" s="1" t="s">
+      <c r="BM4" t="s">
+        <v>134</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>134</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BS4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BP4" s="1" t="s">
+      <c r="BT4" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="BQ4" s="2"/>
-      <c r="BR4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT4" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU4" s="2"/>
       <c r="BV4" s="2" t="s">
@@ -3666,15 +3741,15 @@
       <c r="BX4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BY4" s="3"/>
-      <c r="BZ4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="CA4" s="3" t="s">
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CA4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="CB4" s="3" t="s">
-        <v>151</v>
+      <c r="CB4" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="CC4" s="3"/>
       <c r="CD4" s="3" t="s">
@@ -3687,9 +3762,15 @@
         <v>151</v>
       </c>
       <c r="CG4" s="3"/>
-      <c r="CH4" s="3"/>
-      <c r="CI4" s="3"/>
-      <c r="CJ4" s="3"/>
+      <c r="CH4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ4" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
       <c r="CM4" s="3"/>
@@ -3719,10 +3800,10 @@
       <c r="DK4" s="3"/>
       <c r="DL4" s="3"/>
       <c r="DM4" s="3"/>
+      <c r="DN4" s="3"/>
       <c r="DO4" s="3"/>
       <c r="DP4" s="3"/>
       <c r="DQ4" s="3"/>
-      <c r="DR4" s="3"/>
       <c r="DS4" s="3"/>
       <c r="DT4" s="3"/>
       <c r="DU4" s="3"/>
@@ -3749,45 +3830,49 @@
       <c r="EP4" s="3"/>
       <c r="EQ4" s="3"/>
       <c r="ER4" s="3"/>
-    </row>
-    <row r="5" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="ES4" s="3"/>
+      <c r="ET4" s="3"/>
+      <c r="EU4" s="3"/>
+      <c r="EV4" s="3"/>
+    </row>
+    <row r="5" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" t="s">
         <v>175</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>134</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>134</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BN5" t="s">
         <v>176</v>
       </c>
-      <c r="BK5" t="s">
+      <c r="BO5" t="s">
         <v>134</v>
       </c>
-      <c r="BL5" t="s">
+      <c r="BP5" t="s">
         <v>134</v>
       </c>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1" t="s">
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BO5" s="1" t="s">
+      <c r="BS5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BP5" s="1" t="s">
+      <c r="BT5" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="BQ5" s="2"/>
-      <c r="BR5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT5" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU5" s="2"/>
       <c r="BV5" s="2" t="s">
@@ -3799,15 +3884,15 @@
       <c r="BX5" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BY5" s="3"/>
-      <c r="BZ5" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="CA5" s="3" t="s">
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CA5" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="CB5" s="3" t="s">
-        <v>151</v>
+      <c r="CB5" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="CC5" s="3"/>
       <c r="CD5" s="3" t="s">
@@ -3820,9 +3905,15 @@
         <v>151</v>
       </c>
       <c r="CG5" s="3"/>
-      <c r="CH5" s="3"/>
-      <c r="CI5" s="3"/>
-      <c r="CJ5" s="3"/>
+      <c r="CH5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CI5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ5" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
       <c r="CM5" s="3"/>
@@ -3852,10 +3943,10 @@
       <c r="DK5" s="3"/>
       <c r="DL5" s="3"/>
       <c r="DM5" s="3"/>
+      <c r="DN5" s="3"/>
       <c r="DO5" s="3"/>
       <c r="DP5" s="3"/>
       <c r="DQ5" s="3"/>
-      <c r="DR5" s="3"/>
       <c r="DS5" s="3"/>
       <c r="DT5" s="3"/>
       <c r="DU5" s="3"/>
@@ -3882,36 +3973,40 @@
       <c r="EP5" s="3"/>
       <c r="EQ5" s="3"/>
       <c r="ER5" s="3"/>
-    </row>
-    <row r="6" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="ES5" s="3"/>
+      <c r="ET5" s="3"/>
+      <c r="EU5" s="3"/>
+      <c r="EV5" s="3"/>
+    </row>
+    <row r="6" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" t="s">
         <v>177</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G6" t="s">
         <v>134</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>134</v>
       </c>
-      <c r="BM6" s="1"/>
-      <c r="BN6" s="1" t="s">
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BO6" s="1" t="s">
+      <c r="BS6" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BP6" s="1" t="s">
+      <c r="BT6" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT6" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU6" s="2"/>
       <c r="BV6" s="2" t="s">
@@ -3923,15 +4018,15 @@
       <c r="BX6" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BY6" s="3"/>
-      <c r="BZ6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="CA6" s="3" t="s">
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CA6" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="CB6" s="3" t="s">
-        <v>151</v>
+      <c r="CB6" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="CC6" s="3"/>
       <c r="CD6" s="3" t="s">
@@ -3944,9 +4039,15 @@
         <v>151</v>
       </c>
       <c r="CG6" s="3"/>
-      <c r="CH6" s="3"/>
-      <c r="CI6" s="3"/>
-      <c r="CJ6" s="3"/>
+      <c r="CH6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ6" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="CK6" s="3"/>
       <c r="CL6" s="3"/>
       <c r="CM6" s="3"/>
@@ -3976,10 +4077,10 @@
       <c r="DK6" s="3"/>
       <c r="DL6" s="3"/>
       <c r="DM6" s="3"/>
+      <c r="DN6" s="3"/>
       <c r="DO6" s="3"/>
       <c r="DP6" s="3"/>
       <c r="DQ6" s="3"/>
-      <c r="DR6" s="3"/>
       <c r="DS6" s="3"/>
       <c r="DT6" s="3"/>
       <c r="DU6" s="3"/>
@@ -4006,36 +4107,40 @@
       <c r="EP6" s="3"/>
       <c r="EQ6" s="3"/>
       <c r="ER6" s="3"/>
-    </row>
-    <row r="7" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="ES6" s="3"/>
+      <c r="ET6" s="3"/>
+      <c r="EU6" s="3"/>
+      <c r="EV6" s="3"/>
+    </row>
+    <row r="7" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" t="s">
         <v>178</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>134</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>134</v>
       </c>
-      <c r="BM7" s="1"/>
-      <c r="BN7" s="1" t="s">
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BO7" s="1" t="s">
+      <c r="BS7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BP7" s="1" t="s">
+      <c r="BT7" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="BQ7" s="2"/>
-      <c r="BR7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BS7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT7" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="BU7" s="2"/>
       <c r="BV7" s="2" t="s">
@@ -4047,15 +4152,15 @@
       <c r="BX7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="BY7" s="3"/>
-      <c r="BZ7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="CA7" s="3" t="s">
+      <c r="BY7" s="2"/>
+      <c r="BZ7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CA7" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="CB7" s="3" t="s">
-        <v>151</v>
+      <c r="CB7" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="CC7" s="3"/>
       <c r="CD7" s="3" t="s">
@@ -4068,9 +4173,15 @@
         <v>151</v>
       </c>
       <c r="CG7" s="3"/>
-      <c r="CH7" s="3"/>
-      <c r="CI7" s="3"/>
-      <c r="CJ7" s="3"/>
+      <c r="CH7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="CI7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CJ7" s="3" t="s">
+        <v>151</v>
+      </c>
       <c r="CK7" s="3"/>
       <c r="CL7" s="3"/>
       <c r="CM7" s="3"/>
@@ -4100,10 +4211,10 @@
       <c r="DK7" s="3"/>
       <c r="DL7" s="3"/>
       <c r="DM7" s="3"/>
+      <c r="DN7" s="3"/>
       <c r="DO7" s="3"/>
       <c r="DP7" s="3"/>
       <c r="DQ7" s="3"/>
-      <c r="DR7" s="3"/>
       <c r="DS7" s="3"/>
       <c r="DT7" s="3"/>
       <c r="DU7" s="3"/>
@@ -4130,6 +4241,10 @@
       <c r="EP7" s="3"/>
       <c r="EQ7" s="3"/>
       <c r="ER7" s="3"/>
+      <c r="ES7" s="3"/>
+      <c r="ET7" s="3"/>
+      <c r="EU7" s="3"/>
+      <c r="EV7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4143,7 +4258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5E2118-35D4-FE45-8453-49D313FAEE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68940F0-3DBF-7142-BA09-D4ED7D329906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25000" yWindow="-21100" windowWidth="19200" windowHeight="21100" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-25000" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_growth" sheetId="1" r:id="rId1"/>
@@ -211,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="449">
   <si>
     <t>Source Name</t>
   </si>
@@ -811,9 +811,6 @@
   </si>
   <si>
     <t>Plants</t>
-  </si>
-  <si>
-    <t>Sampling</t>
   </si>
   <si>
     <t>Plant study</t>
@@ -1561,6 +1558,15 @@
   </si>
   <si>
     <t>plant_growth.txt</t>
+  </si>
+  <si>
+    <t>Sampling Method</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C71492</t>
+  </si>
+  <si>
+    <t>NCIT</t>
   </si>
 </sst>
 </file>
@@ -2610,7 +2616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:EV7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -2774,16 +2780,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1" t="s">
         <v>439</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>440</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>441</v>
-      </c>
-      <c r="E1" t="s">
-        <v>442</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -2939,7 +2945,7 @@
         <v>51</v>
       </c>
       <c r="BE1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BF1" t="s">
         <v>52</v>
@@ -2948,7 +2954,7 @@
         <v>53</v>
       </c>
       <c r="BH1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BI1" t="s">
         <v>54</v>
@@ -2957,7 +2963,7 @@
         <v>55</v>
       </c>
       <c r="BK1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="BL1" t="s">
         <v>56</v>
@@ -2966,7 +2972,7 @@
         <v>57</v>
       </c>
       <c r="BN1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BO1" t="s">
         <v>58</v>
@@ -2975,7 +2981,7 @@
         <v>59</v>
       </c>
       <c r="BQ1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BR1" t="s">
         <v>60</v>
@@ -2987,7 +2993,7 @@
         <v>62</v>
       </c>
       <c r="BU1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BV1" t="s">
         <v>63</v>
@@ -2999,7 +3005,7 @@
         <v>65</v>
       </c>
       <c r="BY1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BZ1" t="s">
         <v>66</v>
@@ -3011,7 +3017,7 @@
         <v>68</v>
       </c>
       <c r="CC1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="CD1" t="s">
         <v>69</v>
@@ -3023,7 +3029,7 @@
         <v>71</v>
       </c>
       <c r="CG1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="CH1" t="s">
         <v>72</v>
@@ -3035,7 +3041,7 @@
         <v>74</v>
       </c>
       <c r="CK1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="CL1" t="s">
         <v>75</v>
@@ -3044,7 +3050,7 @@
         <v>76</v>
       </c>
       <c r="CN1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="CO1" t="s">
         <v>77</v>
@@ -3053,7 +3059,7 @@
         <v>78</v>
       </c>
       <c r="CQ1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="CR1" t="s">
         <v>79</v>
@@ -3062,7 +3068,7 @@
         <v>80</v>
       </c>
       <c r="CT1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="CU1" t="s">
         <v>81</v>
@@ -3074,13 +3080,13 @@
         <v>83</v>
       </c>
       <c r="CX1" t="s">
+        <v>413</v>
+      </c>
+      <c r="CY1" t="s">
         <v>414</v>
       </c>
-      <c r="CY1" t="s">
-        <v>415</v>
-      </c>
       <c r="CZ1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="DA1" t="s">
         <v>84</v>
@@ -3089,7 +3095,7 @@
         <v>85</v>
       </c>
       <c r="DC1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="DD1" t="s">
         <v>86</v>
@@ -3098,7 +3104,7 @@
         <v>87</v>
       </c>
       <c r="DF1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="DG1" t="s">
         <v>88</v>
@@ -3229,16 +3235,16 @@
     </row>
     <row r="2" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B2" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="D2" s="19" t="s">
         <v>444</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>445</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>446</v>
       </c>
       <c r="F2" t="s">
         <v>130</v>
@@ -3456,13 +3462,13 @@
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
       <c r="C3" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" t="s">
         <v>155</v>
@@ -3659,13 +3665,13 @@
     <row r="4" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
         <v>166</v>
@@ -3838,13 +3844,13 @@
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" t="s">
         <v>175</v>
@@ -3981,13 +3987,13 @@
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
         <v>177</v>
@@ -4115,13 +4121,13 @@
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
         <v>178</v>
@@ -4258,8 +4264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4291,7 +4297,7 @@
         <v>183</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -4307,7 +4313,7 @@
         <v>186</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4348,16 +4354,16 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>412</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4366,16 +4372,16 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -4392,83 +4398,91 @@
         <v>199</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="9" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>444</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>443</v>
+      </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>208</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>209</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4478,7 +4492,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="17"/>
@@ -4488,7 +4502,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4498,7 +4512,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4508,7 +4522,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4518,7 +4532,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4528,7 +4542,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="17"/>
@@ -4538,7 +4552,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4548,7 +4562,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4558,7 +4572,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -4597,40 +4611,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4638,37 +4652,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>317</v>
-      </c>
       <c r="I2" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>235</v>
-      </c>
       <c r="K2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -4676,37 +4690,37 @@
         <v>99</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4714,37 +4728,37 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>239</v>
-      </c>
       <c r="J4" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -4752,37 +4766,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>241</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -4790,37 +4804,37 @@
         <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>243</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I6" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J6" s="14" t="s">
-        <v>235</v>
-      </c>
       <c r="K6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -4828,37 +4842,37 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>245</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -4866,37 +4880,37 @@
         <v>13</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>247</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4904,37 +4918,37 @@
         <v>16</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>249</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4942,37 +4956,37 @@
         <v>19</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -4980,37 +4994,37 @@
         <v>22</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>254</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5018,37 +5032,37 @@
         <v>25</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>256</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I12" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>235</v>
-      </c>
       <c r="K12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5056,37 +5070,37 @@
         <v>28</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>258</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -5094,75 +5108,75 @@
         <v>31</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>260</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>263</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -5170,37 +5184,37 @@
         <v>37</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>265</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -5208,37 +5222,37 @@
         <v>40</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>267</v>
-      </c>
       <c r="E17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -5246,37 +5260,37 @@
         <v>43</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>269</v>
-      </c>
       <c r="E18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -5284,37 +5298,37 @@
         <v>46</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>271</v>
-      </c>
       <c r="E19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -5322,531 +5336,531 @@
         <v>49</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>274</v>
-      </c>
       <c r="E20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>277</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>279</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>281</v>
-      </c>
       <c r="E23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H23" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>283</v>
-      </c>
       <c r="E24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>285</v>
-      </c>
       <c r="E25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>287</v>
-      </c>
       <c r="E26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>289</v>
-      </c>
       <c r="E27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>291</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J28" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>293</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>295</v>
-      </c>
       <c r="E30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>297</v>
-      </c>
       <c r="E31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J31" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>299</v>
-      </c>
       <c r="E32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>301</v>
-      </c>
       <c r="E33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -5854,151 +5868,151 @@
         <v>83</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>303</v>
-      </c>
       <c r="E34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>305</v>
-      </c>
       <c r="E35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>307</v>
-      </c>
       <c r="E36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>309</v>
-      </c>
       <c r="E37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -6006,37 +6020,37 @@
         <v>90</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>311</v>
-      </c>
       <c r="E38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -6044,37 +6058,37 @@
         <v>93</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="E39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -6082,37 +6096,37 @@
         <v>96</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>315</v>
-      </c>
       <c r="E40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6144,40 +6158,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6185,35 +6199,35 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>326</v>
-      </c>
       <c r="I2" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -6221,35 +6235,35 @@
         <v>99</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>328</v>
-      </c>
       <c r="I3" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -6257,35 +6271,35 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -6293,31 +6307,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>241</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6325,35 +6339,35 @@
         <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>243</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>333</v>
-      </c>
       <c r="I6" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6361,35 +6375,35 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>245</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>336</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6397,35 +6411,35 @@
         <v>13</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>247</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G8" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>338</v>
-      </c>
       <c r="I8" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -6433,35 +6447,35 @@
         <v>16</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>249</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G9" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>340</v>
-      </c>
       <c r="I9" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6469,35 +6483,35 @@
         <v>19</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G10" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>342</v>
-      </c>
       <c r="I10" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6505,35 +6519,35 @@
         <v>22</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>254</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G11" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>344</v>
-      </c>
       <c r="I11" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6541,35 +6555,35 @@
         <v>25</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>256</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G12" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>346</v>
-      </c>
       <c r="I12" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -6577,35 +6591,35 @@
         <v>28</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>258</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G13" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>348</v>
-      </c>
       <c r="I13" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -6613,71 +6627,71 @@
         <v>31</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>260</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>350</v>
-      </c>
       <c r="I14" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>263</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G15" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>352</v>
-      </c>
       <c r="I15" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -6685,35 +6699,35 @@
         <v>37</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>265</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G16" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>354</v>
-      </c>
       <c r="I16" s="14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -6721,35 +6735,35 @@
         <v>40</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>267</v>
-      </c>
       <c r="E17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>356</v>
-      </c>
       <c r="I17" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -6757,35 +6771,35 @@
         <v>43</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>269</v>
-      </c>
       <c r="E18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G18" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>358</v>
-      </c>
       <c r="I18" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -6793,35 +6807,35 @@
         <v>46</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>271</v>
-      </c>
       <c r="E19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G19" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>360</v>
-      </c>
       <c r="I19" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -6829,481 +6843,481 @@
         <v>49</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>274</v>
-      </c>
       <c r="E20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G20" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>362</v>
-      </c>
       <c r="I20" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>277</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>279</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>281</v>
-      </c>
       <c r="E23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>283</v>
-      </c>
       <c r="E24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>285</v>
-      </c>
       <c r="E25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>287</v>
-      </c>
       <c r="E26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>289</v>
-      </c>
       <c r="E27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>291</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G28" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>365</v>
-      </c>
       <c r="I28" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>293</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G29" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>365</v>
-      </c>
       <c r="I29" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>295</v>
-      </c>
       <c r="E30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>297</v>
-      </c>
       <c r="E31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>299</v>
-      </c>
       <c r="E32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J32" s="14"/>
       <c r="K32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>301</v>
-      </c>
       <c r="E33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -7311,137 +7325,137 @@
         <v>83</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>303</v>
-      </c>
       <c r="E34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G34" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="I34" s="14" t="s">
         <v>368</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>369</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>305</v>
-      </c>
       <c r="E35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G35" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>371</v>
-      </c>
       <c r="I35" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>307</v>
-      </c>
       <c r="E36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G36" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="H36" s="14" t="s">
-        <v>373</v>
-      </c>
       <c r="I36" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>309</v>
-      </c>
       <c r="E37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -7449,29 +7463,29 @@
         <v>90</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>311</v>
-      </c>
       <c r="E38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -7479,29 +7493,29 @@
         <v>93</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="E39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -7509,29 +7523,29 @@
         <v>96</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>315</v>
-      </c>
       <c r="E40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7565,40 +7579,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -7606,19 +7620,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -7626,7 +7640,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -7634,19 +7648,19 @@
         <v>99</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -7654,7 +7668,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -7662,19 +7676,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>238</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -7682,7 +7696,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -7690,19 +7704,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>241</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -7710,7 +7724,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -7718,35 +7732,35 @@
         <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>243</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>376</v>
-      </c>
       <c r="J6" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -7754,19 +7768,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>245</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
@@ -7774,7 +7788,7 @@
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -7782,19 +7796,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>247</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -7802,7 +7816,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -7810,19 +7824,19 @@
         <v>16</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>249</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -7830,7 +7844,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -7838,19 +7852,19 @@
         <v>19</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -7858,7 +7872,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -7866,19 +7880,19 @@
         <v>22</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>254</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -7886,7 +7900,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -7894,35 +7908,35 @@
         <v>25</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>256</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G12" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>378</v>
-      </c>
       <c r="I12" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -7930,19 +7944,19 @@
         <v>28</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>258</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -7950,7 +7964,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -7958,55 +7972,55 @@
         <v>31</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>260</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>380</v>
-      </c>
       <c r="I14" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>263</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -8014,7 +8028,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -8022,19 +8036,19 @@
         <v>37</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>265</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -8042,7 +8056,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -8050,35 +8064,35 @@
         <v>40</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>267</v>
-      </c>
       <c r="E17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>382</v>
-      </c>
       <c r="I17" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -8086,19 +8100,19 @@
         <v>43</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>269</v>
-      </c>
       <c r="E18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -8106,7 +8120,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -8114,19 +8128,19 @@
         <v>46</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>271</v>
-      </c>
       <c r="E19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -8134,7 +8148,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -8142,19 +8156,19 @@
         <v>49</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>274</v>
-      </c>
       <c r="E20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -8162,27 +8176,27 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>277</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -8190,27 +8204,27 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>279</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -8218,27 +8232,27 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>281</v>
-      </c>
       <c r="E23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -8246,27 +8260,27 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>283</v>
-      </c>
       <c r="E24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -8274,27 +8288,27 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>285</v>
-      </c>
       <c r="E25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -8302,27 +8316,27 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>287</v>
-      </c>
       <c r="E26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -8330,27 +8344,27 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>289</v>
-      </c>
       <c r="E27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -8358,27 +8372,27 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>291</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -8386,27 +8400,27 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>293</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -8414,27 +8428,27 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>295</v>
-      </c>
       <c r="E30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -8442,27 +8456,27 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>297</v>
-      </c>
       <c r="E31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -8470,27 +8484,27 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>299</v>
-      </c>
       <c r="E32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
@@ -8498,27 +8512,27 @@
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>301</v>
-      </c>
       <c r="E33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -8526,7 +8540,7 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -8534,19 +8548,19 @@
         <v>83</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>303</v>
-      </c>
       <c r="E34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -8554,27 +8568,27 @@
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>305</v>
-      </c>
       <c r="E35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
@@ -8582,27 +8596,27 @@
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>307</v>
-      </c>
       <c r="E36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -8610,27 +8624,27 @@
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>309</v>
-      </c>
       <c r="E37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
@@ -8638,7 +8652,7 @@
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -8646,19 +8660,19 @@
         <v>90</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>311</v>
-      </c>
       <c r="E38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
@@ -8666,7 +8680,7 @@
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -8674,19 +8688,19 @@
         <v>93</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="E39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -8694,7 +8708,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -8702,19 +8716,19 @@
         <v>96</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>315</v>
-      </c>
       <c r="E40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
@@ -8722,7 +8736,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -8750,40 +8764,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>232</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -8791,19 +8805,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -8811,7 +8825,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -8819,19 +8833,19 @@
         <v>99</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -8839,7 +8853,7 @@
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -8847,19 +8861,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>238</v>
-      </c>
       <c r="E4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -8867,7 +8881,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -8875,19 +8889,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>241</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -8895,7 +8909,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -8903,31 +8917,31 @@
         <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>243</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G6" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>374</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>375</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -8935,31 +8949,31 @@
         <v>10</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>245</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -8967,19 +8981,19 @@
         <v>13</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>247</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -8987,7 +9001,7 @@
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -8995,19 +9009,19 @@
         <v>16</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>249</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -9015,7 +9029,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -9023,19 +9037,19 @@
         <v>19</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>251</v>
-      </c>
       <c r="E10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -9043,7 +9057,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -9051,19 +9065,19 @@
         <v>22</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>254</v>
-      </c>
       <c r="E11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -9071,7 +9085,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -9079,31 +9093,31 @@
         <v>25</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>256</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G12" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>377</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>378</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -9111,19 +9125,19 @@
         <v>28</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>258</v>
-      </c>
       <c r="E13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -9131,7 +9145,7 @@
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -9139,51 +9153,51 @@
         <v>31</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>260</v>
-      </c>
       <c r="E14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G14" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>379</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>380</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>263</v>
-      </c>
       <c r="E15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -9191,7 +9205,7 @@
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -9199,19 +9213,19 @@
         <v>37</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>265</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
@@ -9219,7 +9233,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -9227,33 +9241,33 @@
         <v>40</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>267</v>
-      </c>
       <c r="E17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>382</v>
-      </c>
       <c r="I17" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -9261,19 +9275,19 @@
         <v>43</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>269</v>
-      </c>
       <c r="E18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
@@ -9281,7 +9295,7 @@
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -9289,19 +9303,19 @@
         <v>46</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>271</v>
-      </c>
       <c r="E19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
@@ -9309,7 +9323,7 @@
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -9317,19 +9331,19 @@
         <v>49</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>274</v>
-      </c>
       <c r="E20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -9337,27 +9351,27 @@
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>277</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
@@ -9365,27 +9379,27 @@
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>279</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
@@ -9393,27 +9407,27 @@
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>281</v>
-      </c>
       <c r="E23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -9421,27 +9435,27 @@
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>283</v>
-      </c>
       <c r="E24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -9449,27 +9463,27 @@
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>285</v>
-      </c>
       <c r="E25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -9477,27 +9491,27 @@
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>287</v>
-      </c>
       <c r="E26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -9505,27 +9519,27 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>289</v>
-      </c>
       <c r="E27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -9533,27 +9547,27 @@
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>291</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -9561,27 +9575,27 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>293</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
@@ -9589,27 +9603,27 @@
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>295</v>
-      </c>
       <c r="E30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
@@ -9617,27 +9631,27 @@
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>297</v>
-      </c>
       <c r="E31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -9645,27 +9659,27 @@
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>299</v>
-      </c>
       <c r="E32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
@@ -9673,27 +9687,27 @@
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>301</v>
-      </c>
       <c r="E33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -9701,7 +9715,7 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -9709,83 +9723,83 @@
         <v>83</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>303</v>
-      </c>
       <c r="E34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>305</v>
-      </c>
       <c r="E35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>307</v>
-      </c>
       <c r="E36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
@@ -9793,27 +9807,27 @@
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>309</v>
-      </c>
       <c r="E37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
@@ -9821,7 +9835,7 @@
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -9829,19 +9843,19 @@
         <v>90</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>311</v>
-      </c>
       <c r="E38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
@@ -9849,7 +9863,7 @@
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -9857,19 +9871,19 @@
         <v>93</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C39" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>313</v>
-      </c>
       <c r="E39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
@@ -9877,7 +9891,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -9885,19 +9899,19 @@
         <v>96</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>315</v>
-      </c>
       <c r="E40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
@@ -9905,7 +9919,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -9913,31 +9927,31 @@
         <v>100</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>386</v>
-      </c>
       <c r="E41" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -9945,61 +9959,61 @@
         <v>103</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="C42" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>388</v>
-      </c>
       <c r="E42" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K42" s="14"/>
       <c r="L42" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="D43" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="D43" s="16" t="s">
-        <v>392</v>
-      </c>
       <c r="E43" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -10007,31 +10021,31 @@
         <v>109</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D44" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="C44" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>394</v>
-      </c>
       <c r="E44" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K44" s="14"/>
       <c r="L44" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -10039,31 +10053,31 @@
         <v>112</v>
       </c>
       <c r="B45" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>397</v>
-      </c>
       <c r="E45" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -10071,127 +10085,127 @@
         <v>115</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>399</v>
-      </c>
       <c r="E46" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="C47" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D47" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="C47" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>402</v>
-      </c>
       <c r="E47" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="C48" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>405</v>
-      </c>
       <c r="E48" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="C49" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>408</v>
-      </c>
       <c r="E49" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -10199,31 +10213,31 @@
         <v>121</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>410</v>
-      </c>
       <c r="E50" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68940F0-3DBF-7142-BA09-D4ED7D329906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3FB8E4-80F0-1941-ABBE-1DBBB0331191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25000" yWindow="-21100" windowWidth="19200" windowHeight="21100" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-25600" yWindow="-21100" windowWidth="33540" windowHeight="21100" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_growth" sheetId="1" r:id="rId1"/>
@@ -2616,7 +2616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8916BF-D1BA-4E62-B448-EB2F6971FAFB}">
   <dimension ref="A1:EV7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -4264,7 +4264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C806736B-09AD-44FE-B8F6-60FEE51F74DE}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3FB8E4-80F0-1941-ABBE-1DBBB0331191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB72815-5499-4A45-842A-89D08F42817A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-21100" windowWidth="33540" windowHeight="21100" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_growth" sheetId="1" r:id="rId1"/>
@@ -53,157 +53,76 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A6730C41-F5DE-4F01-A3FC-095AF4373E4D}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The unique identifier of this template. It will be auto generated.
 Reply:
     id=f12e98ee-a4e7-4ada-ba56-1e13cce1a44b</t>
-        </r>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{9E799887-59AD-4345-A004-B68DC73E5641}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{39B58500-2C8B-46EF-B806-2BE56674C4DC}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The current version of this template in SemVer notation.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{6D46A25B-96E1-401B-9AA9-0106185FC555}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The description of this template. Use few sentences for succinctness.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{EA625702-2A85-434F-8E7E-E80CAA6A6330}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{287E8347-2073-435C-862A-C1251741D440}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
-        </r>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A0B2E1B2-0D9B-450D-95C4-C832706A4676}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{E65FC467-B059-42E1-B49B-386E8AEC23A9}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
-        </r>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{DFE0E866-E592-4086-BD35-776A22FD6D07}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The author(s) of this template.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -211,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="453">
   <si>
     <t>Source Name</t>
   </si>
@@ -1567,6 +1486,18 @@
   </si>
   <si>
     <t>NCIT</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000096</t>
+  </si>
+  <si>
+    <t>Kuhl</t>
+  </si>
+  <si>
+    <t>Martin</t>
   </si>
 </sst>
 </file>
@@ -1797,15 +1728,6 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{D09CA6D9-E6C7-4433-8F48-8CA6F5BF0770}"/>
   </cellStyles>
   <dxfs count="86">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
     </dxf>
@@ -2055,6 +1977,15 @@
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2086,9 +2017,9 @@
   <tableColumns count="152">
     <tableColumn id="1" xr3:uid="{109E9A2A-74AF-4992-BC42-D1BBEEE95875}" name="Source Name"/>
     <tableColumn id="75" xr3:uid="{DF534AC8-9206-784A-ADE6-CBFBE6F7EC88}" name="Protocol Type"/>
-    <tableColumn id="76" xr3:uid="{A525A539-579F-8847-BEA5-7ABE3794B82B}" name="Term Source REF (DPBO:1000161)" dataDxfId="2"/>
-    <tableColumn id="77" xr3:uid="{0355D47F-1EFF-F645-970A-37F2157E3105}" name="Term Accession Number (DPBO:1000161)" dataDxfId="1"/>
-    <tableColumn id="78" xr3:uid="{E041DAD8-862B-3347-BE9B-1E0483C67BBA}" name="Protocol REF" dataDxfId="0"/>
+    <tableColumn id="76" xr3:uid="{A525A539-579F-8847-BEA5-7ABE3794B82B}" name="Term Source REF (DPBO:1000161)" dataDxfId="85"/>
+    <tableColumn id="77" xr3:uid="{0355D47F-1EFF-F645-970A-37F2157E3105}" name="Term Accession Number (DPBO:1000161)" dataDxfId="84"/>
+    <tableColumn id="78" xr3:uid="{E041DAD8-862B-3347-BE9B-1E0483C67BBA}" name="Protocol REF" dataDxfId="83"/>
     <tableColumn id="3" xr3:uid="{F925471A-8FD2-431D-9CE0-50F5A85F2A09}" name="Characteristics [Sample type]"/>
     <tableColumn id="4" xr3:uid="{E6E54AA1-B8BD-4A5B-9BEB-9971A3649576}" name="Term Source REF (NFDI4PSO:0000064)"/>
     <tableColumn id="5" xr3:uid="{0BCDA0A5-0E2E-42D6-9165-01A45DA47A08}" name="Term Accession Number (NFDI4PSO:0000064)"/>
@@ -2152,90 +2083,90 @@
     <tableColumn id="51" xr3:uid="{2D525B40-3237-4017-98F0-27AD5E830BF7}" name="Parameter [Growth day length]"/>
     <tableColumn id="52" xr3:uid="{A55C0CA4-8AE0-49C3-A41C-3AE50E40758A}" name="Term Source REF (NFDI4PSO:0000041)"/>
     <tableColumn id="53" xr3:uid="{1477EDD7-1DCB-4770-BA05-F1CC0EFA9AD5}" name="Term Accession Number (NFDI4PSO:0000041)"/>
-    <tableColumn id="135" xr3:uid="{85247456-E764-4D3E-BF93-12E412A41198}" name="Parameter [light intensity exposure]" dataDxfId="85"/>
-    <tableColumn id="136" xr3:uid="{93A50CDC-1E60-4366-AB54-D4E7EE771BBF}" name="Unit" dataDxfId="84"/>
-    <tableColumn id="137" xr3:uid="{23F71F80-EA30-4D98-9A5D-F47C1E28CA7D}" name="Term Source REF (PECO:0007224)" dataDxfId="83"/>
-    <tableColumn id="138" xr3:uid="{C7FAED94-6AB6-4857-B12A-3D43248B98D9}" name="Term Accession Number (PECO:0007224)" dataDxfId="82"/>
-    <tableColumn id="139" xr3:uid="{C3243056-CD27-4381-8490-101CEDC788A9}" name="Parameter [Humidity Day]" dataDxfId="81"/>
-    <tableColumn id="140" xr3:uid="{1859E1B1-1EAC-418E-BACC-2BB44F677FFE}" name="Unit (#2)" dataDxfId="80"/>
-    <tableColumn id="141" xr3:uid="{798016FD-2838-4531-9398-3279D6A08C58}" name="Term Source REF (NFDI4PSO:0000005)" dataDxfId="79"/>
-    <tableColumn id="142" xr3:uid="{DA5B416D-F4A5-4D4E-8C25-A2ED3C4C82D4}" name="Term Accession Number (NFDI4PSO:0000005)" dataDxfId="78"/>
-    <tableColumn id="143" xr3:uid="{CFD14F66-5E52-44A1-8428-78197BFDC3B7}" name="Parameter [Humidity Night]" dataDxfId="77"/>
-    <tableColumn id="144" xr3:uid="{CAB23864-751E-4921-B093-E7F5F36CAB4A}" name="Unit (#3)" dataDxfId="76"/>
-    <tableColumn id="145" xr3:uid="{C79AD268-C4B2-49CA-AC34-43CF8297D031}" name="Term Source REF (NFDI4PSO:0000006)" dataDxfId="75"/>
-    <tableColumn id="146" xr3:uid="{62B5FED7-2365-42A3-9552-8A0FA76E9908}" name="Term Accession Number (NFDI4PSO:0000006)" dataDxfId="74"/>
-    <tableColumn id="147" xr3:uid="{97BBD5E2-CDBA-451A-B789-7CF61859FFCB}" name="Parameter [Temperature Day]" dataDxfId="73"/>
-    <tableColumn id="148" xr3:uid="{1C080C4C-851A-4E7C-896C-124F4716BA8C}" name="Unit (#4)" dataDxfId="72"/>
-    <tableColumn id="149" xr3:uid="{11E152AF-B6D8-46FF-B4D5-EC76EE12832C}" name="Term Source REF (NFDI4PSO:0000007)" dataDxfId="71"/>
-    <tableColumn id="150" xr3:uid="{FA942BE5-5F5A-4091-B5F2-EA84CB5A7C27}" name="Term Accession Number (NFDI4PSO:0000007)" dataDxfId="70"/>
-    <tableColumn id="151" xr3:uid="{6408990A-DF70-48CB-B8A8-528E0DD3D4F7}" name="Parameter [Temperature Night]" dataDxfId="69"/>
-    <tableColumn id="152" xr3:uid="{7F17C2AE-76E7-4343-9112-49EADE039C2E}" name="Unit (#5)" dataDxfId="68"/>
-    <tableColumn id="153" xr3:uid="{A0CCAF50-1E7F-4ECE-B83C-CF1AFBBF54E2}" name="Term Source REF (NFDI4PSO:0000008)" dataDxfId="67"/>
-    <tableColumn id="154" xr3:uid="{9E0149D4-5109-4383-99E6-4D9EE5914487}" name="Term Accession Number (NFDI4PSO:0000008)" dataDxfId="66"/>
-    <tableColumn id="155" xr3:uid="{0D428223-9C3F-4A3F-ABC9-B6497EC9F4C7}" name="Parameter [watering exposure]" dataDxfId="65"/>
-    <tableColumn id="156" xr3:uid="{0A90F49E-9F46-4E82-B592-5446DD648569}" name="Term Source REF (PECO:0007383)" dataDxfId="64"/>
-    <tableColumn id="157" xr3:uid="{6216E053-90BE-49F8-9C0C-7A6470F6D3DE}" name="Term Accession Number (PECO:0007383)" dataDxfId="63"/>
-    <tableColumn id="158" xr3:uid="{1ACB13C6-536F-41C7-91F2-B62AEB2DA8A4}" name="Parameter [plant nutrient exposure]" dataDxfId="62"/>
-    <tableColumn id="159" xr3:uid="{97FEA8C0-4955-47E8-8E42-EFE66F8E2530}" name="Term Source REF (PECO:0007241)" dataDxfId="61"/>
-    <tableColumn id="160" xr3:uid="{159271F8-4343-4546-81D3-E7AE0438BF91}" name="Term Accession Number (PECO:0007241)" dataDxfId="60"/>
-    <tableColumn id="161" xr3:uid="{AC98601D-DB44-45A0-9639-848DD3D97821}" name="Parameter [abiotic plant exposure]" dataDxfId="59"/>
-    <tableColumn id="162" xr3:uid="{1EF71984-AE79-45A3-B85C-3D63B9A45000}" name="Term Source REF (PECO:0007191)" dataDxfId="58"/>
-    <tableColumn id="163" xr3:uid="{58575740-B787-4889-B047-BE8097574A83}" name="Term Accession Number (PECO:0007191)" dataDxfId="57"/>
-    <tableColumn id="99" xr3:uid="{0AD23E00-4026-4DE6-9B26-1D80067F6D23}" name="Parameter [biotic plant exposure]" dataDxfId="56"/>
-    <tableColumn id="100" xr3:uid="{A73EA20C-30F6-4F5A-BE9C-1F95EDAD2075}" name="Term Source REF (PECO:0007357)" dataDxfId="55"/>
-    <tableColumn id="101" xr3:uid="{7BC176DE-D288-440D-AE07-B17C6C087D41}" name="Term Accession Number (PECO:0007357)" dataDxfId="54"/>
-    <tableColumn id="102" xr3:uid="{E4B7F22F-69B7-45D9-A3CD-B8F269AFECB1}" name="Characteristics [Geographic Area]" dataDxfId="53"/>
-    <tableColumn id="103" xr3:uid="{571169D2-47B6-40AA-8E2B-8629455DE18E}" name="Term Source REF ()" dataDxfId="52"/>
-    <tableColumn id="104" xr3:uid="{B601805D-FC55-4818-BE56-E15EAC614D1A}" name="Term Accession Number ()" dataDxfId="51"/>
-    <tableColumn id="105" xr3:uid="{820EF1CB-22B2-4D90-A62E-60758945BF10}" name="Parameter [Sample Collection Date]" dataDxfId="50"/>
-    <tableColumn id="106" xr3:uid="{20297405-2B24-48CF-B8F1-5C8FD0C57F7C}" name="Term Source REF (NFDI4PSO:0000075)" dataDxfId="49"/>
-    <tableColumn id="107" xr3:uid="{3D2321BF-EE54-4E22-8362-620DB8FCDC80}" name="Term Accession Number (NFDI4PSO:0000075)" dataDxfId="48"/>
-    <tableColumn id="108" xr3:uid="{7C136999-9BAF-43E5-855D-D97F492175D8}" name="Parameter [Sample Collected By]" dataDxfId="47"/>
-    <tableColumn id="109" xr3:uid="{CDD0FBA0-5918-486C-BB4F-FBA37D34F559}" name="Term Source REF (NFDI4PSO:0000076)" dataDxfId="46"/>
-    <tableColumn id="110" xr3:uid="{9EEEA931-289F-4558-A4CD-BAA5A89EDBCB}" name="Term Accession Number (NFDI4PSO:0000076)" dataDxfId="45"/>
-    <tableColumn id="111" xr3:uid="{D539A2BF-683E-4EB0-A3FA-26F36AB2D491}" name="Parameter [Time point]" dataDxfId="44"/>
-    <tableColumn id="112" xr3:uid="{67D48280-3922-4AE2-A629-EAEB3D5641B8}" name="Term Source REF (NFDI4PSO:0000034)" dataDxfId="43"/>
-    <tableColumn id="113" xr3:uid="{615E7959-5992-4D06-8A7B-DD39B89C4EEC}" name="Term Accession Number (NFDI4PSO:0000034)" dataDxfId="42"/>
-    <tableColumn id="114" xr3:uid="{4D9D42EB-53DB-46E9-AC66-722486F5B239}" name="Parameter [Sample Collection Method]" dataDxfId="41"/>
-    <tableColumn id="115" xr3:uid="{13DC542E-9758-4841-8D94-D7C3116C0568}" name="Term Source REF (NFDI4PSO:0000009)" dataDxfId="40"/>
-    <tableColumn id="116" xr3:uid="{36345937-CA63-443C-9D9D-BD0EAAAF7812}" name="Term Accession Number (NFDI4PSO:0000009)" dataDxfId="39"/>
-    <tableColumn id="117" xr3:uid="{05864A64-95DE-44E0-8966-107156CE7021}" name="Parameter [Metabolism quenching method]" dataDxfId="38"/>
-    <tableColumn id="118" xr3:uid="{3D7DB003-4188-49D2-94CA-D993FAD9E4F0}" name="Term Source REF (NFDI4PSO:0000010)" dataDxfId="37"/>
-    <tableColumn id="119" xr3:uid="{786911B1-BB7C-4948-A507-1360E791FD32}" name="Term Accession Number (NFDI4PSO:0000010)" dataDxfId="36"/>
-    <tableColumn id="120" xr3:uid="{9ACB2720-1CAC-4E92-BC80-C750A5BB4732}" name="Parameter [Sample storage]" dataDxfId="35"/>
-    <tableColumn id="121" xr3:uid="{F17CF920-3ACC-4E28-BDDF-4EAB2A03C00F}" name="Term Source REF (NFDI4PSO:0000011)" dataDxfId="34"/>
-    <tableColumn id="122" xr3:uid="{89F0B1DF-DB89-45C5-91DE-1DD5DA8F371D}" name="Term Accession Number (NFDI4PSO:0000011)" dataDxfId="33"/>
+    <tableColumn id="135" xr3:uid="{85247456-E764-4D3E-BF93-12E412A41198}" name="Parameter [light intensity exposure]" dataDxfId="82"/>
+    <tableColumn id="136" xr3:uid="{93A50CDC-1E60-4366-AB54-D4E7EE771BBF}" name="Unit" dataDxfId="81"/>
+    <tableColumn id="137" xr3:uid="{23F71F80-EA30-4D98-9A5D-F47C1E28CA7D}" name="Term Source REF (PECO:0007224)" dataDxfId="80"/>
+    <tableColumn id="138" xr3:uid="{C7FAED94-6AB6-4857-B12A-3D43248B98D9}" name="Term Accession Number (PECO:0007224)" dataDxfId="79"/>
+    <tableColumn id="139" xr3:uid="{C3243056-CD27-4381-8490-101CEDC788A9}" name="Parameter [Humidity Day]" dataDxfId="78"/>
+    <tableColumn id="140" xr3:uid="{1859E1B1-1EAC-418E-BACC-2BB44F677FFE}" name="Unit (#2)" dataDxfId="77"/>
+    <tableColumn id="141" xr3:uid="{798016FD-2838-4531-9398-3279D6A08C58}" name="Term Source REF (NFDI4PSO:0000005)" dataDxfId="76"/>
+    <tableColumn id="142" xr3:uid="{DA5B416D-F4A5-4D4E-8C25-A2ED3C4C82D4}" name="Term Accession Number (NFDI4PSO:0000005)" dataDxfId="75"/>
+    <tableColumn id="143" xr3:uid="{CFD14F66-5E52-44A1-8428-78197BFDC3B7}" name="Parameter [Humidity Night]" dataDxfId="74"/>
+    <tableColumn id="144" xr3:uid="{CAB23864-751E-4921-B093-E7F5F36CAB4A}" name="Unit (#3)" dataDxfId="73"/>
+    <tableColumn id="145" xr3:uid="{C79AD268-C4B2-49CA-AC34-43CF8297D031}" name="Term Source REF (NFDI4PSO:0000006)" dataDxfId="72"/>
+    <tableColumn id="146" xr3:uid="{62B5FED7-2365-42A3-9552-8A0FA76E9908}" name="Term Accession Number (NFDI4PSO:0000006)" dataDxfId="71"/>
+    <tableColumn id="147" xr3:uid="{97BBD5E2-CDBA-451A-B789-7CF61859FFCB}" name="Parameter [Temperature Day]" dataDxfId="70"/>
+    <tableColumn id="148" xr3:uid="{1C080C4C-851A-4E7C-896C-124F4716BA8C}" name="Unit (#4)" dataDxfId="69"/>
+    <tableColumn id="149" xr3:uid="{11E152AF-B6D8-46FF-B4D5-EC76EE12832C}" name="Term Source REF (NFDI4PSO:0000007)" dataDxfId="68"/>
+    <tableColumn id="150" xr3:uid="{FA942BE5-5F5A-4091-B5F2-EA84CB5A7C27}" name="Term Accession Number (NFDI4PSO:0000007)" dataDxfId="67"/>
+    <tableColumn id="151" xr3:uid="{6408990A-DF70-48CB-B8A8-528E0DD3D4F7}" name="Parameter [Temperature Night]" dataDxfId="66"/>
+    <tableColumn id="152" xr3:uid="{7F17C2AE-76E7-4343-9112-49EADE039C2E}" name="Unit (#5)" dataDxfId="65"/>
+    <tableColumn id="153" xr3:uid="{A0CCAF50-1E7F-4ECE-B83C-CF1AFBBF54E2}" name="Term Source REF (NFDI4PSO:0000008)" dataDxfId="64"/>
+    <tableColumn id="154" xr3:uid="{9E0149D4-5109-4383-99E6-4D9EE5914487}" name="Term Accession Number (NFDI4PSO:0000008)" dataDxfId="63"/>
+    <tableColumn id="155" xr3:uid="{0D428223-9C3F-4A3F-ABC9-B6497EC9F4C7}" name="Parameter [watering exposure]" dataDxfId="62"/>
+    <tableColumn id="156" xr3:uid="{0A90F49E-9F46-4E82-B592-5446DD648569}" name="Term Source REF (PECO:0007383)" dataDxfId="61"/>
+    <tableColumn id="157" xr3:uid="{6216E053-90BE-49F8-9C0C-7A6470F6D3DE}" name="Term Accession Number (PECO:0007383)" dataDxfId="60"/>
+    <tableColumn id="158" xr3:uid="{1ACB13C6-536F-41C7-91F2-B62AEB2DA8A4}" name="Parameter [plant nutrient exposure]" dataDxfId="59"/>
+    <tableColumn id="159" xr3:uid="{97FEA8C0-4955-47E8-8E42-EFE66F8E2530}" name="Term Source REF (PECO:0007241)" dataDxfId="58"/>
+    <tableColumn id="160" xr3:uid="{159271F8-4343-4546-81D3-E7AE0438BF91}" name="Term Accession Number (PECO:0007241)" dataDxfId="57"/>
+    <tableColumn id="161" xr3:uid="{AC98601D-DB44-45A0-9639-848DD3D97821}" name="Parameter [abiotic plant exposure]" dataDxfId="56"/>
+    <tableColumn id="162" xr3:uid="{1EF71984-AE79-45A3-B85C-3D63B9A45000}" name="Term Source REF (PECO:0007191)" dataDxfId="55"/>
+    <tableColumn id="163" xr3:uid="{58575740-B787-4889-B047-BE8097574A83}" name="Term Accession Number (PECO:0007191)" dataDxfId="54"/>
+    <tableColumn id="99" xr3:uid="{0AD23E00-4026-4DE6-9B26-1D80067F6D23}" name="Parameter [biotic plant exposure]" dataDxfId="53"/>
+    <tableColumn id="100" xr3:uid="{A73EA20C-30F6-4F5A-BE9C-1F95EDAD2075}" name="Term Source REF (PECO:0007357)" dataDxfId="52"/>
+    <tableColumn id="101" xr3:uid="{7BC176DE-D288-440D-AE07-B17C6C087D41}" name="Term Accession Number (PECO:0007357)" dataDxfId="51"/>
+    <tableColumn id="102" xr3:uid="{E4B7F22F-69B7-45D9-A3CD-B8F269AFECB1}" name="Characteristics [Geographic Area]" dataDxfId="50"/>
+    <tableColumn id="103" xr3:uid="{571169D2-47B6-40AA-8E2B-8629455DE18E}" name="Term Source REF ()" dataDxfId="49"/>
+    <tableColumn id="104" xr3:uid="{B601805D-FC55-4818-BE56-E15EAC614D1A}" name="Term Accession Number ()" dataDxfId="48"/>
+    <tableColumn id="105" xr3:uid="{820EF1CB-22B2-4D90-A62E-60758945BF10}" name="Parameter [Sample Collection Date]" dataDxfId="47"/>
+    <tableColumn id="106" xr3:uid="{20297405-2B24-48CF-B8F1-5C8FD0C57F7C}" name="Term Source REF (NFDI4PSO:0000075)" dataDxfId="46"/>
+    <tableColumn id="107" xr3:uid="{3D2321BF-EE54-4E22-8362-620DB8FCDC80}" name="Term Accession Number (NFDI4PSO:0000075)" dataDxfId="45"/>
+    <tableColumn id="108" xr3:uid="{7C136999-9BAF-43E5-855D-D97F492175D8}" name="Parameter [Sample Collected By]" dataDxfId="44"/>
+    <tableColumn id="109" xr3:uid="{CDD0FBA0-5918-486C-BB4F-FBA37D34F559}" name="Term Source REF (NFDI4PSO:0000076)" dataDxfId="43"/>
+    <tableColumn id="110" xr3:uid="{9EEEA931-289F-4558-A4CD-BAA5A89EDBCB}" name="Term Accession Number (NFDI4PSO:0000076)" dataDxfId="42"/>
+    <tableColumn id="111" xr3:uid="{D539A2BF-683E-4EB0-A3FA-26F36AB2D491}" name="Parameter [Time point]" dataDxfId="41"/>
+    <tableColumn id="112" xr3:uid="{67D48280-3922-4AE2-A629-EAEB3D5641B8}" name="Term Source REF (NFDI4PSO:0000034)" dataDxfId="40"/>
+    <tableColumn id="113" xr3:uid="{615E7959-5992-4D06-8A7B-DD39B89C4EEC}" name="Term Accession Number (NFDI4PSO:0000034)" dataDxfId="39"/>
+    <tableColumn id="114" xr3:uid="{4D9D42EB-53DB-46E9-AC66-722486F5B239}" name="Parameter [Sample Collection Method]" dataDxfId="38"/>
+    <tableColumn id="115" xr3:uid="{13DC542E-9758-4841-8D94-D7C3116C0568}" name="Term Source REF (NFDI4PSO:0000009)" dataDxfId="37"/>
+    <tableColumn id="116" xr3:uid="{36345937-CA63-443C-9D9D-BD0EAAAF7812}" name="Term Accession Number (NFDI4PSO:0000009)" dataDxfId="36"/>
+    <tableColumn id="117" xr3:uid="{05864A64-95DE-44E0-8966-107156CE7021}" name="Parameter [Metabolism quenching method]" dataDxfId="35"/>
+    <tableColumn id="118" xr3:uid="{3D7DB003-4188-49D2-94CA-D993FAD9E4F0}" name="Term Source REF (NFDI4PSO:0000010)" dataDxfId="34"/>
+    <tableColumn id="119" xr3:uid="{786911B1-BB7C-4948-A507-1360E791FD32}" name="Term Accession Number (NFDI4PSO:0000010)" dataDxfId="33"/>
+    <tableColumn id="120" xr3:uid="{9ACB2720-1CAC-4E92-BC80-C750A5BB4732}" name="Parameter [Sample storage]" dataDxfId="32"/>
+    <tableColumn id="121" xr3:uid="{F17CF920-3ACC-4E28-BDDF-4EAB2A03C00F}" name="Term Source REF (NFDI4PSO:0000011)" dataDxfId="31"/>
+    <tableColumn id="122" xr3:uid="{89F0B1DF-DB89-45C5-91DE-1DD5DA8F371D}" name="Term Accession Number (NFDI4PSO:0000011)" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{8929A4D6-2D94-4C25-8C8A-5E4C6021B93A}" name="Sample Name"/>
-    <tableColumn id="66" xr3:uid="{A0BCBA0E-1C3F-4FDC-9766-EE92679D1499}" name="Characteristics [latitude]" dataDxfId="32"/>
-    <tableColumn id="67" xr3:uid="{C88A44EF-34B7-4DBE-A55B-49387D97841D}" name="Term Source REF (NFDI4PSO:0002003)" dataDxfId="31"/>
-    <tableColumn id="68" xr3:uid="{611D87D6-E500-48B6-BF5F-B16A4CF9F305}" name="Term Accession Number (NFDI4PSO:0002003)" dataDxfId="30"/>
-    <tableColumn id="69" xr3:uid="{D73915CA-EF0A-4191-8FAD-C090878A6252}" name="Characteristics [longitude]" dataDxfId="29"/>
-    <tableColumn id="70" xr3:uid="{D7A0FCC8-850C-4835-946D-FAB8F9935DB1}" name="Term Source REF (NFDI4PSO:0002004)" dataDxfId="28"/>
-    <tableColumn id="71" xr3:uid="{B9E9DB19-138B-48D8-80BD-CDED64FB2ECF}" name="Term Accession Number (NFDI4PSO:0002004)" dataDxfId="27"/>
-    <tableColumn id="72" xr3:uid="{F59B828A-77F1-4EF1-AA98-4B0F5EC28F30}" name="Characteristics [plant structure]" dataDxfId="26"/>
-    <tableColumn id="73" xr3:uid="{D987BCBA-EC44-4DA0-B4B0-3805721E4C85}" name="Term Source REF (PO:0009011)" dataDxfId="25"/>
-    <tableColumn id="74" xr3:uid="{2A126C2B-B02F-4C7D-97B0-F15733DA88EE}" name="Term Accession Number (PO:0009011)" dataDxfId="24"/>
-    <tableColumn id="54" xr3:uid="{C6232B5A-DBCF-422B-84D5-C308A2C0CB0C}" name="Parameter [project name]" dataDxfId="23"/>
-    <tableColumn id="55" xr3:uid="{8D4F1C9D-894A-40D7-90D3-101E73B65E83}" name="Term Source REF (NFDI4PSO:0002005)" dataDxfId="22"/>
-    <tableColumn id="56" xr3:uid="{783FDC8A-6A26-4F92-9D52-D10F7FD5F102}" name="Term Accession Number (NFDI4PSO:0002005)" dataDxfId="21"/>
-    <tableColumn id="60" xr3:uid="{A338E2A3-347E-4503-9BBB-8D278671AFA6}" name="Parameter [sequencing method]" dataDxfId="20"/>
-    <tableColumn id="61" xr3:uid="{5C2FD561-7FC2-4459-81A1-740A83DD15BA}" name="Term Source REF (NFDI4PSO:0002006)" dataDxfId="19"/>
-    <tableColumn id="62" xr3:uid="{5E74B801-F59C-409E-9EB3-FEF692861F10}" name="Term Accession Number (NFDI4PSO:0002006)" dataDxfId="18"/>
-    <tableColumn id="63" xr3:uid="{4C41472E-ED0C-4842-BC8D-4606C5B70CD6}" name="Parameter [investigation type]" dataDxfId="17"/>
-    <tableColumn id="64" xr3:uid="{CF7FD28E-13B0-41AB-B963-0393C53CD3D5}" name="Term Source REF (NFDI4PSO:0002007)" dataDxfId="16"/>
-    <tableColumn id="65" xr3:uid="{2B5929E3-EA97-47B4-AE0B-84D639AE9D57}" name="Term Accession Number (NFDI4PSO:0002007)" dataDxfId="15"/>
-    <tableColumn id="81" xr3:uid="{9041C6BF-2C70-49B4-850A-D25022B36BE1}" name="Characteristics [environment (feature)]" dataDxfId="14"/>
-    <tableColumn id="82" xr3:uid="{D2D1D8D0-ED1D-4371-8A5F-9B91E86D660B}" name="Term Source REF (NFDI4PSO:0002008)" dataDxfId="13"/>
-    <tableColumn id="83" xr3:uid="{A74DA121-66D7-441A-A0C4-8CE04B05B309}" name="Term Accession Number (NFDI4PSO:0002008)" dataDxfId="12"/>
-    <tableColumn id="93" xr3:uid="{6333540B-C003-4312-94AA-CCC54DEF5FD6}" name="Characteristics [plant-associated environmental package]" dataDxfId="11"/>
-    <tableColumn id="94" xr3:uid="{B4B4A77F-B26F-49D4-BD08-E369E79313B2}" name="Term Source REF (NFDI4PSO:0002010)" dataDxfId="10"/>
-    <tableColumn id="95" xr3:uid="{4FF52097-C8BA-47AA-89C6-33300DC4AE59}" name="Term Accession Number (NFDI4PSO:0002010)" dataDxfId="9"/>
-    <tableColumn id="87" xr3:uid="{DE5E9A92-A2C3-4B19-8B65-EE32F58F4403}" name="Characteristics [biome]" dataDxfId="8"/>
-    <tableColumn id="88" xr3:uid="{54221990-399D-4308-8B44-57A9845BC7B4}" name="Term Source REF (ENVO:00000428)" dataDxfId="7"/>
-    <tableColumn id="89" xr3:uid="{5680C376-E837-4034-BA0F-40B8D400418C}" name="Term Accession Number (ENVO:00000428)" dataDxfId="6"/>
-    <tableColumn id="90" xr3:uid="{DD7CF2D6-7F7B-4248-A825-E33CBA7E899E}" name="Characteristics [environment (material)]" dataDxfId="5"/>
-    <tableColumn id="91" xr3:uid="{894AE3B3-B690-4CF4-ABF5-3C76D4268B80}" name="Term Source REF (NFDI4PSO:0002009)" dataDxfId="4"/>
-    <tableColumn id="92" xr3:uid="{3FE7B7EF-0573-4239-AA73-718957410CE5}" name="Term Accession Number (NFDI4PSO:0002009)" dataDxfId="3"/>
+    <tableColumn id="66" xr3:uid="{A0BCBA0E-1C3F-4FDC-9766-EE92679D1499}" name="Characteristics [latitude]" dataDxfId="29"/>
+    <tableColumn id="67" xr3:uid="{C88A44EF-34B7-4DBE-A55B-49387D97841D}" name="Term Source REF (NFDI4PSO:0002003)" dataDxfId="28"/>
+    <tableColumn id="68" xr3:uid="{611D87D6-E500-48B6-BF5F-B16A4CF9F305}" name="Term Accession Number (NFDI4PSO:0002003)" dataDxfId="27"/>
+    <tableColumn id="69" xr3:uid="{D73915CA-EF0A-4191-8FAD-C090878A6252}" name="Characteristics [longitude]" dataDxfId="26"/>
+    <tableColumn id="70" xr3:uid="{D7A0FCC8-850C-4835-946D-FAB8F9935DB1}" name="Term Source REF (NFDI4PSO:0002004)" dataDxfId="25"/>
+    <tableColumn id="71" xr3:uid="{B9E9DB19-138B-48D8-80BD-CDED64FB2ECF}" name="Term Accession Number (NFDI4PSO:0002004)" dataDxfId="24"/>
+    <tableColumn id="72" xr3:uid="{F59B828A-77F1-4EF1-AA98-4B0F5EC28F30}" name="Characteristics [plant structure]" dataDxfId="23"/>
+    <tableColumn id="73" xr3:uid="{D987BCBA-EC44-4DA0-B4B0-3805721E4C85}" name="Term Source REF (PO:0009011)" dataDxfId="22"/>
+    <tableColumn id="74" xr3:uid="{2A126C2B-B02F-4C7D-97B0-F15733DA88EE}" name="Term Accession Number (PO:0009011)" dataDxfId="21"/>
+    <tableColumn id="54" xr3:uid="{C6232B5A-DBCF-422B-84D5-C308A2C0CB0C}" name="Parameter [project name]" dataDxfId="20"/>
+    <tableColumn id="55" xr3:uid="{8D4F1C9D-894A-40D7-90D3-101E73B65E83}" name="Term Source REF (NFDI4PSO:0002005)" dataDxfId="19"/>
+    <tableColumn id="56" xr3:uid="{783FDC8A-6A26-4F92-9D52-D10F7FD5F102}" name="Term Accession Number (NFDI4PSO:0002005)" dataDxfId="18"/>
+    <tableColumn id="60" xr3:uid="{A338E2A3-347E-4503-9BBB-8D278671AFA6}" name="Parameter [sequencing method]" dataDxfId="17"/>
+    <tableColumn id="61" xr3:uid="{5C2FD561-7FC2-4459-81A1-740A83DD15BA}" name="Term Source REF (NFDI4PSO:0002006)" dataDxfId="16"/>
+    <tableColumn id="62" xr3:uid="{5E74B801-F59C-409E-9EB3-FEF692861F10}" name="Term Accession Number (NFDI4PSO:0002006)" dataDxfId="15"/>
+    <tableColumn id="63" xr3:uid="{4C41472E-ED0C-4842-BC8D-4606C5B70CD6}" name="Parameter [investigation type]" dataDxfId="14"/>
+    <tableColumn id="64" xr3:uid="{CF7FD28E-13B0-41AB-B963-0393C53CD3D5}" name="Term Source REF (NFDI4PSO:0002007)" dataDxfId="13"/>
+    <tableColumn id="65" xr3:uid="{2B5929E3-EA97-47B4-AE0B-84D639AE9D57}" name="Term Accession Number (NFDI4PSO:0002007)" dataDxfId="12"/>
+    <tableColumn id="81" xr3:uid="{9041C6BF-2C70-49B4-850A-D25022B36BE1}" name="Characteristics [environment (feature)]" dataDxfId="11"/>
+    <tableColumn id="82" xr3:uid="{D2D1D8D0-ED1D-4371-8A5F-9B91E86D660B}" name="Term Source REF (NFDI4PSO:0002008)" dataDxfId="10"/>
+    <tableColumn id="83" xr3:uid="{A74DA121-66D7-441A-A0C4-8CE04B05B309}" name="Term Accession Number (NFDI4PSO:0002008)" dataDxfId="9"/>
+    <tableColumn id="93" xr3:uid="{6333540B-C003-4312-94AA-CCC54DEF5FD6}" name="Characteristics [plant-associated environmental package]" dataDxfId="8"/>
+    <tableColumn id="94" xr3:uid="{B4B4A77F-B26F-49D4-BD08-E369E79313B2}" name="Term Source REF (NFDI4PSO:0002010)" dataDxfId="7"/>
+    <tableColumn id="95" xr3:uid="{4FF52097-C8BA-47AA-89C6-33300DC4AE59}" name="Term Accession Number (NFDI4PSO:0002010)" dataDxfId="6"/>
+    <tableColumn id="87" xr3:uid="{DE5E9A92-A2C3-4B19-8B65-EE32F58F4403}" name="Characteristics [biome]" dataDxfId="5"/>
+    <tableColumn id="88" xr3:uid="{54221990-399D-4308-8B44-57A9845BC7B4}" name="Term Source REF (ENVO:00000428)" dataDxfId="4"/>
+    <tableColumn id="89" xr3:uid="{5680C376-E837-4034-BA0F-40B8D400418C}" name="Term Accession Number (ENVO:00000428)" dataDxfId="3"/>
+    <tableColumn id="90" xr3:uid="{DD7CF2D6-7F7B-4248-A825-E33CBA7E899E}" name="Characteristics [environment (material)]" dataDxfId="2"/>
+    <tableColumn id="91" xr3:uid="{894AE3B3-B690-4CF4-ABF5-3C76D4268B80}" name="Term Source REF (NFDI4PSO:0002009)" dataDxfId="1"/>
+    <tableColumn id="92" xr3:uid="{3FE7B7EF-0573-4239-AA73-718957410CE5}" name="Term Accession Number (NFDI4PSO:0002009)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2562,10 +2493,10 @@
   <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{8FDA37A3-35F9-4F08-AE71-C2F9A17BBC5B}" id="{A0B2E1B2-0D9B-450D-95C4-C832706A4676}">
     <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
   </threadedComment>
-  <threadedComment ref="A12" dT="2022-03-04T14:02:18.77" personId="{8FDA37A3-35F9-4F08-AE71-C2F9A17BBC5B}" id="{E65FC467-B059-42E1-B49B-386E8AEC23A9}">
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{8FDA37A3-35F9-4F08-AE71-C2F9A17BBC5B}" id="{E65FC467-B059-42E1-B49B-386E8AEC23A9}">
     <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
   </threadedComment>
-  <threadedComment ref="A16" dT="2022-03-04T14:02:18.77" personId="{8FDA37A3-35F9-4F08-AE71-C2F9A17BBC5B}" id="{DFE0E866-E592-4086-BD35-776A22FD6D07}">
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{8FDA37A3-35F9-4F08-AE71-C2F9A17BBC5B}" id="{DFE0E866-E592-4086-BD35-776A22FD6D07}">
     <text>The author(s) of this template.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2573,7 +2504,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="461" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="614" row="2">
@@ -2617,165 +2548,165 @@
   <dimension ref="A1:EV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
     <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="22" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="43.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="22.83203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="23" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="43.7109375" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.7109375" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
     <col min="21" max="21" width="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="24.6640625" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="37.83203125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="25.5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="27.6640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="23.1640625" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="23.6640625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="25.5" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="33.6640625" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="27" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="43.7109375" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" customWidth="1"/>
+    <col min="24" max="24" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.85546875" customWidth="1"/>
+    <col min="26" max="26" width="25.42578125" customWidth="1"/>
+    <col min="27" max="27" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="43.7109375" customWidth="1"/>
+    <col min="29" max="29" width="27.7109375" customWidth="1"/>
+    <col min="30" max="30" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="43.7109375" customWidth="1"/>
+    <col min="32" max="32" width="23.140625" customWidth="1"/>
+    <col min="33" max="33" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="43.7109375" customWidth="1"/>
+    <col min="35" max="35" width="23.7109375" customWidth="1"/>
+    <col min="36" max="36" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="43.7109375" customWidth="1"/>
+    <col min="38" max="38" width="25.42578125" customWidth="1"/>
+    <col min="39" max="39" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="43.7109375" customWidth="1"/>
+    <col min="41" max="41" width="33.7109375" customWidth="1"/>
+    <col min="42" max="42" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="43.7109375" customWidth="1"/>
+    <col min="44" max="44" width="27" customWidth="1"/>
     <col min="45" max="45" width="27" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="31.5" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="25.5" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="37.1640625" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="29.5" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="43.83203125" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="21.6640625" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="43.83203125" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="38.33203125" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="28.1640625" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="28" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="43.7109375" customWidth="1"/>
+    <col min="47" max="47" width="31.42578125" customWidth="1"/>
+    <col min="48" max="48" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="43.7109375" customWidth="1"/>
+    <col min="50" max="50" width="25.42578125" customWidth="1"/>
+    <col min="51" max="51" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37.140625" customWidth="1"/>
+    <col min="53" max="53" width="29.42578125" customWidth="1"/>
+    <col min="54" max="54" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="43.85546875" customWidth="1"/>
+    <col min="56" max="56" width="21.7109375" customWidth="1"/>
+    <col min="57" max="57" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="43.85546875" customWidth="1"/>
+    <col min="59" max="59" width="38.28515625" customWidth="1"/>
+    <col min="60" max="60" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="43.7109375" customWidth="1"/>
+    <col min="62" max="62" width="28.140625" customWidth="1"/>
+    <col min="63" max="63" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="43.7109375" customWidth="1"/>
+    <col min="65" max="65" width="28" customWidth="1"/>
     <col min="66" max="66" width="28" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="32.5" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="32.1640625" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="11" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="24.1640625" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="11" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="25.5" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="27.1640625" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="14" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="28.5" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="32.5" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="39.5" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="28.1640625" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="39.5" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="32.33203125" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="39.5" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="31.1640625" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="39.5" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="30.33203125" hidden="1" customWidth="1"/>
-    <col min="98" max="98" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="26.83203125" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="30" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="32.42578125" customWidth="1"/>
+    <col min="68" max="68" width="32.140625" customWidth="1"/>
+    <col min="69" max="69" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11" customWidth="1"/>
+    <col min="71" max="71" width="36.7109375" customWidth="1"/>
+    <col min="72" max="72" width="24.140625" customWidth="1"/>
+    <col min="73" max="73" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="11" customWidth="1"/>
+    <col min="75" max="75" width="36.7109375" customWidth="1"/>
+    <col min="76" max="76" width="25.42578125" customWidth="1"/>
+    <col min="77" max="77" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="14" customWidth="1"/>
+    <col min="79" max="79" width="36.7109375" customWidth="1"/>
+    <col min="80" max="80" width="27.140625" customWidth="1"/>
+    <col min="81" max="81" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="14" customWidth="1"/>
+    <col min="83" max="83" width="36.7109375" customWidth="1"/>
+    <col min="84" max="84" width="28.42578125" customWidth="1"/>
+    <col min="85" max="85" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="32.42578125" customWidth="1"/>
+    <col min="87" max="87" width="39.42578125" customWidth="1"/>
+    <col min="88" max="88" width="28.140625" customWidth="1"/>
+    <col min="89" max="89" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="39.42578125" customWidth="1"/>
+    <col min="91" max="91" width="32.28515625" customWidth="1"/>
+    <col min="92" max="92" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="39.42578125" customWidth="1"/>
+    <col min="94" max="94" width="31.140625" customWidth="1"/>
+    <col min="95" max="95" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="39.42578125" customWidth="1"/>
+    <col min="97" max="97" width="30.28515625" customWidth="1"/>
+    <col min="98" max="98" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="26.85546875" customWidth="1"/>
+    <col min="100" max="100" width="30" customWidth="1"/>
     <col min="101" max="101" width="30" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="32" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="43.7109375" customWidth="1"/>
+    <col min="103" max="103" width="32" customWidth="1"/>
     <col min="104" max="104" width="32" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="29.6640625" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="22" hidden="1" customWidth="1"/>
+    <col min="105" max="105" width="43.7109375" customWidth="1"/>
+    <col min="106" max="106" width="29.7109375" customWidth="1"/>
+    <col min="107" max="107" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="43.7109375" customWidth="1"/>
+    <col min="109" max="109" width="22" customWidth="1"/>
     <col min="110" max="110" width="22" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="34.83203125" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="38.5" hidden="1" customWidth="1"/>
-    <col min="116" max="116" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="25.5" hidden="1" customWidth="1"/>
-    <col min="119" max="119" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="14.1640625" hidden="1" customWidth="1"/>
-    <col min="122" max="122" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="43.7109375" customWidth="1"/>
+    <col min="112" max="112" width="34.85546875" customWidth="1"/>
+    <col min="113" max="113" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="43.7109375" customWidth="1"/>
+    <col min="115" max="115" width="38.42578125" customWidth="1"/>
+    <col min="116" max="116" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="43.7109375" customWidth="1"/>
+    <col min="118" max="118" width="25.42578125" customWidth="1"/>
+    <col min="119" max="119" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="36.7109375" customWidth="1"/>
+    <col min="121" max="121" width="14.140625" customWidth="1"/>
+    <col min="122" max="122" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="23" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="125" max="125" width="24.5" hidden="1" customWidth="1"/>
-    <col min="126" max="126" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="37.33203125" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="28.5" hidden="1" customWidth="1"/>
-    <col min="129" max="129" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="131" max="131" width="24.1640625" hidden="1" customWidth="1"/>
-    <col min="132" max="132" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="134" max="134" width="29.33203125" hidden="1" customWidth="1"/>
-    <col min="135" max="135" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="137" max="137" width="27.6640625" hidden="1" customWidth="1"/>
-    <col min="138" max="138" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="140" max="140" width="34.5" hidden="1" customWidth="1"/>
-    <col min="141" max="141" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="143" max="143" width="48.5" hidden="1" customWidth="1"/>
-    <col min="144" max="144" width="48.5" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="41" hidden="1" customWidth="1"/>
-    <col min="146" max="146" width="21.83203125" hidden="1" customWidth="1"/>
-    <col min="147" max="147" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="149" max="149" width="35.33203125" hidden="1" customWidth="1"/>
-    <col min="150" max="150" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="151" max="152" width="0" hidden="1" customWidth="1"/>
+    <col min="124" max="124" width="43.7109375" customWidth="1"/>
+    <col min="125" max="125" width="24.42578125" customWidth="1"/>
+    <col min="126" max="126" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="37.28515625" customWidth="1"/>
+    <col min="128" max="128" width="28.42578125" customWidth="1"/>
+    <col min="129" max="129" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="43.7109375" customWidth="1"/>
+    <col min="131" max="131" width="24.140625" customWidth="1"/>
+    <col min="132" max="132" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="43.7109375" customWidth="1"/>
+    <col min="134" max="134" width="29.28515625" customWidth="1"/>
+    <col min="135" max="135" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="43.7109375" customWidth="1"/>
+    <col min="137" max="137" width="27.7109375" customWidth="1"/>
+    <col min="138" max="138" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="43.7109375" customWidth="1"/>
+    <col min="140" max="140" width="34.42578125" customWidth="1"/>
+    <col min="141" max="141" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="43.7109375" customWidth="1"/>
+    <col min="143" max="143" width="48.42578125" customWidth="1"/>
+    <col min="144" max="144" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="41" customWidth="1"/>
+    <col min="146" max="146" width="21.85546875" customWidth="1"/>
+    <col min="147" max="147" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="43.7109375" customWidth="1"/>
+    <col min="149" max="149" width="35.28515625" customWidth="1"/>
+    <col min="150" max="150" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="151" max="152" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3233,7 +3164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.25">
       <c r="B2" s="19" t="s">
         <v>442</v>
       </c>
@@ -3459,7 +3390,7 @@
       <c r="EU2" s="3"/>
       <c r="EV2" s="3"/>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.25">
       <c r="B3" s="19"/>
       <c r="C3" s="19" t="s">
         <v>221</v>
@@ -3662,7 +3593,7 @@
       <c r="EU3" s="3"/>
       <c r="EV3" s="3"/>
     </row>
-    <row r="4" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:152" x14ac:dyDescent="0.25">
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
         <v>221</v>
@@ -3841,7 +3772,7 @@
       <c r="EU4" s="3"/>
       <c r="EV4" s="3"/>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.25">
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
         <v>221</v>
@@ -3984,7 +3915,7 @@
       <c r="EU5" s="3"/>
       <c r="EV5" s="3"/>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.25">
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
         <v>221</v>
@@ -4118,7 +4049,7 @@
       <c r="EU6" s="3"/>
       <c r="EV6" s="3"/>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.25">
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
         <v>221</v>
@@ -4265,18 +4196,18 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
-    <col min="3" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="3" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>179</v>
       </c>
@@ -4284,7 +4215,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>181</v>
       </c>
@@ -4292,7 +4223,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>183</v>
       </c>
@@ -4300,7 +4231,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>184</v>
       </c>
@@ -4308,7 +4239,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>186</v>
       </c>
@@ -4316,7 +4247,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>187</v>
       </c>
@@ -4324,17 +4255,19 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>449</v>
+      </c>
       <c r="C8" s="9" t="s">
         <v>191</v>
       </c>
@@ -4348,11 +4281,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>450</v>
+      </c>
       <c r="C9" s="9" t="s">
         <v>410</v>
       </c>
@@ -4366,11 +4301,13 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>443</v>
+      </c>
       <c r="C10" s="9" t="s">
         <v>236</v>
       </c>
@@ -4384,13 +4321,13 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>197</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>198</v>
       </c>
@@ -4410,7 +4347,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>202</v>
       </c>
@@ -4424,7 +4361,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>203</v>
       </c>
@@ -4438,13 +4375,13 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>204</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>205</v>
       </c>
@@ -4457,12 +4394,14 @@
       <c r="D16" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>451</v>
+      </c>
       <c r="F16" s="9" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>210</v>
       </c>
@@ -4475,12 +4414,14 @@
       <c r="D17" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="9" t="s">
+        <v>452</v>
+      </c>
       <c r="F17" s="9" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>215</v>
       </c>
@@ -4490,7 +4431,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>216</v>
       </c>
@@ -4500,7 +4441,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>217</v>
       </c>
@@ -4510,7 +4451,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>218</v>
       </c>
@@ -4520,7 +4461,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>219</v>
       </c>
@@ -4530,7 +4471,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>220</v>
       </c>
@@ -4540,7 +4481,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>433</v>
       </c>
@@ -4550,7 +4491,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>434</v>
       </c>
@@ -4560,7 +4501,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>435</v>
       </c>
@@ -4570,7 +4511,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>436</v>
       </c>
@@ -4593,23 +4534,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>221</v>
       </c>
@@ -4647,7 +4588,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -4685,7 +4626,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
@@ -4723,7 +4664,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -4761,7 +4702,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -4799,7 +4740,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -4837,7 +4778,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -4875,7 +4816,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -4913,7 +4854,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
@@ -4951,7 +4892,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -4989,7 +4930,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
@@ -5027,7 +4968,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -5065,7 +5006,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
@@ -5103,7 +5044,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -5141,7 +5082,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>260</v>
       </c>
@@ -5179,7 +5120,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
@@ -5217,7 +5158,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
@@ -5255,7 +5196,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>43</v>
       </c>
@@ -5293,7 +5234,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>46</v>
       </c>
@@ -5331,7 +5272,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
@@ -5369,7 +5310,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>412</v>
       </c>
@@ -5407,7 +5348,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>415</v>
       </c>
@@ -5445,7 +5386,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>416</v>
       </c>
@@ -5483,7 +5424,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>417</v>
       </c>
@@ -5521,7 +5462,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>418</v>
       </c>
@@ -5559,7 +5500,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>419</v>
       </c>
@@ -5597,7 +5538,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -5635,7 +5576,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>421</v>
       </c>
@@ -5673,7 +5614,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>422</v>
       </c>
@@ -5711,7 +5652,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>423</v>
       </c>
@@ -5749,7 +5690,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>424</v>
       </c>
@@ -5787,7 +5728,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>425</v>
       </c>
@@ -5825,7 +5766,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>426</v>
       </c>
@@ -5863,7 +5804,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>83</v>
       </c>
@@ -5901,7 +5842,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>427</v>
       </c>
@@ -5939,7 +5880,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>428</v>
       </c>
@@ -5977,7 +5918,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>429</v>
       </c>
@@ -6015,7 +5956,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>90</v>
       </c>
@@ -6053,7 +5994,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
@@ -6091,7 +6032,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
@@ -6140,23 +6081,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>221</v>
       </c>
@@ -6194,7 +6135,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -6230,7 +6171,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
@@ -6266,7 +6207,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -6302,7 +6243,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -6334,7 +6275,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -6370,7 +6311,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -6406,7 +6347,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -6442,7 +6383,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
@@ -6478,7 +6419,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -6514,7 +6455,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
@@ -6550,7 +6491,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -6586,7 +6527,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
@@ -6622,7 +6563,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -6658,7 +6599,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>260</v>
       </c>
@@ -6694,7 +6635,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
@@ -6730,7 +6671,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
@@ -6766,7 +6707,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>43</v>
       </c>
@@ -6802,7 +6743,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>46</v>
       </c>
@@ -6838,7 +6779,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
@@ -6874,7 +6815,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>412</v>
       </c>
@@ -6908,7 +6849,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>415</v>
       </c>
@@ -6942,7 +6883,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>416</v>
       </c>
@@ -6976,7 +6917,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>417</v>
       </c>
@@ -7010,7 +6951,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>418</v>
       </c>
@@ -7044,7 +6985,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>419</v>
       </c>
@@ -7078,7 +7019,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -7112,7 +7053,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>421</v>
       </c>
@@ -7148,7 +7089,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>422</v>
       </c>
@@ -7184,7 +7125,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>423</v>
       </c>
@@ -7218,7 +7159,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>424</v>
       </c>
@@ -7252,7 +7193,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>425</v>
       </c>
@@ -7286,7 +7227,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>426</v>
       </c>
@@ -7320,7 +7261,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>83</v>
       </c>
@@ -7356,7 +7297,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>427</v>
       </c>
@@ -7392,7 +7333,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>428</v>
       </c>
@@ -7428,7 +7369,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>429</v>
       </c>
@@ -7458,7 +7399,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>90</v>
       </c>
@@ -7488,7 +7429,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
@@ -7518,7 +7459,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
@@ -7561,23 +7502,23 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>221</v>
       </c>
@@ -7615,7 +7556,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -7643,7 +7584,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
@@ -7671,7 +7612,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -7699,7 +7640,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -7727,7 +7668,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -7763,7 +7704,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -7791,7 +7732,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -7819,7 +7760,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
@@ -7847,7 +7788,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -7875,7 +7816,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
@@ -7903,7 +7844,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -7939,7 +7880,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
@@ -7967,7 +7908,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -8003,7 +7944,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>260</v>
       </c>
@@ -8031,7 +7972,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
@@ -8059,7 +8000,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
@@ -8095,7 +8036,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>43</v>
       </c>
@@ -8123,7 +8064,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>46</v>
       </c>
@@ -8151,7 +8092,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
@@ -8179,7 +8120,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>412</v>
       </c>
@@ -8207,7 +8148,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>415</v>
       </c>
@@ -8235,7 +8176,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>416</v>
       </c>
@@ -8263,7 +8204,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>417</v>
       </c>
@@ -8291,7 +8232,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>418</v>
       </c>
@@ -8319,7 +8260,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>419</v>
       </c>
@@ -8347,7 +8288,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -8375,7 +8316,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>421</v>
       </c>
@@ -8403,7 +8344,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>422</v>
       </c>
@@ -8431,7 +8372,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>423</v>
       </c>
@@ -8459,7 +8400,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>424</v>
       </c>
@@ -8487,7 +8428,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>425</v>
       </c>
@@ -8515,7 +8456,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>426</v>
       </c>
@@ -8543,7 +8484,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>83</v>
       </c>
@@ -8571,7 +8512,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>427</v>
       </c>
@@ -8599,7 +8540,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>428</v>
       </c>
@@ -8627,7 +8568,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>429</v>
       </c>
@@ -8655,7 +8596,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>90</v>
       </c>
@@ -8683,7 +8624,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
@@ -8711,7 +8652,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
@@ -8752,17 +8693,17 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>221</v>
       </c>
@@ -8800,7 +8741,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -8828,7 +8769,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>99</v>
       </c>
@@ -8856,7 +8797,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -8884,7 +8825,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -8912,7 +8853,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -8944,7 +8885,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -8976,7 +8917,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -9004,7 +8945,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
@@ -9032,7 +8973,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -9060,7 +9001,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>22</v>
       </c>
@@ -9088,7 +9029,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>25</v>
       </c>
@@ -9120,7 +9061,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>28</v>
       </c>
@@ -9148,7 +9089,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
@@ -9180,7 +9121,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>260</v>
       </c>
@@ -9208,7 +9149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>37</v>
       </c>
@@ -9236,7 +9177,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
@@ -9270,7 +9211,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>43</v>
       </c>
@@ -9298,7 +9239,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>46</v>
       </c>
@@ -9326,7 +9267,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
@@ -9354,7 +9295,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>412</v>
       </c>
@@ -9382,7 +9323,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>415</v>
       </c>
@@ -9410,7 +9351,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>416</v>
       </c>
@@ -9438,7 +9379,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>417</v>
       </c>
@@ -9466,7 +9407,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>418</v>
       </c>
@@ -9494,7 +9435,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>419</v>
       </c>
@@ -9522,7 +9463,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>420</v>
       </c>
@@ -9550,7 +9491,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>421</v>
       </c>
@@ -9578,7 +9519,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>422</v>
       </c>
@@ -9606,7 +9547,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>423</v>
       </c>
@@ -9634,7 +9575,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>424</v>
       </c>
@@ -9662,7 +9603,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>425</v>
       </c>
@@ -9690,7 +9631,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>426</v>
       </c>
@@ -9718,7 +9659,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>83</v>
       </c>
@@ -9750,7 +9691,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>427</v>
       </c>
@@ -9782,7 +9723,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>428</v>
       </c>
@@ -9810,7 +9751,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>429</v>
       </c>
@@ -9838,7 +9779,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>90</v>
       </c>
@@ -9866,7 +9807,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>93</v>
       </c>
@@ -9894,7 +9835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>96</v>
       </c>
@@ -9922,7 +9863,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>100</v>
       </c>
@@ -9954,7 +9895,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>103</v>
       </c>
@@ -9986,7 +9927,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>388</v>
       </c>
@@ -10016,7 +9957,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>109</v>
       </c>
@@ -10048,7 +9989,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>112</v>
       </c>
@@ -10080,7 +10021,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>115</v>
       </c>
@@ -10112,7 +10053,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>399</v>
       </c>
@@ -10144,7 +10085,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>402</v>
       </c>
@@ -10176,7 +10117,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>405</v>
       </c>
@@ -10208,7 +10149,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>121</v>
       </c>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20340"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\Swate-templates\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953DD55-2A24-48C2-8C66-245C36D0803C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A06ACAA-B7A6-1548-B4B8-6BA76BB4BBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_growth" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="540">
   <si>
     <t>Source Name</t>
   </si>
@@ -663,9 +663,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/DPBO_1000164</t>
-  </si>
-  <si>
-    <t>plant_growth.txt</t>
   </si>
   <si>
     <t>cell culture</t>
@@ -2794,51 +2791,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EV7"/>
   <sheetViews>
-    <sheetView topLeftCell="EG1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.6640625" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
     <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.6640625" customWidth="1"/>
-    <col min="11" max="11" width="24.109375" customWidth="1"/>
-    <col min="12" max="12" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.6640625" customWidth="1"/>
     <col min="14" max="14" width="22" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="43.6640625" customWidth="1"/>
-    <col min="17" max="17" width="22.88671875" customWidth="1"/>
-    <col min="18" max="18" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.83203125" customWidth="1"/>
+    <col min="18" max="18" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="43.6640625" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
     <col min="21" max="21" width="23" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="43.6640625" customWidth="1"/>
     <col min="23" max="23" width="24.6640625" customWidth="1"/>
     <col min="24" max="24" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="37.88671875" customWidth="1"/>
-    <col min="26" max="26" width="25.44140625" customWidth="1"/>
-    <col min="27" max="27" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="37.83203125" customWidth="1"/>
+    <col min="26" max="26" width="25.5" customWidth="1"/>
+    <col min="27" max="27" width="25.5" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="43.6640625" customWidth="1"/>
     <col min="29" max="29" width="27.6640625" customWidth="1"/>
     <col min="30" max="30" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="43.6640625" customWidth="1"/>
-    <col min="32" max="32" width="23.109375" customWidth="1"/>
-    <col min="33" max="33" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.1640625" customWidth="1"/>
+    <col min="33" max="33" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="43.6640625" customWidth="1"/>
     <col min="35" max="35" width="23.6640625" customWidth="1"/>
     <col min="36" max="36" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="43.6640625" customWidth="1"/>
-    <col min="38" max="38" width="25.44140625" customWidth="1"/>
-    <col min="39" max="39" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.5" customWidth="1"/>
+    <col min="39" max="39" width="25.5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="43.6640625" customWidth="1"/>
     <col min="41" max="41" width="33.6640625" customWidth="1"/>
     <col min="42" max="42" width="33.6640625" bestFit="1" customWidth="1"/>
@@ -2846,59 +2843,59 @@
     <col min="44" max="44" width="27" customWidth="1"/>
     <col min="45" max="45" width="27" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="43.6640625" customWidth="1"/>
-    <col min="47" max="47" width="31.44140625" customWidth="1"/>
-    <col min="48" max="48" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="31.5" customWidth="1"/>
+    <col min="48" max="48" width="31.5" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="43.6640625" customWidth="1"/>
-    <col min="50" max="50" width="25.44140625" customWidth="1"/>
-    <col min="51" max="51" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="37.109375" customWidth="1"/>
-    <col min="53" max="53" width="29.44140625" customWidth="1"/>
-    <col min="54" max="54" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="43.88671875" customWidth="1"/>
+    <col min="50" max="50" width="25.5" customWidth="1"/>
+    <col min="51" max="51" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="37.1640625" customWidth="1"/>
+    <col min="53" max="53" width="29.5" customWidth="1"/>
+    <col min="54" max="54" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="43.83203125" customWidth="1"/>
     <col min="56" max="56" width="21.6640625" customWidth="1"/>
     <col min="57" max="57" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="43.88671875" customWidth="1"/>
+    <col min="58" max="58" width="43.83203125" customWidth="1"/>
     <col min="59" max="59" width="38.33203125" customWidth="1"/>
     <col min="60" max="60" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="43.6640625" customWidth="1"/>
-    <col min="62" max="62" width="28.109375" customWidth="1"/>
-    <col min="63" max="63" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="28.1640625" customWidth="1"/>
+    <col min="63" max="63" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="43.6640625" customWidth="1"/>
     <col min="65" max="65" width="28" customWidth="1"/>
     <col min="66" max="66" width="28" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="32.44140625" customWidth="1"/>
-    <col min="68" max="68" width="32.109375" customWidth="1"/>
-    <col min="69" max="69" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="32.5" customWidth="1"/>
+    <col min="68" max="68" width="32.1640625" customWidth="1"/>
+    <col min="69" max="69" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="11" customWidth="1"/>
     <col min="71" max="71" width="36.6640625" customWidth="1"/>
-    <col min="72" max="72" width="24.109375" customWidth="1"/>
-    <col min="73" max="73" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="24.1640625" customWidth="1"/>
+    <col min="73" max="73" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="11" customWidth="1"/>
     <col min="75" max="75" width="36.6640625" customWidth="1"/>
-    <col min="76" max="76" width="25.44140625" customWidth="1"/>
-    <col min="77" max="77" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="25.5" customWidth="1"/>
+    <col min="77" max="77" width="25.5" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="14" customWidth="1"/>
     <col min="79" max="79" width="36.6640625" customWidth="1"/>
-    <col min="80" max="80" width="27.109375" customWidth="1"/>
-    <col min="81" max="81" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="27.1640625" customWidth="1"/>
+    <col min="81" max="81" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="82" max="82" width="14" customWidth="1"/>
     <col min="83" max="83" width="36.6640625" customWidth="1"/>
-    <col min="84" max="84" width="28.44140625" customWidth="1"/>
-    <col min="85" max="85" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="32.44140625" customWidth="1"/>
-    <col min="87" max="87" width="39.44140625" customWidth="1"/>
-    <col min="88" max="88" width="28.109375" customWidth="1"/>
-    <col min="89" max="89" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="39.44140625" customWidth="1"/>
+    <col min="84" max="84" width="28.5" customWidth="1"/>
+    <col min="85" max="85" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="32.5" customWidth="1"/>
+    <col min="87" max="87" width="39.5" customWidth="1"/>
+    <col min="88" max="88" width="28.1640625" customWidth="1"/>
+    <col min="89" max="89" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="39.5" customWidth="1"/>
     <col min="91" max="91" width="32.33203125" customWidth="1"/>
     <col min="92" max="92" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="39.44140625" customWidth="1"/>
-    <col min="94" max="94" width="31.109375" customWidth="1"/>
-    <col min="95" max="95" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="39.44140625" customWidth="1"/>
+    <col min="93" max="93" width="39.5" customWidth="1"/>
+    <col min="94" max="94" width="31.1640625" customWidth="1"/>
+    <col min="95" max="95" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="39.5" customWidth="1"/>
     <col min="97" max="97" width="30.33203125" customWidth="1"/>
     <col min="98" max="98" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="26.88671875" customWidth="1"/>
+    <col min="99" max="99" width="26.83203125" customWidth="1"/>
     <col min="100" max="100" width="30" customWidth="1"/>
     <col min="101" max="101" width="30" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="43.6640625" customWidth="1"/>
@@ -2911,27 +2908,27 @@
     <col min="109" max="109" width="22" customWidth="1"/>
     <col min="110" max="110" width="22" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="43.6640625" customWidth="1"/>
-    <col min="112" max="112" width="34.88671875" customWidth="1"/>
-    <col min="113" max="113" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="34.83203125" customWidth="1"/>
+    <col min="113" max="113" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="43.6640625" customWidth="1"/>
-    <col min="115" max="115" width="38.44140625" customWidth="1"/>
-    <col min="116" max="116" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="38.5" customWidth="1"/>
+    <col min="116" max="116" width="38.5" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="43.6640625" customWidth="1"/>
-    <col min="118" max="118" width="25.44140625" customWidth="1"/>
-    <col min="119" max="119" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="25.5" customWidth="1"/>
+    <col min="119" max="119" width="25.5" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="36.6640625" customWidth="1"/>
-    <col min="121" max="121" width="14.109375" customWidth="1"/>
-    <col min="122" max="122" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="14.1640625" customWidth="1"/>
+    <col min="122" max="122" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="23" bestFit="1" customWidth="1"/>
     <col min="124" max="124" width="43.6640625" customWidth="1"/>
-    <col min="125" max="125" width="24.44140625" customWidth="1"/>
-    <col min="126" max="126" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="24.5" customWidth="1"/>
+    <col min="126" max="126" width="24.5" bestFit="1" customWidth="1"/>
     <col min="127" max="127" width="37.33203125" customWidth="1"/>
-    <col min="128" max="128" width="28.44140625" customWidth="1"/>
-    <col min="129" max="129" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="28.5" customWidth="1"/>
+    <col min="129" max="129" width="28.5" bestFit="1" customWidth="1"/>
     <col min="130" max="130" width="43.6640625" customWidth="1"/>
-    <col min="131" max="131" width="24.109375" customWidth="1"/>
-    <col min="132" max="132" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="24.1640625" customWidth="1"/>
+    <col min="132" max="132" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="133" max="133" width="43.6640625" customWidth="1"/>
     <col min="134" max="134" width="29.33203125" customWidth="1"/>
     <col min="135" max="135" width="29.33203125" bestFit="1" customWidth="1"/>
@@ -2939,21 +2936,21 @@
     <col min="137" max="137" width="27.6640625" customWidth="1"/>
     <col min="138" max="138" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="139" max="139" width="43.6640625" customWidth="1"/>
-    <col min="140" max="140" width="34.44140625" customWidth="1"/>
-    <col min="141" max="141" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="34.5" customWidth="1"/>
+    <col min="141" max="141" width="34.5" bestFit="1" customWidth="1"/>
     <col min="142" max="142" width="43.6640625" customWidth="1"/>
-    <col min="143" max="143" width="48.44140625" customWidth="1"/>
-    <col min="144" max="144" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="48.5" customWidth="1"/>
+    <col min="144" max="144" width="48.5" bestFit="1" customWidth="1"/>
     <col min="145" max="145" width="41" customWidth="1"/>
-    <col min="146" max="146" width="21.88671875" customWidth="1"/>
-    <col min="147" max="147" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="21.83203125" customWidth="1"/>
+    <col min="147" max="147" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="148" max="148" width="43.6640625" customWidth="1"/>
     <col min="149" max="149" width="35.33203125" customWidth="1"/>
     <col min="150" max="150" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="151" max="152" width="11.44140625" customWidth="1"/>
+    <col min="151" max="152" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3411,7 +3408,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B2" s="19" t="s">
         <v>152</v>
       </c>
@@ -3421,139 +3418,137 @@
       <c r="D2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" t="s">
         <v>155</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>156</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>157</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>158</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>159</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>159</v>
+      </c>
+      <c r="X2" t="s">
         <v>160</v>
       </c>
-      <c r="N2" t="s">
-        <v>160</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD2" t="s">
         <v>161</v>
       </c>
-      <c r="Y2" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>162</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>163</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AM2" t="s">
         <v>164</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE2" t="s">
         <v>165</v>
       </c>
-      <c r="AN2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG2" t="s">
         <v>166</v>
       </c>
-      <c r="BF2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>167</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>168</v>
       </c>
-      <c r="BI2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>169</v>
       </c>
-      <c r="BK2" t="s">
-        <v>170</v>
-      </c>
       <c r="BL2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BM2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BN2" s="15">
         <v>44542</v>
       </c>
       <c r="BO2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BP2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BS2" s="1" t="s">
+      <c r="BT2" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="BU2" s="2"/>
       <c r="BV2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BW2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX2" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="BY2" s="2"/>
       <c r="BZ2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CA2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB2" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="CC2" s="3"/>
       <c r="CD2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CF2" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CE2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CF2" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CG2" s="3"/>
       <c r="CH2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CI2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CJ2" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
@@ -3580,31 +3575,31 @@
       <c r="DG2" s="3"/>
       <c r="DH2" s="3"/>
       <c r="DI2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="DJ2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DK2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DL2" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="DJ2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DK2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DL2" s="3" t="s">
+      <c r="DM2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DN2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DO2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="DM2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DN2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DO2" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="DP2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DQ2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DS2" s="3"/>
       <c r="DT2" s="3"/>
@@ -3637,132 +3632,132 @@
       <c r="EU2" s="3"/>
       <c r="EV2" s="3"/>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G3" t="s">
         <v>181</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>182</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>183</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N3" t="s">
+        <v>159</v>
+      </c>
+      <c r="X3" t="s">
         <v>184</v>
       </c>
-      <c r="M3" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" t="s">
-        <v>160</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="Y3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF3" t="s">
         <v>186</v>
       </c>
-      <c r="AE3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF3" t="s">
+      <c r="BE3" t="s">
         <v>187</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH3" t="s">
         <v>188</v>
       </c>
-      <c r="BF3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BK3" t="s">
         <v>189</v>
       </c>
-      <c r="BI3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>190</v>
-      </c>
       <c r="BL3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BM3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BN3" s="15">
         <v>44483</v>
       </c>
       <c r="BO3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BP3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BS3" s="1" t="s">
+      <c r="BT3" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="BU3" s="2"/>
       <c r="BV3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BW3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX3" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="BW3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX3" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="BY3" s="2"/>
       <c r="BZ3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CA3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB3" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="CA3" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CB3" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="CC3" s="3"/>
       <c r="CD3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CF3" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CE3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CF3" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CG3" s="3"/>
       <c r="CH3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CI3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CK3" s="3"/>
       <c r="CL3" s="3"/>
@@ -3789,13 +3784,13 @@
       <c r="DG3" s="3"/>
       <c r="DH3" s="3"/>
       <c r="DI3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="DJ3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DK3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DL3" s="3"/>
       <c r="DM3" s="3"/>
@@ -3834,114 +3829,114 @@
       <c r="EU3" s="3"/>
       <c r="EV3" s="3"/>
     </row>
-    <row r="4" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD4" t="s">
         <v>192</v>
       </c>
-      <c r="G4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF4" t="s">
         <v>193</v>
       </c>
-      <c r="AE4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="BE4" t="s">
         <v>194</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH4" t="s">
         <v>195</v>
       </c>
-      <c r="BF4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>196</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>197</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>198</v>
       </c>
-      <c r="BK4" t="s">
+      <c r="BL4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN4" t="s">
         <v>199</v>
       </c>
-      <c r="BL4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>200</v>
-      </c>
       <c r="BO4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS4" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BS4" s="1" t="s">
+      <c r="BT4" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="BT4" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="BU4" s="2"/>
       <c r="BV4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BW4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX4" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="BW4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX4" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="BY4" s="2"/>
       <c r="BZ4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CA4" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB4" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="CA4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CB4" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="CC4" s="3"/>
       <c r="CD4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CF4" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CE4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CF4" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CG4" s="3"/>
       <c r="CH4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CJ4" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CI4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CJ4" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
@@ -4007,78 +4002,78 @@
       <c r="EU4" s="3"/>
       <c r="EV4" s="3"/>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN5" t="s">
         <v>201</v>
       </c>
-      <c r="G5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H5" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>202</v>
-      </c>
       <c r="BO5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BP5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BS5" s="1" t="s">
+      <c r="BT5" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="BU5" s="2"/>
       <c r="BV5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BW5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX5" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="BW5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX5" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="BY5" s="2"/>
       <c r="BZ5" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CA5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB5" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="CA5" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CB5" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="CC5" s="3"/>
       <c r="CD5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CF5" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CE5" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CF5" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CG5" s="3"/>
       <c r="CH5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CJ5" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CI5" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CJ5" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
@@ -4144,69 +4139,69 @@
       <c r="EU5" s="3"/>
       <c r="EV5" s="3"/>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BQ6" s="1"/>
       <c r="BR6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS6" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BS6" s="1" t="s">
+      <c r="BT6" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="BT6" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="BU6" s="2"/>
       <c r="BV6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BW6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX6" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="BW6" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX6" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="BY6" s="2"/>
       <c r="BZ6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CA6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB6" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="CA6" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CB6" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="CC6" s="3"/>
       <c r="CD6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CF6" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CE6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CF6" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CG6" s="3"/>
       <c r="CH6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CJ6" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CI6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CJ6" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CK6" s="3"/>
       <c r="CL6" s="3"/>
@@ -4272,69 +4267,69 @@
       <c r="EU6" s="3"/>
       <c r="EV6" s="3"/>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.2">
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BS7" s="1" t="s">
+      <c r="BT7" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="BT7" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="BU7" s="2"/>
       <c r="BV7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BW7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX7" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="BW7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BX7" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="BY7" s="2"/>
       <c r="BZ7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CA7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB7" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="CA7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CB7" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="CC7" s="3"/>
       <c r="CD7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CF7" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CE7" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CF7" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CG7" s="3"/>
       <c r="CH7" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CI7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CJ7" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="CI7" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CJ7" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="CK7" s="3"/>
       <c r="CL7" s="3"/>
@@ -4416,161 +4411,161 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" customWidth="1"/>
     <col min="3" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="18" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="9" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>152</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="F12" s="9" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>154</v>
@@ -4578,13 +4573,13 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>153</v>
@@ -4592,55 +4587,55 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="F16" s="9" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="F17" s="9" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4648,9 +4643,9 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="17"/>
@@ -4658,9 +4653,9 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4668,9 +4663,9 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4678,9 +4673,9 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4688,9 +4683,9 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4698,9 +4693,9 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="17"/>
@@ -4708,9 +4703,9 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4718,9 +4713,9 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4728,9 +4723,9 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -4751,59 +4746,59 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -4813,21 +4808,21 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>121</v>
       </c>
@@ -4837,1126 +4832,1126 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J3" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>282</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H4" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J4" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>284</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>285</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H5" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I5" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J5" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>288</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I6" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>290</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>291</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J7" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>293</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J8" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>294</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>295</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H9" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I9" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J9" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>298</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H10" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J10" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>302</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J11" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I12" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>306</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>307</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I13" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J13" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J14" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>312</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I16" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J16" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>316</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I17" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J17" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>318</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J18" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>320</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J19" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>322</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>323</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I20" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J20" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J21" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I22" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J22" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>329</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>330</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I23" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J23" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>332</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H24" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J24" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I25" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J25" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>336</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I26" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J26" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>338</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J27" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>340</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I28" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J28" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>341</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>342</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I29" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J29" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>344</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I30" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J30" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>346</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I31" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J31" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>347</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>348</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I32" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J32" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>350</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I33" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J33" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>351</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>352</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I34" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H34" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J34" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>353</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>354</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I35" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J35" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>356</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H36" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J36" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>358</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I37" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H37" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J37" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>360</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I38" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H38" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J38" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>362</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I39" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H39" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J39" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>363</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>364</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="I40" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H40" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>280</v>
-      </c>
       <c r="J40" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
@@ -5972,59 +5967,59 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -6034,19 +6029,19 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>366</v>
-      </c>
       <c r="I2" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>121</v>
       </c>
@@ -6056,928 +6051,928 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>368</v>
-      </c>
       <c r="I3" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>282</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>370</v>
-      </c>
       <c r="I4" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>284</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>285</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>288</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>373</v>
-      </c>
       <c r="I6" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>290</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>291</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>376</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>293</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>378</v>
-      </c>
       <c r="I8" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>294</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>295</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>380</v>
-      </c>
       <c r="I9" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>298</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>382</v>
-      </c>
       <c r="I10" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>302</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>383</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>384</v>
-      </c>
       <c r="I11" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>386</v>
-      </c>
       <c r="I12" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>306</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>307</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>388</v>
-      </c>
       <c r="I13" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>390</v>
-      </c>
       <c r="I14" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>312</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>392</v>
-      </c>
       <c r="I15" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>394</v>
-      </c>
       <c r="I16" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>316</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>396</v>
-      </c>
       <c r="I17" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>318</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="H18" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>398</v>
-      </c>
       <c r="I18" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>320</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="H19" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>400</v>
-      </c>
       <c r="I19" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>322</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>323</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="H20" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>402</v>
-      </c>
       <c r="I20" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>329</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>330</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>332</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>336</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>338</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>340</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="H28" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>405</v>
-      </c>
       <c r="I28" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>341</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>342</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="H29" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>405</v>
-      </c>
       <c r="I29" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>344</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>346</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>347</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>348</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>350</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>351</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>352</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="H34" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="I34" s="14" t="s">
         <v>408</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>409</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>353</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>354</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="H35" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="H35" s="14" t="s">
-        <v>411</v>
-      </c>
       <c r="I35" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>356</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="H36" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="H36" s="14" t="s">
-        <v>413</v>
-      </c>
       <c r="I36" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>358</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -6988,18 +6983,18 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>360</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -7010,18 +7005,18 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>362</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -7032,18 +7027,18 @@
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>363</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>364</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -7067,59 +7062,59 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -7135,7 +7130,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>121</v>
       </c>
@@ -7151,18 +7146,18 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>282</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -7173,18 +7168,18 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>284</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>285</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -7195,48 +7190,48 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>288</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>416</v>
-      </c>
       <c r="J6" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>290</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>291</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -7247,18 +7242,18 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>292</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>293</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -7269,18 +7264,18 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>294</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>295</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -7291,18 +7286,18 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>297</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>298</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -7313,18 +7308,18 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>302</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -7335,48 +7330,48 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>303</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>304</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="H12" s="14" t="s">
-        <v>418</v>
-      </c>
       <c r="I12" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="14" t="s">
         <v>306</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>307</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -7387,48 +7382,48 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>420</v>
-      </c>
       <c r="I14" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>312</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -7439,18 +7434,18 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>313</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>314</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -7461,48 +7456,48 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>315</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>316</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>422</v>
-      </c>
       <c r="I17" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>318</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -7513,18 +7508,18 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>320</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -7535,18 +7530,18 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>322</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>323</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -7557,18 +7552,18 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -7579,18 +7574,18 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -7601,18 +7596,18 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>329</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>330</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -7623,18 +7618,18 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>332</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -7645,18 +7640,18 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -7667,18 +7662,18 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>336</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -7689,18 +7684,18 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>76</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>338</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -7711,18 +7706,18 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="14" t="s">
         <v>339</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>340</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -7733,18 +7728,18 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="14" t="s">
         <v>341</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>342</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -7755,18 +7750,18 @@
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>344</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -7777,18 +7772,18 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>346</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -7799,18 +7794,18 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>347</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>348</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -7821,18 +7816,18 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>350</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -7843,18 +7838,18 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>351</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>352</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -7865,18 +7860,18 @@
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>103</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="14" t="s">
         <v>353</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>354</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -7887,18 +7882,18 @@
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>106</v>
       </c>
       <c r="B36" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>356</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -7909,18 +7904,18 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>109</v>
       </c>
       <c r="B37" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>357</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>358</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -7931,18 +7926,18 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>112</v>
       </c>
       <c r="B38" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D38" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>360</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -7953,18 +7948,18 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>361</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>362</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -7975,18 +7970,18 @@
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>118</v>
       </c>
       <c r="B40" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>363</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>364</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -8006,57 +8001,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" customWidth="1"/>
-    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+    <col min="1" max="1" width="47.5" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
       <c r="B1" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -8072,7 +8067,7 @@
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>121</v>
       </c>
@@ -8088,18 +8083,18 @@
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>423</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>424</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -8110,18 +8105,18 @@
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>426</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>427</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -8132,70 +8127,70 @@
       <c r="K5" s="14"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>430</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>431</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>434</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>435</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>439</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>440</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -8206,18 +8201,18 @@
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>442</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>443</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -8228,18 +8223,18 @@
       <c r="K9" s="14"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>445</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>446</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -8250,18 +8245,18 @@
       <c r="K10" s="14"/>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>302</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -8272,44 +8267,44 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C12" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>448</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>449</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>451</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>452</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -8320,44 +8315,44 @@
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>454</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>455</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -8368,18 +8363,18 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>460</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>461</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>462</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -8390,46 +8385,46 @@
       <c r="K16" s="14"/>
       <c r="L16" s="14"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>465</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>466</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>468</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>469</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -8440,18 +8435,18 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>471</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>472</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -8462,18 +8457,18 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="D20" s="14" t="s">
         <v>322</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>323</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -8484,18 +8479,18 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C21" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="D21" s="14" t="s">
         <v>325</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>326</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -8506,18 +8501,18 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -8528,18 +8523,18 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -8550,18 +8545,18 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>476</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>477</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -8572,18 +8567,18 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>334</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -8594,18 +8589,18 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>479</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>480</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -8616,18 +8611,18 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>482</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>483</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -8638,18 +8633,18 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>485</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>486</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -8660,18 +8655,18 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>488</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>489</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -8682,18 +8677,18 @@
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B30" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>344</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -8704,18 +8699,18 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>91</v>
       </c>
       <c r="B31" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>345</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>346</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -8726,18 +8721,18 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>347</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>348</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -8748,18 +8743,18 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D33" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>350</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -8770,70 +8765,70 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B35" s="14" t="s">
+        <v>493</v>
+      </c>
+      <c r="C35" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="D35" s="14" t="s">
         <v>495</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>496</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B36" s="14" t="s">
         <v>498</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>499</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>495</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>500</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -8844,18 +8839,18 @@
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="C37" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>502</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>503</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -8866,18 +8861,18 @@
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="B38" s="14" t="s">
         <v>504</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>505</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -8888,18 +8883,18 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>507</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>508</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -8910,18 +8905,18 @@
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>510</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>511</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -8932,260 +8927,260 @@
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>122</v>
       </c>
       <c r="B41" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C41" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="D41" s="16" t="s">
         <v>514</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>515</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>516</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>517</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B43" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="C43" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>519</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>520</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>131</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>134</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B47" s="14" t="s">
         <v>527</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>528</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B48" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="C48" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="16" t="s">
         <v>531</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>532</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>533</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>534</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>143</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>153</v>
       </c>
       <c r="D50" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A06ACAA-B7A6-1548-B4B8-6BA76BB4BBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D0011-C61B-AE44-A3F3-26BE6AABE2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="540">
   <si>
     <t>Source Name</t>
   </si>
@@ -2792,7 +2792,7 @@
   <dimension ref="A1:EV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3633,9 +3633,15 @@
       <c r="EV2" s="3"/>
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
+      <c r="B3" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="E3" s="19"/>
       <c r="F3" t="s">
         <v>180</v>
@@ -3830,9 +3836,15 @@
       <c r="EV3" s="3"/>
     </row>
     <row r="4" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="E4" s="19"/>
       <c r="F4" t="s">
         <v>191</v>
@@ -4003,9 +4015,15 @@
       <c r="EV4" s="3"/>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="B5" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="E5" s="19"/>
       <c r="F5" t="s">
         <v>200</v>
@@ -4140,9 +4158,15 @@
       <c r="EV5" s="3"/>
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="B6" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="E6" s="19"/>
       <c r="F6" t="s">
         <v>202</v>
@@ -4268,9 +4292,15 @@
       <c r="EV6" s="3"/>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>154</v>
+      </c>
       <c r="E7" s="19"/>
       <c r="F7" t="s">
         <v>203</v>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/SWATE_templates/templates/dataplant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791D0011-C61B-AE44-A3F3-26BE6AABE2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4242559-CF84-E943-9E92-B7EC37215F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="541">
   <si>
     <t>Source Name</t>
   </si>
@@ -1830,6 +1830,9 @@
   </si>
   <si>
     <t>Parameter [sample collection date]</t>
+  </si>
+  <si>
+    <t>plant-growth.txt</t>
   </si>
 </sst>
 </file>
@@ -2792,7 +2795,7 @@
   <dimension ref="A1:EV7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3418,7 +3421,9 @@
       <c r="D2" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>540</v>
+      </c>
       <c r="F2" t="s">
         <v>155</v>
       </c>
@@ -3642,7 +3647,9 @@
       <c r="D3" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="19" t="s">
+        <v>540</v>
+      </c>
       <c r="F3" t="s">
         <v>180</v>
       </c>
@@ -3845,7 +3852,9 @@
       <c r="D4" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="19" t="s">
+        <v>540</v>
+      </c>
       <c r="F4" t="s">
         <v>191</v>
       </c>
@@ -4024,7 +4033,9 @@
       <c r="D5" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="19" t="s">
+        <v>540</v>
+      </c>
       <c r="F5" t="s">
         <v>200</v>
       </c>
@@ -4167,7 +4178,9 @@
       <c r="D6" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="19" t="s">
+        <v>540</v>
+      </c>
       <c r="F6" t="s">
         <v>202</v>
       </c>
@@ -4301,7 +4314,9 @@
       <c r="D7" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="19" t="s">
+        <v>540</v>
+      </c>
       <c r="F7" t="s">
         <v>203</v>
       </c>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533DA6A6-D54C-40ED-8DE4-BB51C1F63893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA3E496-E8C1-44CC-9A60-DA2855741284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_growth" sheetId="1" r:id="rId1"/>
     <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
-    <sheet name="METABOLIGHTS_METABOLOMICS" sheetId="3" r:id="rId3"/>
-    <sheet name="BIOSAMPLE_PLANTS" sheetId="4" r:id="rId4"/>
-    <sheet name="PRIDE_PROTEOMICS" sheetId="5" r:id="rId5"/>
-    <sheet name="ENA_PLANT_SAMPLE" sheetId="6" r:id="rId6"/>
+    <sheet name="BIOSAMPLE_PLANTS" sheetId="4" r:id="rId3"/>
+    <sheet name="PRIDE_PROTEOMICS" sheetId="5" r:id="rId4"/>
+    <sheet name="ENA_PLANT_SAMPLE" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="542">
   <si>
     <t>Source Name</t>
   </si>
@@ -564,22 +563,9 @@
     <t>Review comments</t>
   </si>
   <si>
-    <t>SAMPLING - Source Name</t>
-  </si>
-  <si>
-    <t>A unique identifier from a particular source (a batch of samples can 
-have a unique Sample name as identified in the Sample table). It’s usually associated with an output spectral data filename.</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
@@ -589,27 +575,18 @@
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000064</t>
   </si>
   <si>
-    <t>SAMPLING - Sample type</t>
-  </si>
-  <si>
     <t>NFDI4PSO:0000042</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000042</t>
   </si>
   <si>
-    <t>SAMPLING - Replicate</t>
-  </si>
-  <si>
     <t>NFDI4PSO:0000030</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000030</t>
   </si>
   <si>
-    <t>SAMPLING - Organism</t>
-  </si>
-  <si>
     <t>NFDI4PSO:0000065</t>
   </si>
   <si>
@@ -628,18 +605,12 @@
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000067</t>
   </si>
   <si>
-    <t>SAMPLING - Variant</t>
-  </si>
-  <si>
     <t>NFDI4PSO:0000031</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000031</t>
   </si>
   <si>
-    <t>SAMPLING - Genotype</t>
-  </si>
-  <si>
     <t>OBI:0000181</t>
   </si>
   <si>
@@ -653,9 +624,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NFDI4PSO_0000032</t>
-  </si>
-  <si>
-    <t>SAMPLING - Organism part</t>
   </si>
   <si>
     <t>NFDI4PSO:0000068</t>
@@ -1885,7 +1853,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1933,10 +1901,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1946,12 +1913,6 @@
   </cellStyles>
   <dxfs count="136">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
     </dxf>
     <dxf>
@@ -1964,123 +1925,12 @@
       <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
     </dxf>
     <dxf>
@@ -2090,6 +1940,177 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="0.00\ &quot;degree celsius&quot;"/>
     </dxf>
     <dxf>
@@ -2130,6 +2151,24 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00\ &quot;percent&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2283,78 +2322,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;degree Celsius&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microeinstein per square meter per second&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2387,54 +2354,54 @@
     <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Term Source REF (DPBO:1000161)" dataDxfId="135"/>
     <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Term Accession Number (DPBO:1000161)" dataDxfId="134"/>
     <tableColumn id="78" xr3:uid="{00000000-0010-0000-0000-00004E000000}" name="Protocol REF" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{2643D07A-2B4F-497D-97BA-17B67766D017}" name="Characteristic [sample type]" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{BCD5D7C7-9B09-46D0-9C3C-E2CF9A95821B}" name="Term Source REF (DPBO:0000064)" dataDxfId="110"/>
-    <tableColumn id="5" xr3:uid="{7212646D-56E1-4F68-A8C7-FDAA2F72F565}" name="Term Accession Number (DPBO:0000064)" dataDxfId="109"/>
-    <tableColumn id="79" xr3:uid="{B631D58C-5187-492A-9ED2-CFC2DBDDF9AE}" name="Characteristic [biological replicate]" dataDxfId="107"/>
-    <tableColumn id="80" xr3:uid="{8F9BC5E3-8447-4EC8-9F32-18454B800DBD}" name="Term Source REF (DPBO:0000042)" dataDxfId="106"/>
-    <tableColumn id="84" xr3:uid="{4D547841-22B3-4315-B8DB-F11D648741B7}" name="Term Accession Number (DPBO:0000042)" dataDxfId="105"/>
-    <tableColumn id="85" xr3:uid="{F26A11DA-23EF-41D1-B60D-05D3D494129D}" name="Characteristic [organism]" dataDxfId="104"/>
-    <tableColumn id="86" xr3:uid="{F9C6A49A-065D-41B9-BDBB-15D5E92CEEED}" name="Term Source REF (OBI:0100026)" dataDxfId="103"/>
-    <tableColumn id="96" xr3:uid="{74CE0145-D776-4823-8AFD-782894D37CDC}" name="Term Accession Number (OBI:0100026)" dataDxfId="102"/>
-    <tableColumn id="97" xr3:uid="{BB5F1E6C-F02C-40A9-A8D8-21BD5522D3E7}" name="Characteristic [isolate]" dataDxfId="101"/>
-    <tableColumn id="98" xr3:uid="{029EA32F-E6F1-45E2-A7CD-5F0E82D50557}" name="Term Source REF (NCIT:C53471)" dataDxfId="100"/>
-    <tableColumn id="123" xr3:uid="{F37DF9B4-4C09-4A87-A52D-6A03E0311FD4}" name="Term Accession Number (NCIT:C53471)" dataDxfId="99"/>
-    <tableColumn id="124" xr3:uid="{9363F900-319A-4844-B30D-EA2278162CEA}" name="Characteristic [cultivar]" dataDxfId="98"/>
-    <tableColumn id="125" xr3:uid="{E89217C2-EEAC-436F-8389-B89092A2F2E3}" name="Term Source REF (EFO:0005136)" dataDxfId="97"/>
-    <tableColumn id="164" xr3:uid="{74B476A9-216A-43E8-9935-E508533C0D4C}" name="Term Accession Number (EFO:0005136)" dataDxfId="96"/>
-    <tableColumn id="165" xr3:uid="{FA9E91C2-B166-4B05-8F79-770D573F2C5D}" name="Characteristic [ecotype]" dataDxfId="95"/>
-    <tableColumn id="166" xr3:uid="{118DD0E3-13F4-46EA-B40F-690A6919321F}" name="Term Source REF (EFO:0000434)" dataDxfId="94"/>
-    <tableColumn id="167" xr3:uid="{91C924CC-5AC1-4365-A7F3-A12249B1E062}" name="Term Accession Number (EFO:0000434)" dataDxfId="93"/>
-    <tableColumn id="168" xr3:uid="{5E6DA3CA-E260-48D2-A200-9F9330891DF8}" name="Characteristic [genotype]" dataDxfId="92"/>
-    <tableColumn id="169" xr3:uid="{68E04BBC-C993-4EED-826F-08610058334B}" name="Term Source REF (EFO:0000513)" dataDxfId="91"/>
-    <tableColumn id="170" xr3:uid="{7B4715E1-3913-4720-8FD5-2B1C51AF48EA}" name="Term Accession Number (EFO:0000513)" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{2643D07A-2B4F-497D-97BA-17B67766D017}" name="Characteristic [sample type]" dataDxfId="132"/>
+    <tableColumn id="4" xr3:uid="{BCD5D7C7-9B09-46D0-9C3C-E2CF9A95821B}" name="Term Source REF (DPBO:0000064)" dataDxfId="131"/>
+    <tableColumn id="5" xr3:uid="{7212646D-56E1-4F68-A8C7-FDAA2F72F565}" name="Term Accession Number (DPBO:0000064)" dataDxfId="130"/>
+    <tableColumn id="79" xr3:uid="{B631D58C-5187-492A-9ED2-CFC2DBDDF9AE}" name="Characteristic [biological replicate]" dataDxfId="129"/>
+    <tableColumn id="80" xr3:uid="{8F9BC5E3-8447-4EC8-9F32-18454B800DBD}" name="Term Source REF (DPBO:0000042)" dataDxfId="128"/>
+    <tableColumn id="84" xr3:uid="{4D547841-22B3-4315-B8DB-F11D648741B7}" name="Term Accession Number (DPBO:0000042)" dataDxfId="127"/>
+    <tableColumn id="85" xr3:uid="{F26A11DA-23EF-41D1-B60D-05D3D494129D}" name="Characteristic [organism]" dataDxfId="126"/>
+    <tableColumn id="86" xr3:uid="{F9C6A49A-065D-41B9-BDBB-15D5E92CEEED}" name="Term Source REF (OBI:0100026)" dataDxfId="125"/>
+    <tableColumn id="96" xr3:uid="{74CE0145-D776-4823-8AFD-782894D37CDC}" name="Term Accession Number (OBI:0100026)" dataDxfId="124"/>
+    <tableColumn id="97" xr3:uid="{BB5F1E6C-F02C-40A9-A8D8-21BD5522D3E7}" name="Characteristic [isolate]" dataDxfId="123"/>
+    <tableColumn id="98" xr3:uid="{029EA32F-E6F1-45E2-A7CD-5F0E82D50557}" name="Term Source REF (NCIT:C53471)" dataDxfId="122"/>
+    <tableColumn id="123" xr3:uid="{F37DF9B4-4C09-4A87-A52D-6A03E0311FD4}" name="Term Accession Number (NCIT:C53471)" dataDxfId="121"/>
+    <tableColumn id="124" xr3:uid="{9363F900-319A-4844-B30D-EA2278162CEA}" name="Characteristic [cultivar]" dataDxfId="120"/>
+    <tableColumn id="125" xr3:uid="{E89217C2-EEAC-436F-8389-B89092A2F2E3}" name="Term Source REF (EFO:0005136)" dataDxfId="119"/>
+    <tableColumn id="164" xr3:uid="{74B476A9-216A-43E8-9935-E508533C0D4C}" name="Term Accession Number (EFO:0005136)" dataDxfId="118"/>
+    <tableColumn id="165" xr3:uid="{FA9E91C2-B166-4B05-8F79-770D573F2C5D}" name="Characteristic [ecotype]" dataDxfId="117"/>
+    <tableColumn id="166" xr3:uid="{118DD0E3-13F4-46EA-B40F-690A6919321F}" name="Term Source REF (EFO:0000434)" dataDxfId="116"/>
+    <tableColumn id="167" xr3:uid="{91C924CC-5AC1-4365-A7F3-A12249B1E062}" name="Term Accession Number (EFO:0000434)" dataDxfId="115"/>
+    <tableColumn id="168" xr3:uid="{5E6DA3CA-E260-48D2-A200-9F9330891DF8}" name="Characteristic [genotype]" dataDxfId="114"/>
+    <tableColumn id="169" xr3:uid="{68E04BBC-C993-4EED-826F-08610058334B}" name="Term Source REF (EFO:0000513)" dataDxfId="113"/>
+    <tableColumn id="170" xr3:uid="{7B4715E1-3913-4720-8FD5-2B1C51AF48EA}" name="Term Accession Number (EFO:0000513)" dataDxfId="112"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Characteristics [population]"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Source REF (OBI:0000181)"/>
     <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Term Accession Number (OBI:0000181)"/>
     <tableColumn id="171" xr3:uid="{AD1397FA-18EF-43B1-81CC-452A8B763EEE}" name="Characteristic [organism part]"/>
-    <tableColumn id="172" xr3:uid="{8180DCD3-6B7A-49C7-BAE0-581BF42BB360}" name="Term Source REF (EFO:0000635)" dataDxfId="89"/>
-    <tableColumn id="173" xr3:uid="{B8A17233-E985-497B-922E-129409A218AE}" name="Term Accession Number (EFO:0000635)" dataDxfId="88"/>
-    <tableColumn id="174" xr3:uid="{FB6FEFBF-3AA9-46A4-A4F3-72D4EE37E154}" name="Characteristic [cell line]" dataDxfId="87"/>
-    <tableColumn id="175" xr3:uid="{C858D64C-E632-47E8-85F3-6B31E88DE3F7}" name="Term Source REF (DPBO:0000068)" dataDxfId="86"/>
-    <tableColumn id="176" xr3:uid="{7829B6BB-B3C9-4ED5-B0D7-EE0A7BA721CA}" name="Term Accession Number (DPBO:0000068)" dataDxfId="85"/>
-    <tableColumn id="177" xr3:uid="{095FE7D9-467C-406E-9887-E1F878C7857C}" name="Characteristic [cell type]" dataDxfId="84"/>
-    <tableColumn id="178" xr3:uid="{3DBDC2C1-5E5D-4A1D-9201-5C41EFE8746A}" name="Term Source REF (DPBO:0000069)" dataDxfId="83"/>
-    <tableColumn id="179" xr3:uid="{6C0DB6A0-D65C-44ED-B332-E7B6B3B0133C}" name="Term Accession Number (DPBO:0000069)" dataDxfId="82"/>
-    <tableColumn id="180" xr3:uid="{602D8715-E506-4104-AF1D-84D5CEFC6F1E}" name="Characteristic [plant age]" dataDxfId="81"/>
-    <tableColumn id="181" xr3:uid="{BF31CB1F-86DB-4784-A716-DD03FFC3625F}" name="Term Source REF (DPBO:0000033)" dataDxfId="80"/>
-    <tableColumn id="182" xr3:uid="{72B64333-F0CA-4DAD-AE1C-CDE32FF36673}" name="Term Accession Number (DPBO:0000033)" dataDxfId="79"/>
-    <tableColumn id="183" xr3:uid="{6D671C29-5376-4F27-BD9C-A9485D787F29}" name="Characteristic [developmental stage]" dataDxfId="78"/>
-    <tableColumn id="184" xr3:uid="{1997D101-3556-42B2-9834-01C5CC009867}" name="Term Source REF (NCIT:C43531)" dataDxfId="77"/>
-    <tableColumn id="185" xr3:uid="{CE12DDC7-C457-481C-B9E6-C8E10E9EF230}" name="Term Accession Number (NCIT:C43531)" dataDxfId="76"/>
-    <tableColumn id="186" xr3:uid="{E0489DCA-116E-4A7D-8B13-D55F6C13BB80}" name="Characteristic [plant disease]" dataDxfId="75"/>
-    <tableColumn id="187" xr3:uid="{91E92645-95CD-4BF2-A203-67405362130C}" name="Term Source REF (PSO:0000013)" dataDxfId="74"/>
-    <tableColumn id="188" xr3:uid="{5AB7B9CF-2A90-47BC-AF5C-D408B2D345E0}" name="Term Accession Number (PSO:0000013)" dataDxfId="73"/>
-    <tableColumn id="189" xr3:uid="{4F73AE11-51DB-4963-BEE9-E9F843623488}" name="Characteristic [plant disease stage]" dataDxfId="72"/>
-    <tableColumn id="190" xr3:uid="{183F02D5-4900-4ABC-BF01-791DF8A27DFB}" name="Term Source REF (DPBO:0000072)" dataDxfId="71"/>
-    <tableColumn id="191" xr3:uid="{6A0BDA33-89CB-4001-AEDD-6CC3FCB78AFE}" name="Term Accession Number (DPBO:0000072)" dataDxfId="70"/>
-    <tableColumn id="192" xr3:uid="{E25E7287-953A-4772-9680-D097EC0734E8}" name="Characteristic [phenotype]" dataDxfId="69"/>
-    <tableColumn id="193" xr3:uid="{CCF4E670-D4E0-4988-A567-104E1D9E751F}" name="Term Source REF (DPBO:0000073)" dataDxfId="68"/>
-    <tableColumn id="194" xr3:uid="{15DC9E37-E3A9-4FDA-A435-DC6E7487AB53}" name="Term Accession Number (DPBO:0000073)" dataDxfId="67"/>
+    <tableColumn id="172" xr3:uid="{8180DCD3-6B7A-49C7-BAE0-581BF42BB360}" name="Term Source REF (EFO:0000635)" dataDxfId="111"/>
+    <tableColumn id="173" xr3:uid="{B8A17233-E985-497B-922E-129409A218AE}" name="Term Accession Number (EFO:0000635)" dataDxfId="110"/>
+    <tableColumn id="174" xr3:uid="{FB6FEFBF-3AA9-46A4-A4F3-72D4EE37E154}" name="Characteristic [cell line]" dataDxfId="109"/>
+    <tableColumn id="175" xr3:uid="{C858D64C-E632-47E8-85F3-6B31E88DE3F7}" name="Term Source REF (DPBO:0000068)" dataDxfId="108"/>
+    <tableColumn id="176" xr3:uid="{7829B6BB-B3C9-4ED5-B0D7-EE0A7BA721CA}" name="Term Accession Number (DPBO:0000068)" dataDxfId="107"/>
+    <tableColumn id="177" xr3:uid="{095FE7D9-467C-406E-9887-E1F878C7857C}" name="Characteristic [cell type]" dataDxfId="106"/>
+    <tableColumn id="178" xr3:uid="{3DBDC2C1-5E5D-4A1D-9201-5C41EFE8746A}" name="Term Source REF (DPBO:0000069)" dataDxfId="105"/>
+    <tableColumn id="179" xr3:uid="{6C0DB6A0-D65C-44ED-B332-E7B6B3B0133C}" name="Term Accession Number (DPBO:0000069)" dataDxfId="104"/>
+    <tableColumn id="180" xr3:uid="{602D8715-E506-4104-AF1D-84D5CEFC6F1E}" name="Characteristic [plant age]" dataDxfId="103"/>
+    <tableColumn id="181" xr3:uid="{BF31CB1F-86DB-4784-A716-DD03FFC3625F}" name="Term Source REF (DPBO:0000033)" dataDxfId="102"/>
+    <tableColumn id="182" xr3:uid="{72B64333-F0CA-4DAD-AE1C-CDE32FF36673}" name="Term Accession Number (DPBO:0000033)" dataDxfId="101"/>
+    <tableColumn id="183" xr3:uid="{6D671C29-5376-4F27-BD9C-A9485D787F29}" name="Characteristic [developmental stage]" dataDxfId="100"/>
+    <tableColumn id="184" xr3:uid="{1997D101-3556-42B2-9834-01C5CC009867}" name="Term Source REF (NCIT:C43531)" dataDxfId="99"/>
+    <tableColumn id="185" xr3:uid="{CE12DDC7-C457-481C-B9E6-C8E10E9EF230}" name="Term Accession Number (NCIT:C43531)" dataDxfId="98"/>
+    <tableColumn id="186" xr3:uid="{E0489DCA-116E-4A7D-8B13-D55F6C13BB80}" name="Characteristic [plant disease]" dataDxfId="97"/>
+    <tableColumn id="187" xr3:uid="{91E92645-95CD-4BF2-A203-67405362130C}" name="Term Source REF (PSO:0000013)" dataDxfId="96"/>
+    <tableColumn id="188" xr3:uid="{5AB7B9CF-2A90-47BC-AF5C-D408B2D345E0}" name="Term Accession Number (PSO:0000013)" dataDxfId="95"/>
+    <tableColumn id="189" xr3:uid="{4F73AE11-51DB-4963-BEE9-E9F843623488}" name="Characteristic [plant disease stage]" dataDxfId="94"/>
+    <tableColumn id="190" xr3:uid="{183F02D5-4900-4ABC-BF01-791DF8A27DFB}" name="Term Source REF (DPBO:0000072)" dataDxfId="93"/>
+    <tableColumn id="191" xr3:uid="{6A0BDA33-89CB-4001-AEDD-6CC3FCB78AFE}" name="Term Accession Number (DPBO:0000072)" dataDxfId="92"/>
+    <tableColumn id="192" xr3:uid="{E25E7287-953A-4772-9680-D097EC0734E8}" name="Characteristic [phenotype]" dataDxfId="91"/>
+    <tableColumn id="193" xr3:uid="{CCF4E670-D4E0-4988-A567-104E1D9E751F}" name="Term Source REF (DPBO:0000073)" dataDxfId="90"/>
+    <tableColumn id="194" xr3:uid="{15DC9E37-E3A9-4FDA-A435-DC6E7487AB53}" name="Term Accession Number (DPBO:0000073)" dataDxfId="89"/>
     <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Characteristics [whole plant size]"/>
     <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Term Source REF (TO:1000012)"/>
     <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Term Accession Number (TO:1000012)"/>
@@ -2445,95 +2412,95 @@
     <tableColumn id="130" xr3:uid="{00000000-0010-0000-0000-000082000000}" name="Term Source REF (PECO:0007147)"/>
     <tableColumn id="131" xr3:uid="{00000000-0010-0000-0000-000083000000}" name="Term Accession Number (PECO:0007147)"/>
     <tableColumn id="195" xr3:uid="{B403921C-FBAB-434F-BECA-1E0256FDC91C}" name="Characteristic [growth plot design]"/>
-    <tableColumn id="196" xr3:uid="{02AA2D39-F3FD-42E6-AFFB-47A37DFEA026}" name="Term Source REF (DPBO:0000001)" dataDxfId="66"/>
-    <tableColumn id="197" xr3:uid="{9F310EAA-FBAC-42AB-8A1B-288146AC07F9}" name="Term Accession Number (DPBO:0000001)" dataDxfId="65"/>
-    <tableColumn id="198" xr3:uid="{2E0E1079-6D9A-488C-B805-D8E4CEA1E5B8}" name="Characteristic [growth day length]" dataDxfId="64"/>
-    <tableColumn id="199" xr3:uid="{EF34B22A-46E4-485B-B581-7BF7C13D718F}" name="Term Source REF (DPBO:0000041)" dataDxfId="63"/>
-    <tableColumn id="200" xr3:uid="{E1AA5A87-6D68-425F-A936-BAE67E0D5F52}" name="Term Accession Number (DPBO:0000041)" dataDxfId="62"/>
-    <tableColumn id="135" xr3:uid="{00000000-0010-0000-0000-000087000000}" name="Parameter [light intensity exposure]" dataDxfId="132"/>
-    <tableColumn id="136" xr3:uid="{00000000-0010-0000-0000-000088000000}" name="Unit" dataDxfId="131"/>
-    <tableColumn id="137" xr3:uid="{00000000-0010-0000-0000-000089000000}" name="Term Source REF (PECO:0007224)" dataDxfId="130"/>
-    <tableColumn id="138" xr3:uid="{00000000-0010-0000-0000-00008A000000}" name="Term Accession Number (PECO:0007224)" dataDxfId="129"/>
-    <tableColumn id="201" xr3:uid="{921C367B-C6B3-4C05-9282-9EA0114EA981}" name="Characteristic [humidity day]" dataDxfId="61"/>
-    <tableColumn id="202" xr3:uid="{49FF7990-9B78-4BFB-8690-6CF0F6F63D0E}" name="Unit " dataDxfId="60"/>
-    <tableColumn id="203" xr3:uid="{6B29E43E-3210-4CA4-AA73-62F1D7898A31}" name="Term Source REF (DPBO:0000005)" dataDxfId="59"/>
-    <tableColumn id="204" xr3:uid="{6BF08C18-675D-423F-9BD2-612C0E017B2B}" name="Term Accession Number (DPBO:0000005)" dataDxfId="58"/>
-    <tableColumn id="205" xr3:uid="{6D60E6F0-4426-42A7-AC84-968BC3E7EB6A}" name="Characteristic [humidity night]" dataDxfId="57"/>
-    <tableColumn id="206" xr3:uid="{EDA58A1B-494A-41AC-B953-F2F443322B12}" name="Unit  " dataDxfId="56"/>
-    <tableColumn id="207" xr3:uid="{B010A3A8-422A-498D-ABDB-85DF6AA84696}" name="Term Source REF (DPBO:0000006)" dataDxfId="55"/>
-    <tableColumn id="208" xr3:uid="{023CD70F-0C61-40D9-89E7-8378CDBD979E}" name="Term Accession Number (DPBO:0000006)" dataDxfId="54"/>
-    <tableColumn id="209" xr3:uid="{D110EFD7-2E33-4F48-A86E-027FFEC4AE2F}" name="Characteristic [temperature day]" dataDxfId="53"/>
-    <tableColumn id="210" xr3:uid="{A5E95A2C-71FC-4452-9F4C-9B5B459487BE}" name="Unit   " dataDxfId="52"/>
-    <tableColumn id="211" xr3:uid="{1B7EA47E-F6D6-4153-9CB2-EA7F7CD9CF28}" name="Term Source REF (DPBO:0000007)" dataDxfId="51"/>
-    <tableColumn id="212" xr3:uid="{338D79D6-EF16-4E2B-A354-E3BB27B3BEAE}" name="Term Accession Number (DPBO:0000007)" dataDxfId="50"/>
-    <tableColumn id="213" xr3:uid="{588F6F93-E113-4695-AA2A-2D11B57458DE}" name="Characteristic [temperature night]" dataDxfId="49"/>
-    <tableColumn id="214" xr3:uid="{41C116B3-6688-4428-A140-F7644C7073C5}" name="Unit    " dataDxfId="48"/>
-    <tableColumn id="215" xr3:uid="{7ADD3723-28F0-47FF-9496-915950A37A50}" name="Term Source REF (DPBO:0000008)" dataDxfId="47"/>
-    <tableColumn id="216" xr3:uid="{528B8430-263B-4725-BC0C-B4AF65458077}" name="Term Accession Number (DPBO:0000008)" dataDxfId="46"/>
-    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0000-00009B000000}" name="Parameter [watering exposure]" dataDxfId="128"/>
-    <tableColumn id="156" xr3:uid="{00000000-0010-0000-0000-00009C000000}" name="Term Source REF (PECO:0007383)" dataDxfId="127"/>
-    <tableColumn id="157" xr3:uid="{00000000-0010-0000-0000-00009D000000}" name="Term Accession Number (PECO:0007383)" dataDxfId="126"/>
-    <tableColumn id="158" xr3:uid="{00000000-0010-0000-0000-00009E000000}" name="Parameter [plant nutrient exposure]" dataDxfId="125"/>
-    <tableColumn id="159" xr3:uid="{00000000-0010-0000-0000-00009F000000}" name="Term Source REF (PECO:0007241)" dataDxfId="124"/>
-    <tableColumn id="160" xr3:uid="{00000000-0010-0000-0000-0000A0000000}" name="Term Accession Number (PECO:0007241)" dataDxfId="123"/>
-    <tableColumn id="161" xr3:uid="{00000000-0010-0000-0000-0000A1000000}" name="Parameter [abiotic plant exposure]" dataDxfId="122"/>
-    <tableColumn id="162" xr3:uid="{00000000-0010-0000-0000-0000A2000000}" name="Term Source REF (PECO:0007191)" dataDxfId="121"/>
-    <tableColumn id="163" xr3:uid="{00000000-0010-0000-0000-0000A3000000}" name="Term Accession Number (PECO:0007191)" dataDxfId="120"/>
-    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0000-000063000000}" name="Parameter [biotic plant exposure]" dataDxfId="119"/>
-    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0000-000064000000}" name="Term Source REF (PECO:0007357)" dataDxfId="118"/>
-    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0000-000065000000}" name="Term Accession Number (PECO:0007357)" dataDxfId="117"/>
-    <tableColumn id="225" xr3:uid="{E5487400-858C-4CF0-9B94-335FAA719049}" name="Parameter [geographic area]" dataDxfId="45"/>
-    <tableColumn id="226" xr3:uid="{A43F1117-A448-42C7-B508-7A26E5E0637F}" name="Term Source REF (DPBO:0000074)" dataDxfId="44"/>
-    <tableColumn id="227" xr3:uid="{703F95C7-5DD8-42EA-AC7F-0F5CF3537450}" name="Term Accession Number (DPBO:0000074)" dataDxfId="43"/>
-    <tableColumn id="230" xr3:uid="{58D67909-0156-4871-B377-2487EEA1E45B}" name="Parameter [sample collection date]" dataDxfId="42"/>
-    <tableColumn id="231" xr3:uid="{05279D24-550B-45A9-967D-B2B507AA980A}" name="Term Source REF (GENEPIO:0001174)" dataDxfId="41"/>
-    <tableColumn id="232" xr3:uid="{7F172811-019C-4B1D-BEC6-CC1657882160}" name="Term Accession Number (GENEPIO:0001174)" dataDxfId="40"/>
-    <tableColumn id="234" xr3:uid="{3BD16E81-9B0A-4C0D-9807-7A48FCD58E0D}" name="Parameter [sample collected by]" dataDxfId="39"/>
-    <tableColumn id="235" xr3:uid="{7A32C570-5E19-4A71-B153-3762581EA9E8}" name="Term Source REF (GENEPIO:0001153)" dataDxfId="38"/>
-    <tableColumn id="236" xr3:uid="{51D847A7-9665-4D1E-BCAA-E241028BD82F}" name="Term Accession Number (GENEPIO:0001153)" dataDxfId="37"/>
-    <tableColumn id="237" xr3:uid="{07B0F754-6B2B-4DE2-88EB-FA5219EBB91A}" name="Parameter [Reference Time Point]" dataDxfId="36"/>
-    <tableColumn id="238" xr3:uid="{AA634546-170F-490E-A68C-24BE32E61577}" name="Term Source REF (NCIT:C82576)" dataDxfId="35"/>
-    <tableColumn id="239" xr3:uid="{187D9DAD-5C61-4ACD-BC7F-A1A951A12F13}" name="Term Accession Number (NCIT:C82576)" dataDxfId="34"/>
-    <tableColumn id="241" xr3:uid="{CABE9E3F-ACB6-45C7-BB16-0808653060E7}" name="Parameter [sample collection method]" dataDxfId="33"/>
-    <tableColumn id="242" xr3:uid="{597E0DB3-44B8-4209-ADEA-103D5E2B0C38}" name="Term Source REF (DPBO:0000009)" dataDxfId="32"/>
-    <tableColumn id="243" xr3:uid="{7409ABB1-CB51-4765-BE54-D72F75606162}" name="Term Accession Number (DPBO:0000009)" dataDxfId="31"/>
-    <tableColumn id="244" xr3:uid="{4CF8AE0B-2952-4528-A31E-1DCA0095ED69}" name="Parameter [metabolism quenching method]" dataDxfId="30"/>
-    <tableColumn id="245" xr3:uid="{C5DCF74A-A2E3-4D88-9ED5-C07D83FF0C48}" name="Term Source REF (DPBO:0000010)" dataDxfId="29"/>
-    <tableColumn id="246" xr3:uid="{BDE6C084-618D-4B14-95A6-8C56BF98FBBC}" name="Term Accession Number (DPBO:0000010)" dataDxfId="28"/>
-    <tableColumn id="249" xr3:uid="{95F74158-CEB4-4ED8-A5DE-FA193C2EC085}" name="Parameter [sample storage]" dataDxfId="27"/>
-    <tableColumn id="250" xr3:uid="{3EAA19D6-33CD-42DA-9BD5-937BCF7C3DC9}" name="Term Source REF (DPBO:0000011)" dataDxfId="26"/>
-    <tableColumn id="251" xr3:uid="{76523CE4-06E0-4082-ADD6-27DAF9CDB8AD}" name="Term Accession Number (DPBO:0000011)" dataDxfId="25"/>
-    <tableColumn id="253" xr3:uid="{560D7D0B-62D3-49DC-9788-751A93C992DC}" name="Characteristic [latitude]" dataDxfId="23"/>
-    <tableColumn id="254" xr3:uid="{3AC83F68-4C27-4FEE-AB47-4233F5F0FE77}" name="Term Source REF (SIO:000319)" dataDxfId="22"/>
-    <tableColumn id="255" xr3:uid="{01202974-BCC0-4D08-BBD6-83856C8A306A}" name="Term Accession Number (SIO:000319)" dataDxfId="21"/>
-    <tableColumn id="256" xr3:uid="{5F086C12-7516-460F-BAB9-3562B9C0E33D}" name="Characteristic [longitude]" dataDxfId="20"/>
-    <tableColumn id="257" xr3:uid="{E1A0EEDE-27BC-403B-A8E0-1F82831A9F65}" name="Term Source REF (SIO:000318)" dataDxfId="19"/>
-    <tableColumn id="258" xr3:uid="{E049A313-2B04-44B2-BDB4-DABF195E2A30}" name="Term Accession Number (SIO:000318)" dataDxfId="18"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Characteristics [plant structure]" dataDxfId="116"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Term Source REF (PO:0009011)" dataDxfId="115"/>
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Term Accession Number (PO:0009011)" dataDxfId="114"/>
-    <tableColumn id="259" xr3:uid="{EC201E74-200A-4959-AD6D-7676A0C5B9B2}" name="Parameter [project name]" dataDxfId="17"/>
-    <tableColumn id="260" xr3:uid="{ABBF35BB-8A90-45B0-9ECD-C5786DCC8489}" name="Term Source REF (DPBO:0002005)" dataDxfId="16"/>
-    <tableColumn id="261" xr3:uid="{A9B286F1-9A37-4CA7-8CE7-1F5F9923363C}" name="Term Accession Number (DPBO:0002005)" dataDxfId="15"/>
-    <tableColumn id="262" xr3:uid="{072BDCB9-8955-4865-865A-ED1AF67CC308}" name="Parameter [sequencing method] " dataDxfId="14"/>
-    <tableColumn id="263" xr3:uid="{2868B479-4D59-468D-9BC0-C9FE3A78540E}" name="Term Source REF (DPBO:0002006)" dataDxfId="13"/>
-    <tableColumn id="264" xr3:uid="{F5A341A3-25A8-412E-9D20-EDEFDFEA3C8B}" name="Term Accession Number (DPBO:0002006)" dataDxfId="12"/>
-    <tableColumn id="265" xr3:uid="{4E5FEB78-0364-4B05-B0A0-D54EE16287B2}" name="Parameter [investigation type]" dataDxfId="11"/>
-    <tableColumn id="266" xr3:uid="{BFF7BEA1-B743-41E4-B926-F30DDCA48DC1}" name="Term Source REF (DPBO:0002007)" dataDxfId="10"/>
-    <tableColumn id="267" xr3:uid="{1323B12E-134D-436C-8F92-8B8A3F3C7879}" name="Term Accession Number (DPBO:0002007)" dataDxfId="9"/>
-    <tableColumn id="268" xr3:uid="{F570895A-7EC5-4C4F-B0A5-DF1CE30E815A}" name="Characteristic [environment (feature)]" dataDxfId="8"/>
-    <tableColumn id="269" xr3:uid="{6B5DA096-F9A0-40FC-AEF3-127523B8C080}" name="Term Source REF (DPBO:0002008)" dataDxfId="7"/>
-    <tableColumn id="270" xr3:uid="{E6806467-9770-4C27-8A67-9D29FEE52945}" name="Term Accession Number (DPBO:0002008)" dataDxfId="6"/>
-    <tableColumn id="271" xr3:uid="{E248390C-987A-484F-B0EA-5AEADD81BCE3}" name="Characteristic [plant-associated environmental package]" dataDxfId="5"/>
-    <tableColumn id="272" xr3:uid="{7545D5D8-FC14-4F01-A0D6-FE9A3538FB40}" name="Term Source REF (DPBO:0002010)" dataDxfId="4"/>
-    <tableColumn id="273" xr3:uid="{B544AD33-BCFF-4C82-ADA3-5E89420AB82B}" name="Term Accession Number (DPBO:0002010)" dataDxfId="3"/>
-    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Characteristics [biome]" dataDxfId="113"/>
-    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0000-000058000000}" name="Term Source REF (ENVO:00000428)" dataDxfId="112"/>
-    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0000-000059000000}" name="Term Accession Number (ENVO:00000428)" dataDxfId="111"/>
-    <tableColumn id="274" xr3:uid="{82801566-AB84-4E42-A76F-4AAF6EFFE684}" name="Characteristic [environment (material)]" dataDxfId="2"/>
-    <tableColumn id="275" xr3:uid="{F12DCC5E-4233-4BC5-A11F-D5117797EAE7}" name="Term Source REF (DPBO:0002009)" dataDxfId="1"/>
-    <tableColumn id="276" xr3:uid="{DF634CF2-EFEB-4E8B-90C7-E41531C0FAB0}" name="Term Accession Number (DPBO:0002009)" dataDxfId="0"/>
-    <tableColumn id="252" xr3:uid="{06821B12-F14A-41E2-A959-045AC996203D}" name="Sample Name" dataDxfId="24"/>
+    <tableColumn id="196" xr3:uid="{02AA2D39-F3FD-42E6-AFFB-47A37DFEA026}" name="Term Source REF (DPBO:0000001)" dataDxfId="88"/>
+    <tableColumn id="197" xr3:uid="{9F310EAA-FBAC-42AB-8A1B-288146AC07F9}" name="Term Accession Number (DPBO:0000001)" dataDxfId="87"/>
+    <tableColumn id="198" xr3:uid="{2E0E1079-6D9A-488C-B805-D8E4CEA1E5B8}" name="Characteristic [growth day length]" dataDxfId="86"/>
+    <tableColumn id="199" xr3:uid="{EF34B22A-46E4-485B-B581-7BF7C13D718F}" name="Term Source REF (DPBO:0000041)" dataDxfId="85"/>
+    <tableColumn id="200" xr3:uid="{E1AA5A87-6D68-425F-A936-BAE67E0D5F52}" name="Term Accession Number (DPBO:0000041)" dataDxfId="84"/>
+    <tableColumn id="135" xr3:uid="{00000000-0010-0000-0000-000087000000}" name="Parameter [light intensity exposure]" dataDxfId="83"/>
+    <tableColumn id="136" xr3:uid="{00000000-0010-0000-0000-000088000000}" name="Unit" dataDxfId="82"/>
+    <tableColumn id="137" xr3:uid="{00000000-0010-0000-0000-000089000000}" name="Term Source REF (PECO:0007224)" dataDxfId="81"/>
+    <tableColumn id="138" xr3:uid="{00000000-0010-0000-0000-00008A000000}" name="Term Accession Number (PECO:0007224)" dataDxfId="80"/>
+    <tableColumn id="201" xr3:uid="{921C367B-C6B3-4C05-9282-9EA0114EA981}" name="Characteristic [humidity day]" dataDxfId="79"/>
+    <tableColumn id="202" xr3:uid="{49FF7990-9B78-4BFB-8690-6CF0F6F63D0E}" name="Unit " dataDxfId="78"/>
+    <tableColumn id="203" xr3:uid="{6B29E43E-3210-4CA4-AA73-62F1D7898A31}" name="Term Source REF (DPBO:0000005)" dataDxfId="77"/>
+    <tableColumn id="204" xr3:uid="{6BF08C18-675D-423F-9BD2-612C0E017B2B}" name="Term Accession Number (DPBO:0000005)" dataDxfId="76"/>
+    <tableColumn id="205" xr3:uid="{6D60E6F0-4426-42A7-AC84-968BC3E7EB6A}" name="Characteristic [humidity night]" dataDxfId="75"/>
+    <tableColumn id="206" xr3:uid="{EDA58A1B-494A-41AC-B953-F2F443322B12}" name="Unit  " dataDxfId="74"/>
+    <tableColumn id="207" xr3:uid="{B010A3A8-422A-498D-ABDB-85DF6AA84696}" name="Term Source REF (DPBO:0000006)" dataDxfId="73"/>
+    <tableColumn id="208" xr3:uid="{023CD70F-0C61-40D9-89E7-8378CDBD979E}" name="Term Accession Number (DPBO:0000006)" dataDxfId="72"/>
+    <tableColumn id="209" xr3:uid="{D110EFD7-2E33-4F48-A86E-027FFEC4AE2F}" name="Characteristic [temperature day]" dataDxfId="71"/>
+    <tableColumn id="210" xr3:uid="{A5E95A2C-71FC-4452-9F4C-9B5B459487BE}" name="Unit   " dataDxfId="70"/>
+    <tableColumn id="211" xr3:uid="{1B7EA47E-F6D6-4153-9CB2-EA7F7CD9CF28}" name="Term Source REF (DPBO:0000007)" dataDxfId="69"/>
+    <tableColumn id="212" xr3:uid="{338D79D6-EF16-4E2B-A354-E3BB27B3BEAE}" name="Term Accession Number (DPBO:0000007)" dataDxfId="68"/>
+    <tableColumn id="213" xr3:uid="{588F6F93-E113-4695-AA2A-2D11B57458DE}" name="Characteristic [temperature night]" dataDxfId="67"/>
+    <tableColumn id="214" xr3:uid="{41C116B3-6688-4428-A140-F7644C7073C5}" name="Unit    " dataDxfId="66"/>
+    <tableColumn id="215" xr3:uid="{7ADD3723-28F0-47FF-9496-915950A37A50}" name="Term Source REF (DPBO:0000008)" dataDxfId="65"/>
+    <tableColumn id="216" xr3:uid="{528B8430-263B-4725-BC0C-B4AF65458077}" name="Term Accession Number (DPBO:0000008)" dataDxfId="64"/>
+    <tableColumn id="155" xr3:uid="{00000000-0010-0000-0000-00009B000000}" name="Parameter [watering exposure]" dataDxfId="63"/>
+    <tableColumn id="156" xr3:uid="{00000000-0010-0000-0000-00009C000000}" name="Term Source REF (PECO:0007383)" dataDxfId="62"/>
+    <tableColumn id="157" xr3:uid="{00000000-0010-0000-0000-00009D000000}" name="Term Accession Number (PECO:0007383)" dataDxfId="61"/>
+    <tableColumn id="158" xr3:uid="{00000000-0010-0000-0000-00009E000000}" name="Parameter [plant nutrient exposure]" dataDxfId="60"/>
+    <tableColumn id="159" xr3:uid="{00000000-0010-0000-0000-00009F000000}" name="Term Source REF (PECO:0007241)" dataDxfId="59"/>
+    <tableColumn id="160" xr3:uid="{00000000-0010-0000-0000-0000A0000000}" name="Term Accession Number (PECO:0007241)" dataDxfId="58"/>
+    <tableColumn id="161" xr3:uid="{00000000-0010-0000-0000-0000A1000000}" name="Parameter [abiotic plant exposure]" dataDxfId="57"/>
+    <tableColumn id="162" xr3:uid="{00000000-0010-0000-0000-0000A2000000}" name="Term Source REF (PECO:0007191)" dataDxfId="56"/>
+    <tableColumn id="163" xr3:uid="{00000000-0010-0000-0000-0000A3000000}" name="Term Accession Number (PECO:0007191)" dataDxfId="55"/>
+    <tableColumn id="99" xr3:uid="{00000000-0010-0000-0000-000063000000}" name="Parameter [biotic plant exposure]" dataDxfId="54"/>
+    <tableColumn id="100" xr3:uid="{00000000-0010-0000-0000-000064000000}" name="Term Source REF (PECO:0007357)" dataDxfId="53"/>
+    <tableColumn id="101" xr3:uid="{00000000-0010-0000-0000-000065000000}" name="Term Accession Number (PECO:0007357)" dataDxfId="52"/>
+    <tableColumn id="225" xr3:uid="{E5487400-858C-4CF0-9B94-335FAA719049}" name="Parameter [geographic area]" dataDxfId="51"/>
+    <tableColumn id="226" xr3:uid="{A43F1117-A448-42C7-B508-7A26E5E0637F}" name="Term Source REF (DPBO:0000074)" dataDxfId="50"/>
+    <tableColumn id="227" xr3:uid="{703F95C7-5DD8-42EA-AC7F-0F5CF3537450}" name="Term Accession Number (DPBO:0000074)" dataDxfId="49"/>
+    <tableColumn id="230" xr3:uid="{58D67909-0156-4871-B377-2487EEA1E45B}" name="Parameter [sample collection date]" dataDxfId="48"/>
+    <tableColumn id="231" xr3:uid="{05279D24-550B-45A9-967D-B2B507AA980A}" name="Term Source REF (GENEPIO:0001174)" dataDxfId="47"/>
+    <tableColumn id="232" xr3:uid="{7F172811-019C-4B1D-BEC6-CC1657882160}" name="Term Accession Number (GENEPIO:0001174)" dataDxfId="46"/>
+    <tableColumn id="234" xr3:uid="{3BD16E81-9B0A-4C0D-9807-7A48FCD58E0D}" name="Parameter [sample collected by]" dataDxfId="45"/>
+    <tableColumn id="235" xr3:uid="{7A32C570-5E19-4A71-B153-3762581EA9E8}" name="Term Source REF (GENEPIO:0001153)" dataDxfId="44"/>
+    <tableColumn id="236" xr3:uid="{51D847A7-9665-4D1E-BCAA-E241028BD82F}" name="Term Accession Number (GENEPIO:0001153)" dataDxfId="43"/>
+    <tableColumn id="237" xr3:uid="{07B0F754-6B2B-4DE2-88EB-FA5219EBB91A}" name="Parameter [Reference Time Point]" dataDxfId="42"/>
+    <tableColumn id="238" xr3:uid="{AA634546-170F-490E-A68C-24BE32E61577}" name="Term Source REF (NCIT:C82576)" dataDxfId="41"/>
+    <tableColumn id="239" xr3:uid="{187D9DAD-5C61-4ACD-BC7F-A1A951A12F13}" name="Term Accession Number (NCIT:C82576)" dataDxfId="40"/>
+    <tableColumn id="241" xr3:uid="{CABE9E3F-ACB6-45C7-BB16-0808653060E7}" name="Parameter [sample collection method]" dataDxfId="39"/>
+    <tableColumn id="242" xr3:uid="{597E0DB3-44B8-4209-ADEA-103D5E2B0C38}" name="Term Source REF (DPBO:0000009)" dataDxfId="38"/>
+    <tableColumn id="243" xr3:uid="{7409ABB1-CB51-4765-BE54-D72F75606162}" name="Term Accession Number (DPBO:0000009)" dataDxfId="37"/>
+    <tableColumn id="244" xr3:uid="{4CF8AE0B-2952-4528-A31E-1DCA0095ED69}" name="Parameter [metabolism quenching method]" dataDxfId="36"/>
+    <tableColumn id="245" xr3:uid="{C5DCF74A-A2E3-4D88-9ED5-C07D83FF0C48}" name="Term Source REF (DPBO:0000010)" dataDxfId="35"/>
+    <tableColumn id="246" xr3:uid="{BDE6C084-618D-4B14-95A6-8C56BF98FBBC}" name="Term Accession Number (DPBO:0000010)" dataDxfId="34"/>
+    <tableColumn id="249" xr3:uid="{95F74158-CEB4-4ED8-A5DE-FA193C2EC085}" name="Parameter [sample storage]" dataDxfId="33"/>
+    <tableColumn id="250" xr3:uid="{3EAA19D6-33CD-42DA-9BD5-937BCF7C3DC9}" name="Term Source REF (DPBO:0000011)" dataDxfId="32"/>
+    <tableColumn id="251" xr3:uid="{76523CE4-06E0-4082-ADD6-27DAF9CDB8AD}" name="Term Accession Number (DPBO:0000011)" dataDxfId="31"/>
+    <tableColumn id="253" xr3:uid="{560D7D0B-62D3-49DC-9788-751A93C992DC}" name="Characteristic [latitude]" dataDxfId="30"/>
+    <tableColumn id="254" xr3:uid="{3AC83F68-4C27-4FEE-AB47-4233F5F0FE77}" name="Term Source REF (SIO:000319)" dataDxfId="29"/>
+    <tableColumn id="255" xr3:uid="{01202974-BCC0-4D08-BBD6-83856C8A306A}" name="Term Accession Number (SIO:000319)" dataDxfId="28"/>
+    <tableColumn id="256" xr3:uid="{5F086C12-7516-460F-BAB9-3562B9C0E33D}" name="Characteristic [longitude]" dataDxfId="27"/>
+    <tableColumn id="257" xr3:uid="{E1A0EEDE-27BC-403B-A8E0-1F82831A9F65}" name="Term Source REF (SIO:000318)" dataDxfId="26"/>
+    <tableColumn id="258" xr3:uid="{E049A313-2B04-44B2-BDB4-DABF195E2A30}" name="Term Accession Number (SIO:000318)" dataDxfId="25"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Characteristics [plant structure]" dataDxfId="24"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Term Source REF (PO:0009011)" dataDxfId="23"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Term Accession Number (PO:0009011)" dataDxfId="22"/>
+    <tableColumn id="259" xr3:uid="{EC201E74-200A-4959-AD6D-7676A0C5B9B2}" name="Parameter [project name]" dataDxfId="21"/>
+    <tableColumn id="260" xr3:uid="{ABBF35BB-8A90-45B0-9ECD-C5786DCC8489}" name="Term Source REF (DPBO:0002005)" dataDxfId="20"/>
+    <tableColumn id="261" xr3:uid="{A9B286F1-9A37-4CA7-8CE7-1F5F9923363C}" name="Term Accession Number (DPBO:0002005)" dataDxfId="19"/>
+    <tableColumn id="262" xr3:uid="{072BDCB9-8955-4865-865A-ED1AF67CC308}" name="Parameter [sequencing method] " dataDxfId="18"/>
+    <tableColumn id="263" xr3:uid="{2868B479-4D59-468D-9BC0-C9FE3A78540E}" name="Term Source REF (DPBO:0002006)" dataDxfId="17"/>
+    <tableColumn id="264" xr3:uid="{F5A341A3-25A8-412E-9D20-EDEFDFEA3C8B}" name="Term Accession Number (DPBO:0002006)" dataDxfId="16"/>
+    <tableColumn id="265" xr3:uid="{4E5FEB78-0364-4B05-B0A0-D54EE16287B2}" name="Parameter [investigation type]" dataDxfId="15"/>
+    <tableColumn id="266" xr3:uid="{BFF7BEA1-B743-41E4-B926-F30DDCA48DC1}" name="Term Source REF (DPBO:0002007)" dataDxfId="14"/>
+    <tableColumn id="267" xr3:uid="{1323B12E-134D-436C-8F92-8B8A3F3C7879}" name="Term Accession Number (DPBO:0002007)" dataDxfId="13"/>
+    <tableColumn id="268" xr3:uid="{F570895A-7EC5-4C4F-B0A5-DF1CE30E815A}" name="Characteristic [environment (feature)]" dataDxfId="12"/>
+    <tableColumn id="269" xr3:uid="{6B5DA096-F9A0-40FC-AEF3-127523B8C080}" name="Term Source REF (DPBO:0002008)" dataDxfId="11"/>
+    <tableColumn id="270" xr3:uid="{E6806467-9770-4C27-8A67-9D29FEE52945}" name="Term Accession Number (DPBO:0002008)" dataDxfId="10"/>
+    <tableColumn id="271" xr3:uid="{E248390C-987A-484F-B0EA-5AEADD81BCE3}" name="Characteristic [plant-associated environmental package]" dataDxfId="9"/>
+    <tableColumn id="272" xr3:uid="{7545D5D8-FC14-4F01-A0D6-FE9A3538FB40}" name="Term Source REF (DPBO:0002010)" dataDxfId="8"/>
+    <tableColumn id="273" xr3:uid="{B544AD33-BCFF-4C82-ADA3-5E89420AB82B}" name="Term Accession Number (DPBO:0002010)" dataDxfId="7"/>
+    <tableColumn id="87" xr3:uid="{00000000-0010-0000-0000-000057000000}" name="Characteristics [biome]" dataDxfId="6"/>
+    <tableColumn id="88" xr3:uid="{00000000-0010-0000-0000-000058000000}" name="Term Source REF (ENVO:00000428)" dataDxfId="5"/>
+    <tableColumn id="89" xr3:uid="{00000000-0010-0000-0000-000059000000}" name="Term Accession Number (ENVO:00000428)" dataDxfId="4"/>
+    <tableColumn id="274" xr3:uid="{82801566-AB84-4E42-A76F-4AAF6EFFE684}" name="Characteristic [environment (material)]" dataDxfId="3"/>
+    <tableColumn id="275" xr3:uid="{F12DCC5E-4233-4BC5-A11F-D5117797EAE7}" name="Term Source REF (DPBO:0002009)" dataDxfId="2"/>
+    <tableColumn id="276" xr3:uid="{DF634CF2-EFEB-4E8B-90C7-E41531C0FAB0}" name="Term Accession Number (DPBO:0002009)" dataDxfId="1"/>
+    <tableColumn id="252" xr3:uid="{06821B12-F14A-41E2-A959-045AC996203D}" name="Sample Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3036,67 +3003,67 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L1" t="s">
+        <v>443</v>
+      </c>
+      <c r="M1" t="s">
+        <v>444</v>
+      </c>
+      <c r="N1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O1" t="s">
+        <v>446</v>
+      </c>
+      <c r="P1" t="s">
         <v>447</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>448</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>449</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>450</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>451</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>452</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>453</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>454</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>455</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Y1" t="s">
         <v>456</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>457</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>458</v>
-      </c>
-      <c r="R1" t="s">
-        <v>459</v>
-      </c>
-      <c r="S1" t="s">
-        <v>460</v>
-      </c>
-      <c r="T1" t="s">
-        <v>461</v>
-      </c>
-      <c r="U1" t="s">
-        <v>462</v>
-      </c>
-      <c r="V1" t="s">
-        <v>463</v>
-      </c>
-      <c r="W1" t="s">
-        <v>464</v>
-      </c>
-      <c r="X1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>466</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>467</v>
       </c>
       <c r="AA1" t="s">
         <v>12</v>
@@ -3108,76 +3075,76 @@
         <v>14</v>
       </c>
       <c r="AD1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AN1" t="s">
         <v>468</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AO1" t="s">
         <v>469</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AP1" t="s">
         <v>470</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AQ1" t="s">
         <v>471</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AR1" t="s">
         <v>472</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AS1" t="s">
         <v>473</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AT1" t="s">
         <v>474</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AU1" t="s">
         <v>475</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AV1" t="s">
         <v>476</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AW1" t="s">
         <v>477</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AX1" t="s">
         <v>478</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AY1" t="s">
         <v>479</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AZ1" t="s">
         <v>480</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BA1" t="s">
         <v>481</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>482</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>483</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>484</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>485</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>486</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>487</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>490</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>491</v>
       </c>
       <c r="BB1" t="s">
         <v>22</v>
@@ -3207,22 +3174,22 @@
         <v>30</v>
       </c>
       <c r="BK1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="BL1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="BM1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="BN1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="BO1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="BP1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="BQ1" t="s">
         <v>33</v>
@@ -3237,52 +3204,52 @@
         <v>36</v>
       </c>
       <c r="BU1" t="s">
+        <v>488</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>489</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>490</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>491</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>492</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>493</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>494</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>495</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>496</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>497</v>
+      </c>
+      <c r="CE1" t="s">
         <v>498</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CF1" t="s">
         <v>499</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CG1" t="s">
         <v>500</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CH1" t="s">
         <v>501</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CI1" t="s">
         <v>502</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CJ1" t="s">
         <v>503</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>504</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>505</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>506</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>507</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>508</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>509</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>510</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>511</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>512</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>513</v>
       </c>
       <c r="CK1" t="s">
         <v>41</v>
@@ -3321,85 +3288,85 @@
         <v>52</v>
       </c>
       <c r="CW1" t="s">
+        <v>504</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>505</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>506</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>434</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>507</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>508</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>392</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>509</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>510</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>511</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>512</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>513</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>398</v>
+      </c>
+      <c r="DJ1" t="s">
         <v>514</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DK1" t="s">
         <v>515</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DL1" t="s">
+        <v>401</v>
+      </c>
+      <c r="DM1" t="s">
         <v>516</v>
       </c>
-      <c r="CZ1" t="s">
-        <v>444</v>
-      </c>
-      <c r="DA1" t="s">
+      <c r="DN1" t="s">
         <v>517</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DO1" t="s">
+        <v>404</v>
+      </c>
+      <c r="DP1" t="s">
         <v>518</v>
       </c>
-      <c r="DC1" t="s">
-        <v>402</v>
-      </c>
-      <c r="DD1" t="s">
+      <c r="DQ1" t="s">
         <v>519</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DR1" t="s">
         <v>520</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DS1" t="s">
         <v>521</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DT1" t="s">
         <v>522</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DU1" t="s">
         <v>523</v>
       </c>
-      <c r="DI1" t="s">
-        <v>408</v>
-      </c>
-      <c r="DJ1" t="s">
+      <c r="DV1" t="s">
         <v>524</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DW1" t="s">
         <v>525</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>411</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>526</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>527</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>414</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>528</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>529</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>530</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>531</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>532</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>533</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>534</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>535</v>
       </c>
       <c r="DX1" t="s">
         <v>63</v>
@@ -3414,46 +3381,46 @@
         <v>66</v>
       </c>
       <c r="EB1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="EC1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="ED1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="EE1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="EF1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="EG1" t="s">
         <v>68</v>
       </c>
       <c r="EH1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="EI1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="EJ1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="EK1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="EL1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="EM1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="EN1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="EO1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="EP1" t="s">
         <v>70</v>
@@ -3465,13 +3432,13 @@
         <v>72</v>
       </c>
       <c r="ES1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="ET1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="EU1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="EV1" t="s">
         <v>60</v>
@@ -3488,25 +3455,25 @@
         <v>75</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>76</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L2" t="s">
         <v>78</v>
@@ -3519,37 +3486,37 @@
       </c>
       <c r="O2" s="18"/>
       <c r="P2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Y2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Z2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AD2" s="19" t="s">
         <v>80</v>
@@ -3562,64 +3529,64 @@
       </c>
       <c r="AG2" s="21"/>
       <c r="AH2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AI2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AJ2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AK2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AL2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AM2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AN2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AO2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AP2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AQ2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AR2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AS2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AT2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AU2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AV2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AW2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AX2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AY2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AZ2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BA2" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BE2" t="s">
         <v>83</v>
@@ -3641,19 +3608,19 @@
       </c>
       <c r="BK2" s="18"/>
       <c r="BL2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BM2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BN2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BO2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BP2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1" t="s">
@@ -3678,30 +3645,30 @@
       <c r="BY2" s="2"/>
       <c r="BZ2" s="18"/>
       <c r="CA2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CB2" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CC2" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CC2" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CD2" s="18"/>
       <c r="CE2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CF2" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CG2" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CG2" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CH2" s="18"/>
       <c r="CI2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CJ2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
@@ -3717,136 +3684,136 @@
       <c r="CV2" s="3"/>
       <c r="CW2" s="18"/>
       <c r="CX2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CY2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CZ2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DA2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DB2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DC2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DD2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DE2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DF2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DG2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DH2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DI2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DJ2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DK2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DL2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DM2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DN2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DO2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DP2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DQ2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DR2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DS2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DT2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DU2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DV2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DW2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DX2" s="3"/>
       <c r="DY2" s="3"/>
       <c r="DZ2" s="3"/>
       <c r="EA2" s="18"/>
       <c r="EB2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EC2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="ED2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EE2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EF2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EG2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EH2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EI2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EJ2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EK2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EL2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EM2" s="18"/>
       <c r="EN2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EO2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EP2" s="3"/>
       <c r="EQ2" s="3"/>
       <c r="ER2" s="3"/>
       <c r="ES2" s="18"/>
       <c r="ET2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EU2" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EV2" s="18"/>
     </row>
@@ -3861,25 +3828,25 @@
         <v>75</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F3" s="20" t="s">
         <v>92</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L3" t="s">
         <v>94</v>
@@ -3892,37 +3859,37 @@
       </c>
       <c r="O3" s="18"/>
       <c r="P3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="R3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="S3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="V3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="W3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="X3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Y3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Z3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AD3" s="20" t="s">
         <v>95</v>
@@ -3933,66 +3900,66 @@
       <c r="AF3" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="AG3" s="22"/>
-      <c r="AH3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AI3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AJ3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AK3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AL3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AM3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AN3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AO3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AP3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AQ3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AR3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AS3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AT3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AU3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AV3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AW3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AX3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AY3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="AZ3" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA3" s="22" t="s">
-        <v>446</v>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AI3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AJ3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AK3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AL3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AM3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AN3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AO3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AP3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AQ3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AR3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AS3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AT3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AU3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AV3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AW3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AX3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AY3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="AZ3" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="BA3" s="18" t="s">
+        <v>436</v>
       </c>
       <c r="BE3" t="s">
         <v>97</v>
@@ -4014,19 +3981,19 @@
       </c>
       <c r="BK3" s="18"/>
       <c r="BL3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BM3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BN3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BO3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BP3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1" t="s">
@@ -4051,30 +4018,30 @@
       <c r="BY3" s="2"/>
       <c r="BZ3" s="18"/>
       <c r="CA3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CB3" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CC3" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CC3" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CD3" s="18"/>
       <c r="CE3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CF3" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CG3" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CG3" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CH3" s="18"/>
       <c r="CI3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CJ3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CK3" s="3"/>
       <c r="CL3" s="3"/>
@@ -4090,136 +4057,136 @@
       <c r="CV3" s="3"/>
       <c r="CW3" s="18"/>
       <c r="CX3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CY3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CZ3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DA3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DB3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DC3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DD3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DE3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DF3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DG3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DH3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DI3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DJ3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DK3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DL3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DM3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DN3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DO3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DP3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DQ3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DR3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DS3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DT3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DU3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DV3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DW3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DX3" s="3"/>
       <c r="DY3" s="3"/>
       <c r="DZ3" s="3"/>
       <c r="EA3" s="18"/>
       <c r="EB3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EC3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="ED3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EE3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EF3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EG3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EH3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EI3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EJ3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EK3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EL3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EM3" s="18"/>
       <c r="EN3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EO3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EP3" s="3"/>
       <c r="EQ3" s="3"/>
       <c r="ER3" s="3"/>
       <c r="ES3" s="18"/>
       <c r="ET3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EU3" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EV3" s="18"/>
     </row>
@@ -4234,70 +4201,70 @@
         <v>75</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="S4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="W4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="X4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Y4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Z4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AD4" s="19" t="s">
         <v>100</v>
@@ -4310,64 +4277,64 @@
       </c>
       <c r="AG4" s="21"/>
       <c r="AH4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AI4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AJ4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AK4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AL4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AM4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AN4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AO4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AP4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AQ4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AR4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AS4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AT4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AU4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AV4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AW4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AX4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AY4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AZ4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BA4" s="21" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BE4" t="s">
         <v>102</v>
@@ -4389,19 +4356,19 @@
       </c>
       <c r="BK4" s="18"/>
       <c r="BL4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BM4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BN4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BO4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BP4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1" t="s">
@@ -4426,30 +4393,30 @@
       <c r="BY4" s="2"/>
       <c r="BZ4" s="18"/>
       <c r="CA4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CB4" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CC4" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CC4" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CD4" s="18"/>
       <c r="CE4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CF4" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CG4" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CG4" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CH4" s="18"/>
       <c r="CI4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CJ4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
@@ -4465,136 +4432,136 @@
       <c r="CV4" s="3"/>
       <c r="CW4" s="18"/>
       <c r="CX4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CY4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CZ4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DA4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DB4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DC4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DD4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DE4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DF4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DG4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DH4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DI4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DJ4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DK4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DL4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DM4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DN4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DO4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DP4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DQ4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DR4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DS4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DT4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DU4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DV4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DW4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DX4" s="3"/>
       <c r="DY4" s="3"/>
       <c r="DZ4" s="3"/>
       <c r="EA4" s="18"/>
       <c r="EB4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EC4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="ED4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EE4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EF4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EG4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EH4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EI4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EJ4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EK4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EL4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EM4" s="18"/>
       <c r="EN4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EO4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EP4" s="3"/>
       <c r="EQ4" s="3"/>
       <c r="ER4" s="3"/>
       <c r="ES4" s="18"/>
       <c r="ET4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EU4" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EV4" s="18"/>
     </row>
@@ -4609,156 +4576,156 @@
         <v>75</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>106</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Q5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="V5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="W5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="X5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Y5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Z5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AD5" s="18"/>
       <c r="AE5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AF5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AG5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AH5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AI5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AJ5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AK5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AL5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AM5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AN5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AO5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AP5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AQ5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AR5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AS5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AT5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AU5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AV5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AW5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AX5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AY5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AZ5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BA5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BK5" s="18"/>
       <c r="BL5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BM5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BN5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BO5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BP5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1" t="s">
@@ -4783,30 +4750,30 @@
       <c r="BY5" s="2"/>
       <c r="BZ5" s="18"/>
       <c r="CA5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CB5" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CC5" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CC5" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CD5" s="18"/>
       <c r="CE5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CF5" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CG5" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CG5" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CH5" s="18"/>
       <c r="CI5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CJ5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
@@ -4822,136 +4789,136 @@
       <c r="CV5" s="3"/>
       <c r="CW5" s="18"/>
       <c r="CX5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CY5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CZ5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DA5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DB5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DC5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DD5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DE5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DF5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DG5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DH5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DI5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DJ5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DK5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DL5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DM5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DN5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DO5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DP5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DQ5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DR5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DS5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DT5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DU5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DV5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DW5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DX5" s="3"/>
       <c r="DY5" s="3"/>
       <c r="DZ5" s="3"/>
       <c r="EA5" s="18"/>
       <c r="EB5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EC5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="ED5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EE5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EF5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EG5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EH5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EI5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EJ5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EK5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EL5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EM5" s="18"/>
       <c r="EN5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EO5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EP5" s="3"/>
       <c r="EQ5" s="3"/>
       <c r="ER5" s="3"/>
       <c r="ES5" s="18"/>
       <c r="ET5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EU5" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EV5" s="18"/>
     </row>
@@ -4966,156 +4933,156 @@
         <v>75</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>107</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="W6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="X6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Y6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Z6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AD6" s="18"/>
       <c r="AE6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AF6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AG6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AH6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AI6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AJ6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AK6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AL6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AM6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AN6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AO6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AP6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AQ6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AR6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AS6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AT6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AU6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AV6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AW6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AX6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AY6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AZ6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BA6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BK6" s="18"/>
       <c r="BL6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BM6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BN6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BO6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BP6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BQ6" s="1"/>
       <c r="BR6" s="1" t="s">
@@ -5140,30 +5107,30 @@
       <c r="BY6" s="2"/>
       <c r="BZ6" s="18"/>
       <c r="CA6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CB6" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CC6" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CC6" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CD6" s="18"/>
       <c r="CE6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CF6" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CG6" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CG6" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CH6" s="18"/>
       <c r="CI6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CJ6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CK6" s="3"/>
       <c r="CL6" s="3"/>
@@ -5179,136 +5146,136 @@
       <c r="CV6" s="3"/>
       <c r="CW6" s="18"/>
       <c r="CX6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CY6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CZ6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DA6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DB6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DC6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DD6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DE6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DF6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DG6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DH6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DI6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DJ6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DK6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DL6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DM6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DN6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DO6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DP6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DQ6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DR6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DS6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DT6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DU6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DV6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DW6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DX6" s="3"/>
       <c r="DY6" s="3"/>
       <c r="DZ6" s="3"/>
       <c r="EA6" s="18"/>
       <c r="EB6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EC6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="ED6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EE6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EF6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EG6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EH6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EI6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EJ6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EK6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EL6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EM6" s="18"/>
       <c r="EN6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EO6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EP6" s="3"/>
       <c r="EQ6" s="3"/>
       <c r="ER6" s="3"/>
       <c r="ES6" s="18"/>
       <c r="ET6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EU6" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EV6" s="18"/>
     </row>
@@ -5323,156 +5290,156 @@
         <v>75</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>108</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="V7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="X7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AD7" s="18"/>
       <c r="AE7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AF7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AG7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AH7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AI7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AJ7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AK7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AL7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AM7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AN7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AO7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AP7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AQ7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AR7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AS7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AT7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AU7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AV7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AW7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AX7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AY7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="AZ7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BA7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BK7" s="18"/>
       <c r="BL7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BM7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BN7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BO7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BP7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1" t="s">
@@ -5497,30 +5464,30 @@
       <c r="BY7" s="2"/>
       <c r="BZ7" s="18"/>
       <c r="CA7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CB7" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CC7" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CC7" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CD7" s="18"/>
       <c r="CE7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CF7" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="CG7" s="23" t="s">
-        <v>446</v>
+        <v>436</v>
+      </c>
+      <c r="CG7" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="CH7" s="18"/>
       <c r="CI7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CJ7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CK7" s="3"/>
       <c r="CL7" s="3"/>
@@ -5536,136 +5503,136 @@
       <c r="CV7" s="3"/>
       <c r="CW7" s="18"/>
       <c r="CX7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CY7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="CZ7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DA7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DB7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DC7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DD7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DE7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DF7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DG7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DH7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DI7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DJ7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DK7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DL7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DM7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DN7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DO7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DP7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DQ7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DR7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DS7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DT7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DU7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DV7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DW7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="DX7" s="3"/>
       <c r="DY7" s="3"/>
       <c r="DZ7" s="3"/>
       <c r="EA7" s="18"/>
       <c r="EB7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EC7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="ED7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EE7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EF7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EG7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EH7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EI7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EJ7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EK7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EL7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EM7" s="18"/>
       <c r="EN7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EO7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EP7" s="3"/>
       <c r="EQ7" s="3"/>
       <c r="ER7" s="3"/>
       <c r="ES7" s="18"/>
       <c r="ET7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EU7" s="18" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="EV7" s="18"/>
     </row>
@@ -5784,7 +5751,7 @@
         <v>132</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6014,1227 +5981,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H33" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J38" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
@@ -7302,13 +6048,13 @@
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
@@ -7324,13 +6070,13 @@
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -7341,24 +6087,24 @@
         <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -7369,20 +6115,20 @@
         <v>6</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -7393,24 +6139,24 @@
         <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
@@ -7421,24 +6167,24 @@
         <v>8</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
@@ -7449,24 +6195,24 @@
         <v>9</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
@@ -7477,24 +6223,24 @@
         <v>10</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -7505,24 +6251,24 @@
         <v>11</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -7533,24 +6279,24 @@
         <v>12</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -7561,24 +6307,24 @@
         <v>15</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14"/>
@@ -7589,24 +6335,24 @@
         <v>16</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
@@ -7617,24 +6363,24 @@
         <v>17</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14"/>
@@ -7642,27 +6388,27 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
@@ -7673,24 +6419,24 @@
         <v>18</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
@@ -7701,24 +6447,24 @@
         <v>19</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
@@ -7729,24 +6475,24 @@
         <v>20</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>
@@ -7757,24 +6503,24 @@
         <v>21</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
@@ -7785,24 +6531,24 @@
         <v>22</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
@@ -7813,22 +6559,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
@@ -7839,22 +6585,22 @@
         <v>28</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
@@ -7865,22 +6611,22 @@
         <v>31</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -7891,22 +6637,22 @@
         <v>32</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H24" s="14"/>
       <c r="I24" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -7917,22 +6663,22 @@
         <v>33</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -7943,22 +6689,22 @@
         <v>37</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -7969,22 +6715,22 @@
         <v>38</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
@@ -7995,24 +6741,24 @@
         <v>39</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="14" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -8023,24 +6769,24 @@
         <v>40</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="14" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -8051,22 +6797,22 @@
         <v>41</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="14" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="H30" s="14"/>
       <c r="I30" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
@@ -8077,22 +6823,22 @@
         <v>44</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="H31" s="14"/>
       <c r="I31" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
@@ -8103,22 +6849,22 @@
         <v>47</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="H32" s="14"/>
       <c r="I32" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
@@ -8129,22 +6875,22 @@
         <v>50</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -8155,24 +6901,24 @@
         <v>53</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -8183,24 +6929,24 @@
         <v>54</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -8211,24 +6957,24 @@
         <v>55</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="14" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
@@ -8239,13 +6985,13 @@
         <v>56</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -8261,13 +7007,13 @@
         <v>57</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -8283,13 +7029,13 @@
         <v>58</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -8305,13 +7051,13 @@
         <v>59</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -8327,7 +7073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
@@ -8424,13 +7170,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -8446,13 +7192,13 @@
         <v>6</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -8468,27 +7214,27 @@
         <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -8498,13 +7244,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
@@ -8520,13 +7266,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -8542,13 +7288,13 @@
         <v>10</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -8564,13 +7310,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -8586,13 +7332,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -8608,27 +7354,27 @@
         <v>15</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="14"/>
@@ -8638,13 +7384,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -8660,43 +7406,43 @@
         <v>17</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -8712,13 +7458,13 @@
         <v>18</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -8734,27 +7480,27 @@
         <v>19</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="K17" s="14"/>
       <c r="L17" s="14"/>
@@ -8764,13 +7510,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -8786,13 +7532,13 @@
         <v>21</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -8808,13 +7554,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -8830,13 +7576,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -8852,13 +7598,13 @@
         <v>28</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -8874,13 +7620,13 @@
         <v>31</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -8896,13 +7642,13 @@
         <v>32</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -8918,13 +7664,13 @@
         <v>33</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -8940,13 +7686,13 @@
         <v>37</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -8962,13 +7708,13 @@
         <v>38</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -8984,13 +7730,13 @@
         <v>39</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -9006,13 +7752,13 @@
         <v>40</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -9028,13 +7774,13 @@
         <v>41</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -9050,13 +7796,13 @@
         <v>44</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -9072,13 +7818,13 @@
         <v>47</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -9094,13 +7840,13 @@
         <v>50</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -9116,13 +7862,13 @@
         <v>53</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -9138,13 +7884,13 @@
         <v>54</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
@@ -9160,13 +7906,13 @@
         <v>55</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -9182,13 +7928,13 @@
         <v>56</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -9204,13 +7950,13 @@
         <v>57</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -9226,13 +7972,13 @@
         <v>58</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -9248,13 +7994,13 @@
         <v>59</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>134</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -9270,7 +8016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
@@ -9358,16 +8104,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
@@ -9380,16 +8126,16 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -9402,24 +8148,24 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -9428,42 +8174,42 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>144</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -9476,16 +8222,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -9498,16 +8244,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -9523,13 +8269,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -9542,24 +8288,24 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>343</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>353</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -9568,16 +8314,16 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -9590,24 +8336,24 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
@@ -9616,16 +8362,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -9638,16 +8384,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>144</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -9660,27 +8406,27 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
@@ -9688,16 +8434,16 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -9710,16 +8456,16 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -9735,13 +8481,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -9757,13 +8503,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -9779,13 +8525,13 @@
         <v>28</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -9801,13 +8547,13 @@
         <v>31</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -9820,16 +8566,16 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -9845,13 +8591,13 @@
         <v>33</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -9864,16 +8610,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -9886,16 +8632,16 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -9908,16 +8654,16 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -9930,16 +8676,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -9955,13 +8701,13 @@
         <v>41</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -9977,13 +8723,13 @@
         <v>44</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -9999,13 +8745,13 @@
         <v>47</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -10021,13 +8767,13 @@
         <v>50</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -10040,68 +8786,68 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J34" s="14" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J35" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
@@ -10114,16 +8860,16 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
@@ -10136,16 +8882,16 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
@@ -10158,16 +8904,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
@@ -10180,16 +8926,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
@@ -10205,23 +8951,23 @@
         <v>61</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
@@ -10231,46 +8977,46 @@
         <v>62</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="K42" s="14"/>
       <c r="L42" s="14"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
@@ -10281,23 +9027,23 @@
         <v>66</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C44" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J44" s="14" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
@@ -10307,23 +9053,23 @@
         <v>67</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="C45" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
@@ -10333,101 +9079,101 @@
         <v>68</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C47" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
@@ -10437,23 +9183,23 @@
         <v>69</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikbrilhaus/github/nfdi4plants/Swate-templates/templates/dataplant/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B42C4F8-34FB-BA42-9FC2-800A9DA8370B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B70D6B-2E6D-49CB-8F6C-70EE0CC6CCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25180" yWindow="-21100" windowWidth="35200" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_growth" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="216">
   <si>
     <t>Source Name</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Plants</t>
-  </si>
-  <si>
     <t>Sampling Method</t>
   </si>
   <si>
@@ -666,6 +663,12 @@
   </si>
   <si>
     <t>1.3.0</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
   </si>
 </sst>
 </file>
@@ -888,9 +891,9 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="112">
     <dxf>
@@ -1392,9 +1395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1432,7 +1435,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1538,7 +1541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1680,7 +1683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1706,125 +1709,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EX7"/>
+  <dimension ref="A1:DX7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="40" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="40" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="38.1640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="38.109375" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="31.109375" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="38.33203125" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="31.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="38.5" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="38.44140625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="31.33203125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="38.5" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.44140625" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="31.33203125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="38.5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="38.44140625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="43.6640625" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="27.6640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="31.33203125" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="38.5" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="38.44140625" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="33" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="40" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="33" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="40" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="33" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="40" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="31.1640625" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="31.109375" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="38.33203125" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.5" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="38.5" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.44140625" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="38.44140625" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="33" hidden="1" customWidth="1"/>
     <col min="50" max="50" width="40" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="33" hidden="1" customWidth="1"/>
     <col min="53" max="53" width="40" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="43.83203125" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="43.77734375" hidden="1" customWidth="1"/>
     <col min="56" max="56" width="21.6640625" hidden="1" customWidth="1"/>
     <col min="57" max="57" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="43.83203125" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="43.77734375" hidden="1" customWidth="1"/>
     <col min="59" max="59" width="38.33203125" hidden="1" customWidth="1"/>
     <col min="60" max="60" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="43.6640625" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="28.1640625" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="28.109375" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="33" hidden="1" customWidth="1"/>
     <col min="65" max="65" width="40" hidden="1" customWidth="1"/>
     <col min="66" max="66" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="33" hidden="1" customWidth="1"/>
     <col min="68" max="68" width="40" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="32.109375" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="26.6640625" hidden="1" customWidth="1"/>
     <col min="71" max="71" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="72" max="72" width="36.33203125" hidden="1" customWidth="1"/>
     <col min="73" max="73" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="28.5" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="28.44140625" hidden="1" customWidth="1"/>
     <col min="75" max="75" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="76" max="76" width="26.6640625" hidden="1" customWidth="1"/>
     <col min="77" max="77" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="8" hidden="1" customWidth="1"/>
     <col min="79" max="79" width="33" hidden="1" customWidth="1"/>
     <col min="80" max="80" width="40" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.5" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.44140625" hidden="1" customWidth="1"/>
     <col min="83" max="83" width="33" hidden="1" customWidth="1"/>
     <col min="84" max="84" width="40" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="8.77734375" hidden="1" customWidth="1"/>
     <col min="87" max="87" width="33" hidden="1" customWidth="1"/>
     <col min="88" max="88" width="40" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="39.5" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="39.44140625" hidden="1" customWidth="1"/>
     <col min="91" max="91" width="32.33203125" hidden="1" customWidth="1"/>
     <col min="92" max="92" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="31.5" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="31.1640625" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="31.44140625" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="31.109375" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="36.33203125" hidden="1" customWidth="1"/>
     <col min="97" max="97" width="30.33203125" hidden="1" customWidth="1"/>
     <col min="98" max="98" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="34.83203125" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="34.77734375" hidden="1" customWidth="1"/>
     <col min="100" max="100" width="30" hidden="1" customWidth="1"/>
     <col min="101" max="101" width="26" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="33" hidden="1" customWidth="1"/>
     <col min="103" max="103" width="40" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="43.1640625" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="43.109375" hidden="1" customWidth="1"/>
     <col min="107" max="107" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="36.1640625" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="43.1640625" hidden="1" customWidth="1"/>
+    <col min="108" max="108" width="36.109375" hidden="1" customWidth="1"/>
+    <col min="109" max="109" width="43.109375" hidden="1" customWidth="1"/>
     <col min="110" max="110" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="31.1640625" hidden="1" customWidth="1"/>
+    <col min="111" max="111" width="31.109375" hidden="1" customWidth="1"/>
     <col min="112" max="112" width="38.33203125" hidden="1" customWidth="1"/>
     <col min="113" max="113" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="33" hidden="1" customWidth="1"/>
@@ -1836,42 +1839,42 @@
     <col min="120" max="120" width="33" hidden="1" customWidth="1"/>
     <col min="121" max="121" width="40" hidden="1" customWidth="1"/>
     <col min="122" max="122" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="29.83203125" hidden="1" customWidth="1"/>
+    <col min="123" max="123" width="29.77734375" hidden="1" customWidth="1"/>
     <col min="124" max="124" width="37" hidden="1" customWidth="1"/>
     <col min="125" max="125" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="29.83203125" hidden="1" customWidth="1"/>
+    <col min="126" max="126" width="29.77734375" hidden="1" customWidth="1"/>
     <col min="127" max="127" width="37" hidden="1" customWidth="1"/>
-    <col min="128" max="128" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="31.5" customWidth="1"/>
-    <col min="130" max="130" width="26.5" customWidth="1"/>
-    <col min="131" max="131" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="31.44140625" customWidth="1"/>
+    <col min="130" max="130" width="26.44140625" customWidth="1"/>
+    <col min="131" max="131" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="33" customWidth="1"/>
     <col min="133" max="133" width="40" customWidth="1"/>
-    <col min="134" max="134" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="135" max="135" width="33" customWidth="1"/>
     <col min="136" max="136" width="40" customWidth="1"/>
-    <col min="137" max="137" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="138" max="138" width="33" customWidth="1"/>
     <col min="139" max="139" width="40" customWidth="1"/>
-    <col min="140" max="140" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="141" max="141" width="33" customWidth="1"/>
     <col min="142" max="142" width="40" customWidth="1"/>
-    <col min="143" max="143" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="55.1640625" customWidth="1"/>
-    <col min="145" max="145" width="24.1640625" customWidth="1"/>
-    <col min="146" max="146" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="55.109375" customWidth="1"/>
+    <col min="145" max="145" width="24.109375" customWidth="1"/>
+    <col min="146" max="146" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="147" max="147" width="33" customWidth="1"/>
     <col min="148" max="148" width="40" customWidth="1"/>
-    <col min="149" max="149" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="150" max="150" width="39.6640625" customWidth="1"/>
-    <col min="151" max="151" width="11.5" customWidth="1"/>
+    <col min="151" max="151" width="11.44140625" customWidth="1"/>
     <col min="152" max="152" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="153" max="153" width="33" customWidth="1"/>
     <col min="154" max="154" width="40" customWidth="1"/>
     <col min="155" max="155" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1888,67 +1891,67 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" t="s">
         <v>125</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>126</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>127</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>128</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>129</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>130</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>132</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>133</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>134</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>135</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>136</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>137</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>138</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>139</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>140</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>141</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>142</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>143</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>144</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>145</v>
       </c>
       <c r="AA1" t="s">
         <v>5</v>
@@ -1960,76 +1963,76 @@
         <v>7</v>
       </c>
       <c r="AD1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE1" t="s">
         <v>146</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>147</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>148</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>149</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>150</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>151</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>152</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>153</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>154</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>155</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>156</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>157</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>158</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>159</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>160</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>161</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>162</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>163</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>164</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>165</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>166</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>167</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>168</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>169</v>
       </c>
       <c r="BB1" t="s">
         <v>8</v>
@@ -2059,22 +2062,22 @@
         <v>16</v>
       </c>
       <c r="BK1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BL1" t="s">
         <v>170</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>171</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>172</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>173</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>174</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>175</v>
       </c>
       <c r="BQ1" t="s">
         <v>17</v>
@@ -2089,52 +2092,52 @@
         <v>20</v>
       </c>
       <c r="BU1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV1" t="s">
         <v>176</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>177</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>178</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>179</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>180</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>181</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>182</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>183</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>184</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>185</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>186</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>187</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>188</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>189</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>190</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>191</v>
       </c>
       <c r="CK1" t="s">
         <v>21</v>
@@ -2173,91 +2176,91 @@
         <v>32</v>
       </c>
       <c r="CW1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CX1" t="s">
         <v>192</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CY1" t="s">
         <v>193</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CZ1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DA1" t="s">
         <v>194</v>
       </c>
-      <c r="CZ1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DA1" t="s">
+      <c r="DB1" t="s">
         <v>195</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DC1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DD1" t="s">
         <v>196</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DE1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>200</v>
+      </c>
+      <c r="DI1" t="s">
         <v>118</v>
       </c>
-      <c r="DD1" t="s">
-        <v>197</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>198</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>199</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>200</v>
-      </c>
-      <c r="DH1" t="s">
+      <c r="DJ1" t="s">
         <v>201</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DK1" t="s">
+        <v>202</v>
+      </c>
+      <c r="DL1" t="s">
         <v>119</v>
       </c>
-      <c r="DJ1" t="s">
-        <v>202</v>
-      </c>
-      <c r="DK1" t="s">
+      <c r="DM1" t="s">
         <v>203</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DN1" t="s">
+        <v>204</v>
+      </c>
+      <c r="DO1" t="s">
         <v>120</v>
       </c>
-      <c r="DM1" t="s">
-        <v>204</v>
-      </c>
-      <c r="DN1" t="s">
+      <c r="DP1" t="s">
         <v>205</v>
       </c>
-      <c r="DO1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>206</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>207</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>208</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>209</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>210</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>211</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>212</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>213</v>
       </c>
       <c r="DX1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:128" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
         <v>34</v>
       </c>
@@ -2268,25 +2271,25 @@
         <v>36</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L2" t="s">
         <v>39</v>
@@ -2299,37 +2302,37 @@
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD2" s="16" t="s">
         <v>41</v>
@@ -2342,64 +2345,64 @@
       </c>
       <c r="AG2" s="18"/>
       <c r="AH2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AN2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AT2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AU2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AV2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AW2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AZ2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BA2" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BE2" t="s">
         <v>44</v>
@@ -2421,19 +2424,19 @@
       </c>
       <c r="BK2" s="15"/>
       <c r="BL2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BP2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1" t="s">
@@ -2458,30 +2461,30 @@
       <c r="BY2" s="2"/>
       <c r="BZ2" s="15"/>
       <c r="CA2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CB2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CC2" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CD2" s="15"/>
       <c r="CE2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CF2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CG2" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CH2" s="15"/>
       <c r="CI2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CJ2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
@@ -2497,86 +2500,86 @@
       <c r="CV2" s="3"/>
       <c r="CW2" s="15"/>
       <c r="CX2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CY2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CZ2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DA2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DB2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DC2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DD2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DE2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DF2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DG2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DH2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DI2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DJ2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DK2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DL2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DM2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DN2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DO2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DP2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DQ2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DR2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DS2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DT2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DU2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DV2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DW2" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DX2" s="15"/>
     </row>
-    <row r="3" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>34</v>
       </c>
@@ -2587,25 +2590,25 @@
         <v>36</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L3" t="s">
         <v>55</v>
@@ -2618,37 +2621,37 @@
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD3" s="17" t="s">
         <v>56</v>
@@ -2661,64 +2664,64 @@
       </c>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AN3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AT3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AU3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AV3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AW3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AZ3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BA3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BE3" t="s">
         <v>58</v>
@@ -2740,19 +2743,19 @@
       </c>
       <c r="BK3" s="15"/>
       <c r="BL3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BM3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BN3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BO3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BP3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1" t="s">
@@ -2777,30 +2780,30 @@
       <c r="BY3" s="2"/>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CB3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CC3" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CD3" s="15"/>
       <c r="CE3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CF3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CG3" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CH3" s="15"/>
       <c r="CI3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CJ3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CK3" s="3"/>
       <c r="CL3" s="3"/>
@@ -2816,86 +2819,86 @@
       <c r="CV3" s="3"/>
       <c r="CW3" s="15"/>
       <c r="CX3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CY3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CZ3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DA3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DB3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DC3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DD3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DE3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DF3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DG3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DH3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DI3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DJ3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DK3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DL3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DM3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DN3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DO3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DP3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DQ3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DR3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DS3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DT3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DU3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DV3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DW3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DX3" s="15"/>
     </row>
-    <row r="4" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
@@ -2906,70 +2909,70 @@
         <v>36</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD4" s="16" t="s">
         <v>61</v>
@@ -2982,64 +2985,64 @@
       </c>
       <c r="AG4" s="18"/>
       <c r="AH4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AN4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AT4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AU4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AV4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AW4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AZ4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BA4" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BE4" t="s">
         <v>63</v>
@@ -3061,19 +3064,19 @@
       </c>
       <c r="BK4" s="15"/>
       <c r="BL4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BM4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BN4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BO4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BP4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1" t="s">
@@ -3098,30 +3101,30 @@
       <c r="BY4" s="2"/>
       <c r="BZ4" s="15"/>
       <c r="CA4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CB4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CC4" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CD4" s="15"/>
       <c r="CE4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CF4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CG4" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CH4" s="15"/>
       <c r="CI4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CJ4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
@@ -3137,86 +3140,86 @@
       <c r="CV4" s="3"/>
       <c r="CW4" s="15"/>
       <c r="CX4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CY4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CZ4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DA4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DB4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DC4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DD4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DE4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DF4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DG4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DH4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DI4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DJ4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DK4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DL4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DM4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DN4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DO4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DP4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DQ4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DR4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DS4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DT4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DU4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DV4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DW4" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DX4" s="15"/>
     </row>
-    <row r="5" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>34</v>
       </c>
@@ -3227,156 +3230,156 @@
         <v>36</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AN5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AT5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AU5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AV5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AW5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AZ5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BA5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BK5" s="15"/>
       <c r="BL5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BM5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BN5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BO5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BP5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1" t="s">
@@ -3401,30 +3404,30 @@
       <c r="BY5" s="2"/>
       <c r="BZ5" s="15"/>
       <c r="CA5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CB5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CC5" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CD5" s="15"/>
       <c r="CE5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CF5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CG5" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CH5" s="15"/>
       <c r="CI5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CJ5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
@@ -3440,86 +3443,86 @@
       <c r="CV5" s="3"/>
       <c r="CW5" s="15"/>
       <c r="CX5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CY5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CZ5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DA5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DB5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DC5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DD5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DE5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DF5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DG5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DH5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DI5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DJ5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DK5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DL5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DM5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DN5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DO5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DP5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DQ5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DR5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DS5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DT5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DU5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DV5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DW5" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DX5" s="15"/>
     </row>
-    <row r="6" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>34</v>
       </c>
@@ -3530,156 +3533,156 @@
         <v>36</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD6" s="15"/>
       <c r="AE6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AN6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AT6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AU6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AV6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AW6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AZ6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BA6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BK6" s="15"/>
       <c r="BL6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BM6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BN6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BO6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BP6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BQ6" s="1"/>
       <c r="BR6" s="1" t="s">
@@ -3704,30 +3707,30 @@
       <c r="BY6" s="2"/>
       <c r="BZ6" s="15"/>
       <c r="CA6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CB6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CC6" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CD6" s="15"/>
       <c r="CE6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CF6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CG6" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CH6" s="15"/>
       <c r="CI6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CJ6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CK6" s="3"/>
       <c r="CL6" s="3"/>
@@ -3743,86 +3746,86 @@
       <c r="CV6" s="3"/>
       <c r="CW6" s="15"/>
       <c r="CX6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CY6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CZ6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DA6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DB6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DC6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DD6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DE6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DF6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DG6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DH6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DI6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DJ6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DK6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DL6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DM6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DN6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DO6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DP6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DQ6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DR6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DS6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DT6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DU6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DV6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DW6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DX6" s="15"/>
     </row>
-    <row r="7" spans="1:128" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
@@ -3833,156 +3836,156 @@
         <v>36</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Y7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AH7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AI7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AL7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AM7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AN7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AO7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AP7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AS7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AT7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AU7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AV7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AW7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AZ7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BA7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BK7" s="15"/>
       <c r="BL7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BM7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BN7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BO7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BP7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1" t="s">
@@ -4007,30 +4010,30 @@
       <c r="BY7" s="2"/>
       <c r="BZ7" s="15"/>
       <c r="CA7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CB7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CC7" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CD7" s="15"/>
       <c r="CE7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CF7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CG7" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CH7" s="15"/>
       <c r="CI7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CJ7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CK7" s="3"/>
       <c r="CL7" s="3"/>
@@ -4046,82 +4049,82 @@
       <c r="CV7" s="3"/>
       <c r="CW7" s="15"/>
       <c r="CX7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CY7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="CZ7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DA7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DB7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DC7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DD7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DE7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DF7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DG7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DH7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DI7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DJ7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DK7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DL7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DM7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DN7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DO7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DP7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DQ7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DR7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DS7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DT7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DU7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DV7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DW7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="DX7" s="15"/>
     </row>
@@ -4137,19 +4140,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.1640625" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
     <col min="3" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>70</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>72</v>
       </c>
@@ -4165,15 +4168,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
@@ -4181,7 +4184,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>77</v>
       </c>
@@ -4189,7 +4192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>79</v>
       </c>
@@ -4197,13 +4200,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>82</v>
       </c>
@@ -4213,7 +4216,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>83</v>
       </c>
@@ -4223,7 +4226,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>84</v>
       </c>
@@ -4233,39 +4236,41 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="9" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9" t="s">
-        <v>92</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>36</v>
@@ -4273,13 +4278,15 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>35</v>
@@ -4287,55 +4294,55 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="9" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>101</v>
       </c>
+      <c r="B17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="9" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4343,9 +4350,9 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="13"/>
@@ -4353,9 +4360,9 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4363,9 +4370,9 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4373,9 +4380,9 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4383,9 +4390,9 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4393,9 +4400,9 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="13"/>
@@ -4403,9 +4410,9 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4413,9 +4420,9 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4423,9 +4430,9 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>

--- a/templates/dataplant/1SPL01_plants.xlsx
+++ b/templates/dataplant/1SPL01_plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B70D6B-2E6D-49CB-8F6C-70EE0CC6CCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228F59FA-FBA0-4AA6-9037-A0C6263CF1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plant_growth" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="217">
   <si>
     <t>Source Name</t>
   </si>
@@ -284,27 +284,12 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Sampling Method</t>
-  </si>
-  <si>
-    <t>Plant study</t>
-  </si>
-  <si>
-    <t>Plant Sample Checklist</t>
-  </si>
-  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C71492</t>
-  </si>
-  <si>
     <t>Tags Term Source REF</t>
   </si>
   <si>
-    <t>NCIT</t>
-  </si>
-  <si>
     <t>#AUTHORS list</t>
   </si>
   <si>
@@ -668,7 +653,25 @@
     <t>Plant</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C14258</t>
+    <t>NCIT:C14258</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>GO:0040007</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>NCIT:C63536</t>
+  </si>
+  <si>
+    <t>NCIT:C25662</t>
+  </si>
+  <si>
+    <t>Sampling</t>
   </si>
 </sst>
 </file>
@@ -1712,7 +1715,7 @@
   <dimension ref="A1:DX7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1891,67 +1894,67 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>128</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>129</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>130</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>131</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>132</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>133</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>135</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>136</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>137</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>138</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>139</v>
-      </c>
-      <c r="V1" t="s">
-        <v>140</v>
-      </c>
-      <c r="W1" t="s">
-        <v>141</v>
-      </c>
-      <c r="X1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>144</v>
       </c>
       <c r="AA1" t="s">
         <v>5</v>
@@ -1963,76 +1966,76 @@
         <v>7</v>
       </c>
       <c r="AD1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI1" t="s">
         <v>145</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AJ1" t="s">
         <v>146</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>147</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>148</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
         <v>149</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AN1" t="s">
         <v>150</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AO1" t="s">
         <v>151</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AP1" t="s">
         <v>152</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
         <v>153</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AR1" t="s">
         <v>154</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AS1" t="s">
         <v>155</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AT1" t="s">
         <v>156</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AU1" t="s">
         <v>157</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AV1" t="s">
         <v>158</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AW1" t="s">
         <v>159</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AX1" t="s">
         <v>160</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AY1" t="s">
         <v>161</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AZ1" t="s">
         <v>162</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BA1" t="s">
         <v>163</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>168</v>
       </c>
       <c r="BB1" t="s">
         <v>8</v>
@@ -2062,22 +2065,22 @@
         <v>16</v>
       </c>
       <c r="BK1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BP1" t="s">
         <v>169</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>174</v>
       </c>
       <c r="BQ1" t="s">
         <v>17</v>
@@ -2092,52 +2095,52 @@
         <v>20</v>
       </c>
       <c r="BU1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ1" t="s">
         <v>175</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CA1" t="s">
         <v>176</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CB1" t="s">
         <v>177</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CC1" t="s">
         <v>178</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CD1" t="s">
         <v>179</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CE1" t="s">
         <v>180</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CF1" t="s">
         <v>181</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CG1" t="s">
         <v>182</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CH1" t="s">
         <v>183</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CI1" t="s">
         <v>184</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CJ1" t="s">
         <v>185</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>188</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>189</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>190</v>
       </c>
       <c r="CK1" t="s">
         <v>21</v>
@@ -2176,85 +2179,85 @@
         <v>32</v>
       </c>
       <c r="CW1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>190</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DD1" t="s">
         <v>191</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DE1" t="s">
         <v>192</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DF1" t="s">
         <v>193</v>
       </c>
-      <c r="CZ1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DA1" t="s">
+      <c r="DG1" t="s">
         <v>194</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DH1" t="s">
         <v>195</v>
       </c>
-      <c r="DC1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DD1" t="s">
+      <c r="DI1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DJ1" t="s">
         <v>196</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DK1" t="s">
         <v>197</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DL1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" t="s">
         <v>198</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DN1" t="s">
         <v>199</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DO1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DP1" t="s">
         <v>200</v>
       </c>
-      <c r="DI1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DJ1" t="s">
+      <c r="DQ1" t="s">
         <v>201</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DR1" t="s">
         <v>202</v>
       </c>
-      <c r="DL1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DM1" t="s">
+      <c r="DS1" t="s">
         <v>203</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DT1" t="s">
         <v>204</v>
       </c>
-      <c r="DO1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DP1" t="s">
+      <c r="DU1" t="s">
         <v>205</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DV1" t="s">
         <v>206</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DW1" t="s">
         <v>207</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>208</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>209</v>
-      </c>
-      <c r="DU1" t="s">
-        <v>210</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>212</v>
       </c>
       <c r="DX1" t="s">
         <v>33</v>
@@ -2271,25 +2274,25 @@
         <v>36</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>37</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
         <v>39</v>
@@ -2302,37 +2305,37 @@
       </c>
       <c r="O2" s="15"/>
       <c r="P2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AD2" s="16" t="s">
         <v>41</v>
@@ -2345,64 +2348,64 @@
       </c>
       <c r="AG2" s="18"/>
       <c r="AH2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AI2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AJ2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AK2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AL2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AN2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AP2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AR2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AS2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AT2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AU2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AV2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AW2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AX2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AY2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AZ2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BA2" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BE2" t="s">
         <v>44</v>
@@ -2424,19 +2427,19 @@
       </c>
       <c r="BK2" s="15"/>
       <c r="BL2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BM2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BN2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BO2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BP2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BQ2" s="1"/>
       <c r="BR2" s="1" t="s">
@@ -2461,30 +2464,30 @@
       <c r="BY2" s="2"/>
       <c r="BZ2" s="15"/>
       <c r="CA2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CB2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CC2" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CD2" s="15"/>
       <c r="CE2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CF2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CG2" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CH2" s="15"/>
       <c r="CI2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CJ2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CK2" s="3"/>
       <c r="CL2" s="3"/>
@@ -2500,82 +2503,82 @@
       <c r="CV2" s="3"/>
       <c r="CW2" s="15"/>
       <c r="CX2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CY2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CZ2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DA2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DB2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DC2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DD2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DE2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DF2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DG2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DH2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DI2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DJ2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DK2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DL2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DM2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DN2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DO2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DP2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DQ2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DR2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DS2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DT2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DU2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DV2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DW2" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DX2" s="15"/>
     </row>
@@ -2590,25 +2593,25 @@
         <v>36</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L3" t="s">
         <v>55</v>
@@ -2621,37 +2624,37 @@
       </c>
       <c r="O3" s="15"/>
       <c r="P3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="V3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="W3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="X3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AD3" s="17" t="s">
         <v>56</v>
@@ -2664,64 +2667,64 @@
       </c>
       <c r="AG3" s="15"/>
       <c r="AH3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AI3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AJ3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AK3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AL3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AN3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AR3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AS3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AT3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AU3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AV3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AW3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AX3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AY3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AZ3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BA3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BE3" t="s">
         <v>58</v>
@@ -2743,19 +2746,19 @@
       </c>
       <c r="BK3" s="15"/>
       <c r="BL3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BM3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BN3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BO3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BP3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BQ3" s="1"/>
       <c r="BR3" s="1" t="s">
@@ -2780,30 +2783,30 @@
       <c r="BY3" s="2"/>
       <c r="BZ3" s="15"/>
       <c r="CA3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CB3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CC3" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CD3" s="15"/>
       <c r="CE3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CF3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CG3" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CH3" s="15"/>
       <c r="CI3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CJ3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CK3" s="3"/>
       <c r="CL3" s="3"/>
@@ -2819,82 +2822,82 @@
       <c r="CV3" s="3"/>
       <c r="CW3" s="15"/>
       <c r="CX3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CY3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CZ3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DA3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DB3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DC3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DD3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DE3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DF3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DG3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DH3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DI3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DJ3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DK3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DL3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DM3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DN3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DO3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DP3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DQ3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DR3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DS3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DT3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DU3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DV3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DW3" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DX3" s="15"/>
     </row>
@@ -2909,70 +2912,70 @@
         <v>36</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="W4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="X4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AD4" s="16" t="s">
         <v>61</v>
@@ -2985,64 +2988,64 @@
       </c>
       <c r="AG4" s="18"/>
       <c r="AH4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AI4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AJ4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AK4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AL4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AN4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AP4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AR4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AS4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AT4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AU4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AV4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AW4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AX4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AY4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AZ4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BA4" s="18" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BE4" t="s">
         <v>63</v>
@@ -3064,19 +3067,19 @@
       </c>
       <c r="BK4" s="15"/>
       <c r="BL4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BM4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BN4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BO4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BP4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BQ4" s="1"/>
       <c r="BR4" s="1" t="s">
@@ -3101,30 +3104,30 @@
       <c r="BY4" s="2"/>
       <c r="BZ4" s="15"/>
       <c r="CA4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CB4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CC4" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CD4" s="15"/>
       <c r="CE4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CF4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CG4" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CH4" s="15"/>
       <c r="CI4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CJ4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
@@ -3140,82 +3143,82 @@
       <c r="CV4" s="3"/>
       <c r="CW4" s="15"/>
       <c r="CX4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CY4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CZ4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DA4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DB4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DC4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DD4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DE4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DF4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DG4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DH4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DI4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DJ4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DK4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DL4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DM4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DN4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DO4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DP4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DQ4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DR4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DS4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DT4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DU4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DV4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DW4" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DX4" s="15"/>
     </row>
@@ -3230,156 +3233,156 @@
         <v>36</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AG5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AH5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AI5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AJ5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AK5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AL5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AN5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AR5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AS5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AT5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AU5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AV5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AW5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AX5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AY5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AZ5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BA5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BK5" s="15"/>
       <c r="BL5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BM5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BN5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BO5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BP5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BQ5" s="1"/>
       <c r="BR5" s="1" t="s">
@@ -3404,30 +3407,30 @@
       <c r="BY5" s="2"/>
       <c r="BZ5" s="15"/>
       <c r="CA5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CB5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CC5" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CD5" s="15"/>
       <c r="CE5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CF5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CG5" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CH5" s="15"/>
       <c r="CI5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CJ5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
@@ -3443,82 +3446,82 @@
       <c r="CV5" s="3"/>
       <c r="CW5" s="15"/>
       <c r="CX5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CY5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CZ5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DA5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DB5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DC5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DD5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DE5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DF5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DG5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DH5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DI5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DJ5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DK5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DL5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DM5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DN5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DO5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DP5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DQ5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DR5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DS5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DT5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DU5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DV5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DW5" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DX5" s="15"/>
     </row>
@@ -3533,156 +3536,156 @@
         <v>36</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="V6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="W6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="X6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AD6" s="15"/>
       <c r="AE6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AF6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AG6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AH6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AI6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AJ6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AK6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AL6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AN6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AP6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AR6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AS6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AT6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AU6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AV6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AW6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AX6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AY6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AZ6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BA6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BK6" s="15"/>
       <c r="BL6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BM6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BN6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BO6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BP6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BQ6" s="1"/>
       <c r="BR6" s="1" t="s">
@@ -3707,30 +3710,30 @@
       <c r="BY6" s="2"/>
       <c r="BZ6" s="15"/>
       <c r="CA6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CB6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CC6" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CD6" s="15"/>
       <c r="CE6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CF6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CG6" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CH6" s="15"/>
       <c r="CI6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CJ6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CK6" s="3"/>
       <c r="CL6" s="3"/>
@@ -3746,82 +3749,82 @@
       <c r="CV6" s="3"/>
       <c r="CW6" s="15"/>
       <c r="CX6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CY6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CZ6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DA6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DB6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DC6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DD6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DE6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DF6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DG6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DH6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DI6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DJ6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DK6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DL6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DM6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DN6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DO6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DP6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DQ6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DR6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DS6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DT6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DU6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DV6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DW6" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DX6" s="15"/>
     </row>
@@ -3836,156 +3839,156 @@
         <v>36</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>69</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="V7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="X7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Y7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AD7" s="15"/>
       <c r="AE7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AF7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AG7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AH7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AI7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AJ7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AK7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AL7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AN7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AO7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AP7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AQ7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AR7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AS7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AT7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AU7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AV7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AW7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AX7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AY7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AZ7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BA7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BK7" s="15"/>
       <c r="BL7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BM7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BN7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BO7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BP7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="BQ7" s="1"/>
       <c r="BR7" s="1" t="s">
@@ -4010,30 +4013,30 @@
       <c r="BY7" s="2"/>
       <c r="BZ7" s="15"/>
       <c r="CA7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CB7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CC7" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CD7" s="15"/>
       <c r="CE7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CF7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CG7" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CH7" s="15"/>
       <c r="CI7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CJ7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CK7" s="3"/>
       <c r="CL7" s="3"/>
@@ -4049,82 +4052,82 @@
       <c r="CV7" s="3"/>
       <c r="CW7" s="15"/>
       <c r="CX7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CY7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="CZ7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DA7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DB7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DC7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DD7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DE7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DF7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DG7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DH7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DI7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DJ7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DK7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DL7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DM7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DN7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DO7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DP7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DQ7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DR7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DS7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DT7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DU7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DV7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DW7" s="15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="DX7" s="15"/>
     </row>
@@ -4141,7 +4144,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4173,7 +4176,7 @@
         <v>74</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4247,102 +4250,96 @@
         <v>86</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>89</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="D13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="9"/>
+        <v>212</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>214</v>
+      </c>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -4352,7 +4349,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="13"/>
@@ -4362,7 +4359,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -4372,7 +4369,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -4382,7 +4379,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -4392,7 +4389,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -4402,7 +4399,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="13"/>
@@ -4412,7 +4409,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4422,7 +4419,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4432,7 +4429,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
